--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\FFLSupport\A.Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conra\Documents\GitHub\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3450" windowWidth="18270" windowHeight="27300" tabRatio="741" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="3912" windowWidth="18276" windowHeight="27300" tabRatio="741" firstSheet="9" activeTab="17" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality_TrainingLinks" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId16"/>
     <sheet name="FOD_Training" sheetId="10" r:id="rId17"/>
     <sheet name="FOD_Direct" sheetId="11" r:id="rId18"/>
-    <sheet name="FOD_Related" sheetId="12" r:id="rId19"/>
+    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId19"/>
     <sheet name="G4_Direct" sheetId="13" r:id="rId20"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="347">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -405,13 +405,7 @@
     <t>MVT Tool</t>
   </si>
   <si>
-    <t>NAFPI FOD Prevention</t>
-  </si>
-  <si>
     <t>https://mvtool.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>http://fodprevention.com/nafpi/</t>
   </si>
   <si>
     <t>Incident Reporting System (IRS) - What is Role of Manager?</t>
@@ -1001,6 +995,96 @@
   </si>
   <si>
     <t>TR001970</t>
+  </si>
+  <si>
+    <t>https://www.faa.gov/airports/airport_safety/fod/resources/</t>
+  </si>
+  <si>
+    <t>http://bcag.web.boeing.com/index.asp</t>
+  </si>
+  <si>
+    <t>http://bds.web.boeing.com/index.aspx?com=1&amp;id=1</t>
+  </si>
+  <si>
+    <t>http://ett.web.boeing.com/ett/</t>
+  </si>
+  <si>
+    <t>http://quality.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>https://www.faa.gov/</t>
+  </si>
+  <si>
+    <t>FAA FOD Resources</t>
+  </si>
+  <si>
+    <t>Boeing Commercial Airplanes</t>
+  </si>
+  <si>
+    <t>Boeing Defense, Space &amp; Security</t>
+  </si>
+  <si>
+    <t>Engineering Test and Technology</t>
+  </si>
+  <si>
+    <t>Enterprise Quality</t>
+  </si>
+  <si>
+    <t>FAA</t>
+  </si>
+  <si>
+    <t>https://epes1.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>http://supplierquality.web.boeing.com/index.cfm?sid=iqds_home&amp;pid=0</t>
+  </si>
+  <si>
+    <t>http://www.dcma.mil/policies/</t>
+  </si>
+  <si>
+    <t>Enterprise Process Evaluation System (EPES)</t>
+  </si>
+  <si>
+    <t>Integrated Quality Data System (IQDS)</t>
+  </si>
+  <si>
+    <t>Defense Contract Management Agency</t>
+  </si>
+  <si>
+    <t>https://mvtool.web.boeing.com/Metrics/DailyFirstLevelFODSweepMetric.aspx</t>
+  </si>
+  <si>
+    <t>https://mvtool.web.boeing.com/Metrics/SecondLevelFODSweepMetrics.aspx</t>
+  </si>
+  <si>
+    <t>http://enterprisefod.web.boeing.com/containment_and_control.html</t>
+  </si>
+  <si>
+    <t>https://mvtool.web.boeing.com/Metrics/MonthToolSweepMetrics.aspx</t>
+  </si>
+  <si>
+    <t>http://enterprisefod.web.boeing.com/fodreps.html</t>
+  </si>
+  <si>
+    <t>http://enterprisefod.web.boeing.com/signage.html</t>
+  </si>
+  <si>
+    <t>Daily First Level FOD Sweep</t>
+  </si>
+  <si>
+    <t>Second Level FOD Sweep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contamination and Control </t>
+  </si>
+  <si>
+    <t>Monthly Manager Tool Container Sweep</t>
+  </si>
+  <si>
+    <t>Find Your FOD Focal</t>
+  </si>
+  <si>
+    <t>Order Designated FOD Signage</t>
   </si>
 </sst>
 </file>
@@ -1425,23 +1509,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE13097-574F-4C9F-8B19-08314361E335}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="109.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="109.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1473,7 +1557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -1505,7 +1589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -1537,7 +1621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1635,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1560,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>39</v>
@@ -1569,7 +1653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1601,7 +1685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +1717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -1697,7 +1781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -1761,7 +1845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -1793,7 +1877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -1825,7 +1909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -1857,12 +1941,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -1889,12 +1973,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -1952,163 +2036,163 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -2128,26 +2212,26 @@
       <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -2156,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>16</v>
@@ -2165,7 +2249,7 @@
         <v>118</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>39</v>
@@ -2174,12 +2258,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -2188,7 +2272,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>16</v>
@@ -2197,7 +2281,7 @@
         <v>118</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>39</v>
@@ -2206,12 +2290,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -2238,12 +2322,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -2270,12 +2354,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2302,12 +2386,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
@@ -2334,12 +2418,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>1</v>
@@ -2366,12 +2450,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>1</v>
@@ -2398,12 +2482,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
@@ -2430,12 +2514,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -2462,12 +2546,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -2494,12 +2578,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -2526,12 +2610,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
@@ -2558,12 +2642,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -2590,12 +2674,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -2622,12 +2706,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>1</v>
@@ -2654,12 +2738,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>1</v>
@@ -2686,12 +2770,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>1</v>
@@ -2718,12 +2802,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>1</v>
@@ -2750,12 +2834,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>1</v>
@@ -2782,12 +2866,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>1</v>
@@ -2828,101 +2912,101 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -2931,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -2955,231 +3039,231 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -3199,22 +3283,22 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="9.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
@@ -3246,7 +3330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -3278,7 +3362,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -3310,7 +3394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -3342,7 +3426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -3374,7 +3458,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
@@ -3406,7 +3490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -3438,7 +3522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
@@ -3470,7 +3554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
@@ -3502,7 +3586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -3534,7 +3618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -3566,7 +3650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
@@ -3598,7 +3682,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
@@ -3630,7 +3714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
@@ -3662,7 +3746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3694,7 +3778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
@@ -3740,16 +3824,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="74.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +3925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
@@ -3887,7 +3971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
@@ -3947,18 +4031,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -3981,7 +4065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>93</v>
       </c>
@@ -3989,7 +4073,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>94</v>
       </c>
@@ -3998,7 +4082,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -4021,7 +4105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -4035,7 +4119,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>94</v>
       </c>
@@ -4044,7 +4128,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -4067,7 +4151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -4081,7 +4165,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>94</v>
       </c>
@@ -4090,7 +4174,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -4113,7 +4197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -4124,11 +4208,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="C14" s="17"/>
     </row>
@@ -4149,21 +4233,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -4195,7 +4279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -4227,7 +4311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -4259,7 +4343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -4291,7 +4375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -4300,7 +4384,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -4332,7 +4416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -4364,7 +4448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -4396,7 +4480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -4428,7 +4512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -4460,7 +4544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -4492,7 +4576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -4524,7 +4608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -4556,7 +4640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -4588,7 +4672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -4597,7 +4681,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -4614,52 +4698,154 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E26E63-8109-4DE4-A022-D115E987BDFB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.109375" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4671,24 +4857,24 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E298D-E3B6-4BA9-AF20-BC32A4D16B77}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="A12" sqref="A12:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>80</v>
@@ -4711,7 +4897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -4728,9 +4914,193 @@
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>323</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4748,15 +5118,15 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4773,7 +5143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -4790,7 +5160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -4807,7 +5177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4824,7 +5194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4855,180 +5225,180 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.5546875" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -5053,15 +5423,15 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="152" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -5078,7 +5448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -5095,7 +5465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -5112,7 +5482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -5129,14 +5499,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="1"/>
@@ -5162,21 +5532,21 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -5208,7 +5578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -5240,7 +5610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -5272,7 +5642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -5304,7 +5674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -5336,7 +5706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -5368,7 +5738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -5400,7 +5770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5411,7 +5781,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5422,7 +5792,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5433,7 +5803,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5444,7 +5814,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5469,33 +5839,33 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.88671875" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -5504,115 +5874,115 @@
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -5621,143 +5991,143 @@
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="E12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="E13" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="E14" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="E15" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>18</v>
@@ -5785,26 +6155,26 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -5831,12 +6201,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -5863,12 +6233,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -5895,12 +6265,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -5941,16 +6311,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -5958,47 +6328,47 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -6007,13 +6377,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -6022,134 +6392,134 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -6178,26 +6548,26 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6224,12 +6594,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -6256,7 +6626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6268,12 +6638,12 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -6314,84 +6684,84 @@
       <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -6400,115 +6770,115 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -6517,13 +6887,13 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -6532,13 +6902,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -6547,13 +6917,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -6562,109 +6932,109 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="E18" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>18</v>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -9,29 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3912" windowWidth="18276" windowHeight="27300" tabRatio="741" firstSheet="9" activeTab="17" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="4824" windowWidth="18276" windowHeight="27300" tabRatio="741" firstSheet="7" activeTab="13" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality_TrainingLinks" sheetId="1" r:id="rId1"/>
     <sheet name="Quality_DirectLinks" sheetId="2" r:id="rId2"/>
-    <sheet name="BPS_Direct" sheetId="3" r:id="rId3"/>
-    <sheet name="BPS_Training" sheetId="4" r:id="rId4"/>
-    <sheet name="RunTheBus_Direct" sheetId="5" r:id="rId5"/>
-    <sheet name="DevTeam_Train" sheetId="17" r:id="rId6"/>
-    <sheet name="DevTeam_Direct" sheetId="18" r:id="rId7"/>
-    <sheet name="DevSelf_Trainging" sheetId="19" r:id="rId8"/>
-    <sheet name="DevSelf_Direct" sheetId="20" r:id="rId9"/>
-    <sheet name="Draw_Direct" sheetId="21" r:id="rId10"/>
-    <sheet name="ManTeam_Train" sheetId="22" r:id="rId11"/>
-    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId12"/>
-    <sheet name="Resources_Direect" sheetId="24" r:id="rId13"/>
-    <sheet name="RunTheBusiness_Train" sheetId="6" r:id="rId14"/>
-    <sheet name="BPS_Related Links" sheetId="7" r:id="rId15"/>
+    <sheet name="RunTheBus_Direct" sheetId="5" r:id="rId3"/>
+    <sheet name="RunTheBusiness_Train" sheetId="6" r:id="rId4"/>
+    <sheet name="DevTeam_Train" sheetId="17" r:id="rId5"/>
+    <sheet name="DevTeam_Direct" sheetId="18" r:id="rId6"/>
+    <sheet name="DevSelf_Trainging" sheetId="19" r:id="rId7"/>
+    <sheet name="DevSelf_Direct" sheetId="20" r:id="rId8"/>
+    <sheet name="Draw_Direct" sheetId="21" r:id="rId9"/>
+    <sheet name="ManTeam_Train" sheetId="22" r:id="rId10"/>
+    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId11"/>
+    <sheet name="Resources_Direect" sheetId="24" r:id="rId12"/>
+    <sheet name="BPS_Related Links" sheetId="7" r:id="rId13"/>
+    <sheet name="BPS_Direct" sheetId="3" r:id="rId14"/>
+    <sheet name="BPS_Training" sheetId="4" r:id="rId15"/>
     <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId16"/>
     <sheet name="FOD_Training" sheetId="10" r:id="rId17"/>
     <sheet name="FOD_Direct" sheetId="11" r:id="rId18"/>
     <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId19"/>
     <sheet name="G4_Direct" sheetId="13" r:id="rId20"/>
+    <sheet name="PPMan_Direct" sheetId="25" r:id="rId21"/>
+    <sheet name="PPMan_Train" sheetId="26" r:id="rId22"/>
+    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="371">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -328,30 +331,6 @@
   </si>
   <si>
     <t>&lt;br&gt;</t>
-  </si>
-  <si>
-    <t>Boeing Product Standards</t>
-  </si>
-  <si>
-    <t>Pro -1 Approval Matrix</t>
-  </si>
-  <si>
-    <t>Policy Procedures &amp; Process Manangement  Help Center</t>
-  </si>
-  <si>
-    <t>OnePPM Help</t>
-  </si>
-  <si>
-    <t>http://brtpso.web.boeing.com/pdsm.aspx</t>
-  </si>
-  <si>
-    <t>http://csdms.web.boeing.com/dmswsso/getdoc/default.aspx?number=298-15-04138&amp;status=4&amp;type=xlsx</t>
-  </si>
-  <si>
-    <t>https://publishing.web.boeing.com/sites/ppapm/Pages/PP%20and%20PM%20Help%20Center.aspx</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/advancedSearch?opts.status=3&amp;opts.contentType=4&amp;opts.activeTab=PPP#</t>
   </si>
   <si>
     <t>FOD Prevention</t>
@@ -1085,13 +1064,109 @@
   </si>
   <si>
     <t>Order Designated FOD Signage</t>
+  </si>
+  <si>
+    <t>Program Management Best Practices</t>
+  </si>
+  <si>
+    <t>https://pm.web.boeing.com/index.aspx?com=1&amp;id=14</t>
+  </si>
+  <si>
+    <t>Introduction to Project Management</t>
+  </si>
+  <si>
+    <t>BCA Quality</t>
+  </si>
+  <si>
+    <t>What are Manager's Roles and Responsibilities</t>
+  </si>
+  <si>
+    <t>Managing With Metrics</t>
+  </si>
+  <si>
+    <t>Introduction to Budgeting</t>
+  </si>
+  <si>
+    <t>Managing and Developing a Budget</t>
+  </si>
+  <si>
+    <t>Improvement Plans and Metrics</t>
+  </si>
+  <si>
+    <t>Effective Meetings</t>
+  </si>
+  <si>
+    <t>81112M2</t>
+  </si>
+  <si>
+    <t>81112M3</t>
+  </si>
+  <si>
+    <t>81112M4</t>
+  </si>
+  <si>
+    <t>Form X37402 | Tool Container / Kit Sign Out / In</t>
+  </si>
+  <si>
+    <t>https://mvtool.web.boeing.com/Default.aspx</t>
+  </si>
+  <si>
+    <t>http://formsa.web.boeing.com/docs/sea/pub/AcrobatUsers/X/X37402.pdf</t>
+  </si>
+  <si>
+    <t>Bird Farm Charts</t>
+  </si>
+  <si>
+    <t>Boeing Opportunities, Risks and Issues Management System (BORIS)</t>
+  </si>
+  <si>
+    <t>Long Range Business Plan (LRBP)</t>
+  </si>
+  <si>
+    <t>Opportunities, Risks and Issues Management</t>
+  </si>
+  <si>
+    <t>Return On Investment</t>
+  </si>
+  <si>
+    <t>Production System Tenets PRO-7061</t>
+  </si>
+  <si>
+    <t>Enterprise Lean Website</t>
+  </si>
+  <si>
+    <t>https://wsso-support.web.boeing.com:2016/redirect.html?URL=https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-7061</t>
+  </si>
+  <si>
+    <t>http://leanplus.web.boeing.com</t>
+  </si>
+  <si>
+    <t>Production Tenets</t>
+  </si>
+  <si>
+    <t>https://bolt.web.boeing.com/docs/ProductionTenets.pdf</t>
+  </si>
+  <si>
+    <t>BCA Production System Standards</t>
+  </si>
+  <si>
+    <t>Standard Work</t>
+  </si>
+  <si>
+    <t>World-Class Productivity and Quality ("Lean")</t>
+  </si>
+  <si>
+    <t>https://wsso-support.web.boeing.com:2016/redirect.html?URL=https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-6508</t>
+  </si>
+  <si>
+    <t>http://wcpq.web.boeing.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,13 +1195,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1142,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1191,6 +1279,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1635,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1644,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>39</v>
@@ -1946,7 +2046,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -1978,7 +2078,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -2029,182 +2129,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A742A-0FE9-466D-BF17-68046948EB13}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D9536-D7D4-4119-BF78-312DB72EE7F2}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -2231,7 +2155,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -2240,16 +2164,16 @@
         <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>39</v>
@@ -2263,7 +2187,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -2272,16 +2196,16 @@
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>39</v>
@@ -2295,7 +2219,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -2310,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H3" s="10">
         <v>755591</v>
@@ -2327,7 +2251,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -2342,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4" s="10">
         <v>755592</v>
@@ -2359,7 +2283,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2374,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H5" s="10">
         <v>755593</v>
@@ -2391,7 +2315,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
@@ -2406,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H6" s="10">
         <v>755594</v>
@@ -2423,7 +2347,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>1</v>
@@ -2438,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H7" s="10">
         <v>755597</v>
@@ -2455,7 +2379,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>1</v>
@@ -2470,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H8" s="10">
         <v>755541</v>
@@ -2487,7 +2411,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
@@ -2502,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H9" s="10">
         <v>755542</v>
@@ -2519,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -2534,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H10" s="10">
         <v>755543</v>
@@ -2551,7 +2475,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -2566,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H11" s="10">
         <v>755232</v>
@@ -2583,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -2598,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H12" s="10">
         <v>755233</v>
@@ -2615,7 +2539,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
@@ -2630,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H13" s="10">
         <v>755211</v>
@@ -2647,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -2662,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H14" s="10">
         <v>755212</v>
@@ -2679,7 +2603,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -2694,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H15" s="10">
         <v>754711</v>
@@ -2711,7 +2635,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>1</v>
@@ -2726,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H16" s="10">
         <v>754712</v>
@@ -2743,7 +2667,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>1</v>
@@ -2758,7 +2682,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H17" s="10">
         <v>754541</v>
@@ -2775,7 +2699,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>1</v>
@@ -2790,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H18" s="10">
         <v>754542</v>
@@ -2807,7 +2731,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>1</v>
@@ -2822,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H19" s="10">
         <v>754546</v>
@@ -2839,7 +2763,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>1</v>
@@ -2854,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H20" s="10">
         <v>754548</v>
@@ -2871,7 +2795,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>1</v>
@@ -2886,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H21" s="10">
         <v>7545411</v>
@@ -2904,7 +2828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D183A9F-9016-4D73-9CB0-8CEB1EDD60A5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2926,13 +2850,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -2943,13 +2867,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -2960,13 +2884,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -2977,13 +2901,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -2994,13 +2918,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -3015,7 +2939,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -3031,7 +2955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443FEA50-AD07-4FAC-B5D8-A536423DFC1D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3053,13 +2977,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -3070,13 +2994,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -3087,13 +3011,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -3104,13 +3028,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -3121,13 +3045,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -3138,13 +3062,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -3155,13 +3079,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -3172,13 +3096,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -3189,13 +3113,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -3206,13 +3130,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -3223,13 +3147,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -3240,13 +3164,13 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -3257,13 +3181,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -3275,548 +3199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE5B24-297A-4D5A-B794-07A676657E5F}">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="15">
-        <v>78984</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="15">
-        <v>78984</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="16">
-        <v>78975</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="16">
-        <v>78975</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="16">
-        <v>80644</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="16">
-        <v>80644</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="16">
-        <v>76487</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="16">
-        <v>76487</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="16">
-        <v>78983</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="11">
-        <v>78983</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16">
-        <v>78960</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="11">
-        <v>78960</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="16">
-        <v>80723</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="11">
-        <v>80723</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69448B4-7CF2-487A-99A0-7584E7F873C5}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -4016,6 +3399,796 @@
       <c r="G8" s="17" t="s">
         <v>17</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="152" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{BAC805CC-DE93-4F57-B7B6-8270411C4A8E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{078F15F3-CEDF-40A4-915A-2A5C7F323011}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{50B33E06-21E7-4232-8363-9C3AACA8B96E}"/>
+    <hyperlink ref="B1" r:id="rId4" xr:uid="{22AC1C8E-244C-4614-85DF-A93B91FCB923}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4">
+        <v>80431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6">
+        <v>80431</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4">
+        <v>80432</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6">
+        <v>80432</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>80433</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6">
+        <v>80433</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>80463</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>80463</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>80423</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>80423</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>77487</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>77487</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>77493</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6">
+        <v>77493</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10">
+        <v>754549</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>754549</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10">
+        <v>7545410</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10">
+        <v>7545410</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4252,7 +4425,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -4267,7 +4440,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H1" s="10">
         <v>80879</v>
@@ -4284,7 +4457,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -4299,7 +4472,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>78232</v>
@@ -4316,7 +4489,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -4331,7 +4504,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>60894</v>
@@ -4348,7 +4521,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -4363,7 +4536,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <v>77589</v>
@@ -4389,7 +4562,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
@@ -4398,16 +4571,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>39</v>
@@ -4421,7 +4594,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>1</v>
@@ -4436,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H7">
         <v>77119</v>
@@ -4453,7 +4626,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>1</v>
@@ -4468,7 +4641,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H8">
         <v>76112</v>
@@ -4485,7 +4658,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
@@ -4500,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H9">
         <v>75164</v>
@@ -4517,7 +4690,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -4526,16 +4699,16 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>39</v>
@@ -4549,7 +4722,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -4564,7 +4737,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H11">
         <v>75347</v>
@@ -4581,7 +4754,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -4596,7 +4769,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H12">
         <v>75516</v>
@@ -4613,7 +4786,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
@@ -4628,7 +4801,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H13">
         <v>75571</v>
@@ -4645,7 +4818,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -4660,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H14">
         <v>76051</v>
@@ -4700,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E26E63-8109-4DE4-A022-D115E987BDFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4718,13 +4891,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -4735,13 +4908,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -4752,13 +4925,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -4769,13 +4942,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -4786,13 +4959,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -4803,13 +4976,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -4820,13 +4993,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -4837,13 +5010,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -4882,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>80</v>
@@ -4891,7 +5064,7 @@
         <v>81</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>17</v>
@@ -4905,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -4914,7 +5087,7 @@
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>17</v>
@@ -4928,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -4937,7 +5110,7 @@
         <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>17</v>
@@ -4951,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>80</v>
@@ -4960,7 +5133,7 @@
         <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>17</v>
@@ -4974,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
@@ -4983,7 +5156,7 @@
         <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>17</v>
@@ -4997,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -5006,7 +5179,7 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>17</v>
@@ -5020,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
@@ -5029,7 +5202,7 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>17</v>
@@ -5043,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>80</v>
@@ -5052,7 +5225,7 @@
         <v>81</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>17</v>
@@ -5066,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>80</v>
@@ -5075,7 +5248,7 @@
         <v>81</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>17</v>
@@ -5089,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
@@ -5098,7 +5271,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>17</v>
@@ -5112,10 +5285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF194037-FCAE-4149-A2B7-FC153B064D9E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5208,6 +5381,23 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5239,13 +5429,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -5256,13 +5446,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -5273,13 +5463,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -5290,13 +5480,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -5307,13 +5497,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -5324,13 +5514,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -5341,13 +5531,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -5358,13 +5548,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -5375,13 +5565,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -5392,13 +5582,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -5415,415 +5605,1126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
-  <dimension ref="A1:E6"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3FC1-706E-4539-B51F-A7DE3171945B}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{575C749D-1056-40C7-B56E-591358943E8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DF135-25CB-409B-A853-E1F0D9C04303}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="10">
+        <v>77434</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10">
+        <v>77434</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FDFE3D-CB98-463D-8738-A88643500DE3}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{87F0A097-D61C-4FB0-BA2F-71221A5A5F90}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2D715427-F7AF-4D91-8435-79D4FE71D7ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E0EBA3-0050-4665-953C-FBCD138694ED}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="152" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>162</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>343</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://wcpq.web.boeing.com/toolkit/rccapa.cfm" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://wcpq.web.boeing.com/NavTool/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://qms.ca.boeing.com/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{13D5E944-46C4-4845-B083-8205C604858C}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{92F71CAB-528E-42F8-80DA-14992CBC7F92}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{680B759C-1A89-42FD-9667-F66C3BC90620}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{2FADBE31-C5A2-4584-9FB0-A8E161B73B57}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{26E5B6A1-56CB-45BA-8A6C-9DD2179531D3}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{52131D9D-10E0-4D3B-8463-CFA76F8093E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE5B24-297A-4D5A-B794-07A676657E5F}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4">
-        <v>80431</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15">
+        <v>78984</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6">
-        <v>80431</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H1" s="15">
+        <v>78984</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4">
-        <v>80432</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="A2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16">
+        <v>78975</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6">
-        <v>80432</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="16">
+        <v>78975</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4">
-        <v>80433</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="16">
+        <v>80644</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6">
-        <v>80433</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="16">
+        <v>80644</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4">
-        <v>80463</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="16">
+        <v>76487</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
-        <v>80463</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="16">
+        <v>76487</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>80423</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
-        <v>80423</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4">
-        <v>77487</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16">
+        <v>78983</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6">
-        <v>77487</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4">
-        <v>77493</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="11">
+        <v>78983</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="16">
+        <v>78960</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
-        <v>77493</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="11">
+        <v>78960</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
+      <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16">
+        <v>80723</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="11">
+        <v>80723</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5832,322 +6733,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E0EBA3-0050-4665-953C-FBCD138694ED}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.88671875" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{13D5E944-46C4-4845-B083-8205C604858C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{92F71CAB-528E-42F8-80DA-14992CBC7F92}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{680B759C-1A89-42FD-9667-F66C3BC90620}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2FADBE31-C5A2-4584-9FB0-A8E161B73B57}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{26E5B6A1-56CB-45BA-8A6C-9DD2179531D3}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{52131D9D-10E0-4D3B-8463-CFA76F8093E4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30C4674-3DF7-47AB-ABF4-E953E826AB0C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -6174,7 +6759,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -6189,7 +6774,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H1" s="10">
         <v>755231</v>
@@ -6206,7 +6791,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -6221,7 +6806,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H2" s="10">
         <v>754721</v>
@@ -6238,7 +6823,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -6253,7 +6838,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H3" s="10">
         <v>754722</v>
@@ -6270,7 +6855,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -6285,7 +6870,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4" s="10">
         <v>754723</v>
@@ -6303,7 +6888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A512123-8187-401D-9BB6-B5E323D4E791}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6328,7 +6913,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -6339,13 +6924,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -6356,13 +6941,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -6377,7 +6962,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -6392,7 +6977,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -6403,13 +6988,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -6420,13 +7005,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -6437,13 +7022,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -6454,13 +7039,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -6471,13 +7056,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -6491,7 +7076,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -6505,7 +7090,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -6519,7 +7104,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -6540,7 +7125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D7100C-4DB2-47F9-B174-F848E9E26C19}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -6567,7 +7152,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6582,7 +7167,7 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H1" s="10">
         <v>77519</v>
@@ -6599,7 +7184,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -6614,7 +7199,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H2" s="10">
         <v>755595</v>
@@ -6643,7 +7228,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -6658,7 +7243,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H4" s="10">
         <v>78961</v>
@@ -6676,7 +7261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A559FD-CCC3-4E61-81EE-2862331EDF2D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6698,13 +7283,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -6715,13 +7300,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -6732,13 +7317,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -6749,13 +7334,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -6770,7 +7355,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -6781,13 +7366,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -6798,13 +7383,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -6815,13 +7400,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -6832,13 +7417,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -6849,13 +7434,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -6866,13 +7451,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -6887,7 +7472,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -6902,7 +7487,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -6917,7 +7502,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>18</v>
@@ -6932,7 +7517,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>18</v>
@@ -6943,13 +7528,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>18</v>
@@ -6960,13 +7545,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>18</v>
@@ -6977,13 +7562,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>18</v>
@@ -6994,13 +7579,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>18</v>
@@ -7011,13 +7596,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>18</v>
@@ -7028,13 +7613,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>18</v>
@@ -7058,4 +7643,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A742A-0FE9-466D-BF17-68046948EB13}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="364">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t xml:space="preserve">Linking Barcharts and the Boeing Production System </t>
-  </si>
-  <si>
-    <t>Introduction to 14CFR Part 21 and Associated FAA Regulations and Processes</t>
-  </si>
-  <si>
-    <t>Introduction to the Boeing Commercial Airplanes Quality Management System for Production Certificate 700</t>
   </si>
   <si>
     <t>Find Learning</t>
@@ -1081,30 +1075,6 @@
     <t>What are Manager's Roles and Responsibilities</t>
   </si>
   <si>
-    <t>Managing With Metrics</t>
-  </si>
-  <si>
-    <t>Introduction to Budgeting</t>
-  </si>
-  <si>
-    <t>Managing and Developing a Budget</t>
-  </si>
-  <si>
-    <t>Improvement Plans and Metrics</t>
-  </si>
-  <si>
-    <t>Effective Meetings</t>
-  </si>
-  <si>
-    <t>81112M2</t>
-  </si>
-  <si>
-    <t>81112M3</t>
-  </si>
-  <si>
-    <t>81112M4</t>
-  </si>
-  <si>
     <t>Form X37402 | Tool Container / Kit Sign Out / In</t>
   </si>
   <si>
@@ -1160,6 +1130,15 @@
   </si>
   <si>
     <t>http://wcpq.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>Standardized Work 777X</t>
+  </si>
+  <si>
+    <t>TR013445</t>
+  </si>
+  <si>
+    <t>Introduction to Value Stream Mapping (VSM)</t>
   </si>
 </sst>
 </file>
@@ -1203,18 +1182,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1230,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1289,9 +1262,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1735,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1744,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>39</v>
@@ -2046,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -2078,7 +2053,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -2155,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -2164,16 +2139,16 @@
         <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>39</v>
@@ -2187,7 +2162,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -2196,16 +2171,16 @@
         <v>30</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>39</v>
@@ -2219,7 +2194,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -2234,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="10">
         <v>755591</v>
@@ -2251,7 +2226,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -2266,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="10">
         <v>755592</v>
@@ -2283,7 +2258,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -2298,7 +2273,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="10">
         <v>755593</v>
@@ -2315,7 +2290,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
@@ -2330,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="10">
         <v>755594</v>
@@ -2347,7 +2322,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>1</v>
@@ -2362,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7" s="10">
         <v>755597</v>
@@ -2379,7 +2354,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>1</v>
@@ -2394,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="10">
         <v>755541</v>
@@ -2411,7 +2386,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
@@ -2426,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9" s="10">
         <v>755542</v>
@@ -2443,7 +2418,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -2458,7 +2433,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H10" s="10">
         <v>755543</v>
@@ -2475,7 +2450,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -2490,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11" s="10">
         <v>755232</v>
@@ -2507,7 +2482,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -2522,7 +2497,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" s="10">
         <v>755233</v>
@@ -2539,7 +2514,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
@@ -2554,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="10">
         <v>755211</v>
@@ -2571,7 +2546,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -2586,7 +2561,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="10">
         <v>755212</v>
@@ -2603,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -2618,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H15" s="10">
         <v>754711</v>
@@ -2635,7 +2610,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>1</v>
@@ -2650,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H16" s="10">
         <v>754712</v>
@@ -2667,7 +2642,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>1</v>
@@ -2682,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" s="10">
         <v>754541</v>
@@ -2699,7 +2674,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>1</v>
@@ -2714,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H18" s="10">
         <v>754542</v>
@@ -2731,7 +2706,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>1</v>
@@ -2746,7 +2721,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="10">
         <v>754546</v>
@@ -2763,7 +2738,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>1</v>
@@ -2778,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="10">
         <v>754548</v>
@@ -2795,7 +2770,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>1</v>
@@ -2810,7 +2785,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="10">
         <v>7545411</v>
@@ -2850,13 +2825,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -2867,13 +2842,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -2884,13 +2859,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -2901,13 +2876,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -2918,13 +2893,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -2939,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -2977,13 +2952,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -2994,13 +2969,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -3011,13 +2986,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -3028,13 +3003,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -3045,13 +3020,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -3062,13 +3037,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -3079,13 +3054,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -3096,13 +3071,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -3113,13 +3088,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -3130,13 +3105,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -3147,13 +3122,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -3164,13 +3139,13 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -3181,13 +3156,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -3224,16 +3199,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -3247,16 +3222,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>17</v>
@@ -3270,16 +3245,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>17</v>
@@ -3293,16 +3268,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>17</v>
@@ -3316,16 +3291,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>17</v>
@@ -3339,16 +3314,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>17</v>
@@ -3362,16 +3337,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>17</v>
@@ -3385,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>17</v>
@@ -3408,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3426,14 +3401,14 @@
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>365</v>
+      <c r="B1" s="25" t="s">
+        <v>355</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -3444,13 +3419,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -3460,14 +3435,14 @@
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>363</v>
+      <c r="B3" s="25" t="s">
+        <v>353</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -3477,14 +3452,14 @@
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>369</v>
+      <c r="B4" s="25" t="s">
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>18</v>
@@ -3494,14 +3469,14 @@
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>369</v>
+      <c r="B5" s="25" t="s">
+        <v>359</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
@@ -3511,14 +3486,14 @@
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>370</v>
+      <c r="B6" s="25" t="s">
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -3528,7 +3503,7 @@
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3541,7 +3516,7 @@
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3554,7 +3529,7 @@
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3567,7 +3542,7 @@
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3580,7 +3555,7 @@
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3593,7 +3568,7 @@
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3606,7 +3581,7 @@
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3619,7 +3594,7 @@
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3632,7 +3607,7 @@
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3645,7 +3620,7 @@
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +3633,7 @@
       <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3671,7 +3646,7 @@
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3684,7 +3659,7 @@
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3697,7 +3672,7 @@
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3685,7 @@
       <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3723,7 +3698,7 @@
       <c r="A22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3736,7 +3711,7 @@
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3749,7 +3724,7 @@
       <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3757,6 +3732,30 @@
       <c r="E24" s="17" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3772,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="A10" sqref="A10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3784,10 +3783,10 @@
     <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="106.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3957,7 +3956,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>361</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
@@ -3966,7 +3965,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="4">
-        <v>77487</v>
+        <v>80644</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -3974,8 +3973,8 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6">
-        <v>77487</v>
+      <c r="H6" s="10">
+        <v>80644</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>39</v>
@@ -3989,7 +3988,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
@@ -3998,7 +3997,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4">
-        <v>77493</v>
+        <v>76487</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
@@ -4006,8 +4005,8 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
-        <v>77493</v>
+      <c r="H7" s="10">
+        <v>76487</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>39</v>
@@ -4016,55 +4015,55 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -4073,7 +4072,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>350</v>
+        <v>54</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>16</v>
@@ -4082,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>350</v>
+        <v>54</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>39</v>
@@ -4096,7 +4095,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -4105,7 +4104,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>351</v>
+        <v>55</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>16</v>
@@ -4114,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>351</v>
+        <v>55</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>39</v>
@@ -4128,7 +4127,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -4137,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="10">
-        <v>754549</v>
+        <v>80723</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>16</v>
@@ -4146,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="10">
-        <v>754549</v>
+        <v>80723</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>39</v>
@@ -4159,27 +4158,21 @@
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>348</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10">
-        <v>7545410</v>
-      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10">
-        <v>7545410</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
         <v>39</v>
       </c>
@@ -4188,7 +4181,33 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
+      <c r="A14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4223,16 +4242,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>38</v>
@@ -4240,7 +4259,7 @@
     </row>
     <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4248,7 +4267,7 @@
     </row>
     <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -4263,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>38</v>
@@ -4283,10 +4302,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4294,7 +4313,7 @@
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="1"/>
@@ -4309,16 +4328,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>38</v>
@@ -4329,10 +4348,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4340,7 +4359,7 @@
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="1"/>
@@ -4355,16 +4374,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>38</v>
@@ -4375,10 +4394,10 @@
         <v>37</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4425,7 +4444,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -4440,7 +4459,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10">
         <v>80879</v>
@@ -4457,7 +4476,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -4472,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>78232</v>
@@ -4489,7 +4508,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -4504,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3">
         <v>60894</v>
@@ -4521,7 +4540,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -4536,7 +4555,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4">
         <v>77589</v>
@@ -4562,7 +4581,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
@@ -4571,16 +4590,16 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>39</v>
@@ -4594,7 +4613,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>1</v>
@@ -4609,7 +4628,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H7">
         <v>77119</v>
@@ -4626,7 +4645,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>1</v>
@@ -4641,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8">
         <v>76112</v>
@@ -4658,7 +4677,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
@@ -4673,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9">
         <v>75164</v>
@@ -4690,7 +4709,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -4699,16 +4718,16 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>39</v>
@@ -4722,7 +4741,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -4737,7 +4756,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H11">
         <v>75347</v>
@@ -4754,7 +4773,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -4769,7 +4788,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12">
         <v>75516</v>
@@ -4786,7 +4805,7 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
@@ -4801,7 +4820,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13">
         <v>75571</v>
@@ -4818,7 +4837,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -4833,7 +4852,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14">
         <v>76051</v>
@@ -4891,13 +4910,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -4908,13 +4927,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -4925,13 +4944,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -4942,13 +4961,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -4959,13 +4978,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -4976,13 +4995,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -4993,13 +5012,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -5010,13 +5029,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -5055,16 +5074,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>17</v>
@@ -5078,16 +5097,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>17</v>
@@ -5101,16 +5120,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>17</v>
@@ -5124,16 +5143,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>17</v>
@@ -5147,16 +5166,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>17</v>
@@ -5170,16 +5189,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>17</v>
@@ -5193,16 +5212,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>17</v>
@@ -5216,16 +5235,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>17</v>
@@ -5239,16 +5258,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>17</v>
@@ -5262,16 +5281,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>17</v>
@@ -5395,7 +5414,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -5429,13 +5448,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -5446,13 +5465,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -5463,13 +5482,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -5480,13 +5499,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -5497,13 +5516,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -5514,13 +5533,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -5531,13 +5550,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -5548,13 +5567,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -5565,13 +5584,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -5582,13 +5601,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -5627,13 +5646,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -5675,13 +5694,13 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="10">
         <v>77434</v>
@@ -5690,7 +5709,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10">
         <v>77434</v>
@@ -5730,13 +5749,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -5747,13 +5766,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -5791,13 +5810,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -5812,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -5826,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -5837,13 +5856,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -5854,13 +5873,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -5871,13 +5890,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -5888,13 +5907,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -5905,13 +5924,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -5922,13 +5941,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -5943,7 +5962,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -5954,13 +5973,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -5971,13 +5990,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -5988,13 +6007,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -6005,13 +6024,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>18</v>
@@ -6022,13 +6041,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>18</v>
@@ -6039,13 +6058,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>18</v>
@@ -6056,13 +6075,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>18</v>
@@ -6073,13 +6092,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>18</v>
@@ -6090,13 +6109,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>18</v>
@@ -6111,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>18</v>
@@ -6126,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>18</v>
@@ -6141,7 +6160,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>18</v>
@@ -6156,7 +6175,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>18</v>
@@ -6171,7 +6190,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>18</v>
@@ -6759,7 +6778,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -6774,7 +6793,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10">
         <v>755231</v>
@@ -6791,7 +6810,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -6806,7 +6825,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="10">
         <v>754721</v>
@@ -6823,7 +6842,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -6838,7 +6857,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H3" s="10">
         <v>754722</v>
@@ -6855,7 +6874,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -6870,7 +6889,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="10">
         <v>754723</v>
@@ -6913,7 +6932,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -6924,13 +6943,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -6941,13 +6960,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -6962,7 +6981,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -6977,7 +6996,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -6988,13 +7007,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -7005,13 +7024,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -7022,13 +7041,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -7039,13 +7058,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -7056,13 +7075,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -7076,7 +7095,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -7090,7 +7109,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -7104,7 +7123,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -7152,7 +7171,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -7167,7 +7186,7 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10">
         <v>77519</v>
@@ -7184,7 +7203,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -7199,7 +7218,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="10">
         <v>755595</v>
@@ -7228,7 +7247,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -7243,7 +7262,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="10">
         <v>78961</v>
@@ -7283,13 +7302,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -7300,13 +7319,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -7317,13 +7336,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -7334,13 +7353,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -7355,7 +7374,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -7366,13 +7385,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -7383,13 +7402,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -7400,13 +7419,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -7417,13 +7436,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -7434,13 +7453,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -7451,13 +7470,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -7472,7 +7491,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -7487,7 +7506,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -7502,7 +7521,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>18</v>
@@ -7517,7 +7536,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>18</v>
@@ -7528,13 +7547,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>18</v>
@@ -7545,13 +7564,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>18</v>
@@ -7562,13 +7581,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>18</v>
@@ -7579,13 +7598,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>18</v>
@@ -7596,13 +7615,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>18</v>
@@ -7613,13 +7632,13 @@
         <v>29</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>18</v>
@@ -7667,13 +7686,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -7684,13 +7703,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -7701,13 +7720,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -7718,13 +7737,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -7735,13 +7754,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -7752,13 +7771,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -7769,13 +7788,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -7786,13 +7805,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -7803,13 +7822,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conra\Documents\GitHub\FFLSupport\A.Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4824" windowWidth="18276" windowHeight="27300" tabRatio="741" firstSheet="7" activeTab="13" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="18270" windowHeight="27300" tabRatio="741" firstSheet="3" activeTab="9" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality_TrainingLinks" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="DevSelf_Trainging" sheetId="19" r:id="rId7"/>
     <sheet name="DevSelf_Direct" sheetId="20" r:id="rId8"/>
     <sheet name="Draw_Direct" sheetId="21" r:id="rId9"/>
-    <sheet name="ManTeam_Train" sheetId="22" r:id="rId10"/>
-    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId11"/>
-    <sheet name="Resources_Direect" sheetId="24" r:id="rId12"/>
-    <sheet name="BPS_Related Links" sheetId="7" r:id="rId13"/>
-    <sheet name="BPS_Direct" sheetId="3" r:id="rId14"/>
-    <sheet name="BPS_Training" sheetId="4" r:id="rId15"/>
-    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId16"/>
-    <sheet name="FOD_Training" sheetId="10" r:id="rId17"/>
-    <sheet name="FOD_Direct" sheetId="11" r:id="rId18"/>
-    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId19"/>
-    <sheet name="G4_Direct" sheetId="13" r:id="rId20"/>
-    <sheet name="PPMan_Direct" sheetId="25" r:id="rId21"/>
-    <sheet name="PPMan_Train" sheetId="26" r:id="rId22"/>
-    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId23"/>
+    <sheet name="Draw_Train" sheetId="28" r:id="rId10"/>
+    <sheet name="ManTeam_Train" sheetId="22" r:id="rId11"/>
+    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId12"/>
+    <sheet name="Resources_Direect" sheetId="24" r:id="rId13"/>
+    <sheet name="BPS_Related Links" sheetId="7" r:id="rId14"/>
+    <sheet name="BPS_Direct" sheetId="3" r:id="rId15"/>
+    <sheet name="BPS_Training" sheetId="4" r:id="rId16"/>
+    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId17"/>
+    <sheet name="FOD_Training" sheetId="10" r:id="rId18"/>
+    <sheet name="FOD_Direct" sheetId="11" r:id="rId19"/>
+    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId20"/>
+    <sheet name="G4_Direct" sheetId="13" r:id="rId21"/>
+    <sheet name="PPMan_Direct" sheetId="25" r:id="rId22"/>
+    <sheet name="PPMan_Train" sheetId="26" r:id="rId23"/>
+    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId24"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="366">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -1139,6 +1140,12 @@
   </si>
   <si>
     <t>Introduction to Value Stream Mapping (VSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Analysis Methods – WEB BASED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Process Management </t>
   </si>
 </sst>
 </file>
@@ -1588,19 +1595,19 @@
       <selection activeCell="A14" sqref="A14:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="109.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2055,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
@@ -2104,33 +2111,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D9536-D7D4-4119-BF78-312DB72EE7F2}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09D885-2A35-4A4A-96AB-2442850FCA7A}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -2138,8 +2145,8 @@
       <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>261</v>
+      <c r="E1" s="10">
+        <v>77519</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>16</v>
@@ -2147,8 +2154,8 @@
       <c r="G1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>261</v>
+      <c r="H1" s="10">
+        <v>77519</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>39</v>
@@ -2157,12 +2164,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>241</v>
+        <v>364</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -2170,8 +2177,8 @@
       <c r="D2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>262</v>
+      <c r="E2" s="10">
+        <v>78961</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>16</v>
@@ -2179,621 +2186,13 @@
       <c r="G2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>262</v>
+      <c r="H2" s="10">
+        <v>78961</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10">
-        <v>755591</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="10">
-        <v>755591</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10">
-        <v>755592</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="10">
-        <v>755592</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10">
-        <v>755593</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="10">
-        <v>755593</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10">
-        <v>755594</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="10">
-        <v>755594</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10">
-        <v>755597</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="10">
-        <v>755597</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10">
-        <v>755541</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="10">
-        <v>755541</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="10">
-        <v>755542</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="10">
-        <v>755542</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="10">
-        <v>755543</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="10">
-        <v>755543</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10">
-        <v>755232</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="10">
-        <v>755232</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="10">
-        <v>755233</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="10">
-        <v>755233</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10">
-        <v>755211</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="10">
-        <v>755211</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="10">
-        <v>755212</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="10">
-        <v>755212</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="10">
-        <v>754711</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="10">
-        <v>754711</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="10">
-        <v>754712</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="10">
-        <v>754712</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="10">
-        <v>754541</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="10">
-        <v>754541</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="10">
-        <v>754542</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="10">
-        <v>754542</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="10">
-        <v>754546</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="10">
-        <v>754546</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="10">
-        <v>754548</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="10">
-        <v>754548</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="10">
-        <v>7545411</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="10">
-        <v>7545411</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2804,6 +2203,706 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D9536-D7D4-4119-BF78-312DB72EE7F2}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10">
+        <v>755591</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="10">
+        <v>755591</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10">
+        <v>755592</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="10">
+        <v>755592</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10">
+        <v>755593</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="10">
+        <v>755593</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10">
+        <v>755594</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="10">
+        <v>755594</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
+        <v>755597</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="10">
+        <v>755597</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10">
+        <v>755541</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="10">
+        <v>755541</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10">
+        <v>755542</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="10">
+        <v>755542</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10">
+        <v>755543</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="10">
+        <v>755543</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="10">
+        <v>755232</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="10">
+        <v>755232</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10">
+        <v>755233</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="10">
+        <v>755233</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="10">
+        <v>755211</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="10">
+        <v>755211</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10">
+        <v>755212</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="10">
+        <v>755212</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10">
+        <v>754711</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="10">
+        <v>754711</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10">
+        <v>754712</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="10">
+        <v>754712</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10">
+        <v>754541</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="10">
+        <v>754541</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="10">
+        <v>754542</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="10">
+        <v>754542</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10">
+        <v>754546</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="10">
+        <v>754546</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10">
+        <v>754548</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="10">
+        <v>754548</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="10">
+        <v>7545411</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="10">
+        <v>7545411</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D183A9F-9016-4D73-9CB0-8CEB1EDD60A5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2811,16 +2910,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2837,7 +2936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -2854,7 +2953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -2871,7 +2970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -2888,7 +2987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -2905,7 +3004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -2930,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443FEA50-AD07-4FAC-B5D8-A536423DFC1D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2938,16 +3037,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -2964,7 +3063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -2981,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -2998,7 +3097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -3015,7 +3114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -3032,7 +3131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -3049,7 +3148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -3083,7 +3182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -3100,7 +3199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -3134,7 +3233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -3151,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -3174,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69448B4-7CF2-487A-99A0-7584E7F873C5}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -3182,16 +3281,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="74.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3214,7 +3313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -3237,7 +3336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
@@ -3381,23 +3480,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="152" customWidth="1"/>
-    <col min="4" max="4" width="56.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -3414,7 +3513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -3431,7 +3530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -3465,7 +3564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -3482,7 +3581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -3499,7 +3598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -3525,7 +3624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -3538,7 +3637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
@@ -3551,7 +3650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -3564,7 +3663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -3577,7 +3676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -3590,7 +3689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -3603,7 +3702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -3616,7 +3715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
@@ -3629,7 +3728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3642,7 +3741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
@@ -3655,7 +3754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
@@ -3668,7 +3767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
@@ -3681,7 +3780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
@@ -3694,7 +3793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>29</v>
       </c>
@@ -3707,7 +3806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -3720,7 +3819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
@@ -3733,28 +3832,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
     </row>
   </sheetData>
@@ -3769,7 +3868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -3777,21 +3876,21 @@
       <selection activeCell="A10" sqref="A10:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="106.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3823,7 +3922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -3855,7 +3954,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
@@ -3887,7 +3986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3919,7 +4018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -3951,7 +4050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -3983,7 +4082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -4015,7 +4114,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -4047,7 +4146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4058,7 +4157,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -4090,7 +4189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -4122,7 +4221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -4154,7 +4253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -4180,7 +4279,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -4206,7 +4305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="17"/>
     </row>
   </sheetData>
@@ -4215,7 +4314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2A872-A16A-4323-B464-27EB94CEE53C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -4223,18 +4322,18 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="77" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -4257,7 +4356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4265,7 +4364,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>92</v>
       </c>
@@ -4274,7 +4373,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -4297,7 +4396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -4311,7 +4410,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>92</v>
       </c>
@@ -4320,7 +4419,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -4343,7 +4442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -4357,7 +4456,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>92</v>
       </c>
@@ -4366,7 +4465,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -4389,7 +4488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -4400,11 +4499,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="C14" s="17"/>
     </row>
@@ -4417,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93EDD-9701-45D0-9497-39EB7C448135}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -4425,21 +4524,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -4471,7 +4570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -4503,7 +4602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -4535,7 +4634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -4567,7 +4666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -4576,7 +4675,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -4608,7 +4707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -4640,7 +4739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
@@ -4672,7 +4771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -4704,7 +4803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>37</v>
       </c>
@@ -4736,7 +4835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
@@ -4768,7 +4867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -4800,7 +4899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>37</v>
       </c>
@@ -4832,7 +4931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>37</v>
       </c>
@@ -4864,7 +4963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -4873,7 +4972,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -4888,7 +4987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E26E63-8109-4DE4-A022-D115E987BDFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4896,16 +4995,16 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.109375" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -4922,7 +5021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -4939,7 +5038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -4956,7 +5055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -4973,7 +5072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -4990,7 +5089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -5007,7 +5106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -5024,7 +5123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -5039,261 +5138,6 @@
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E298D-E3B6-4BA9-AF20-BC32A4D16B77}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5310,15 +5154,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -5335,7 +5179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5352,7 +5196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -5369,7 +5213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -5386,7 +5230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5403,7 +5247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -5427,6 +5271,261 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E298D-E3B6-4BA9-AF20-BC32A4D16B77}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E9432-44DE-4E30-95C9-2B82A00E63DA}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5434,16 +5533,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.5546875" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -5460,7 +5559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -5477,7 +5576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -5494,7 +5593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5511,7 +5610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -5528,7 +5627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -5545,7 +5644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -5562,7 +5661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -5579,7 +5678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -5596,7 +5695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
@@ -5624,7 +5723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3FC1-706E-4539-B51F-A7DE3171945B}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5632,16 +5731,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -5667,7 +5766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DF135-25CB-409B-A853-E1F0D9C04303}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -5675,21 +5774,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -5727,7 +5826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FDFE3D-CB98-463D-8738-A88643500DE3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5735,16 +5834,16 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -5761,7 +5860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -5796,16 +5895,16 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.6640625" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -5822,7 +5921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -5837,7 +5936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -5851,7 +5950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -5868,7 +5967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -5885,7 +5984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -5902,7 +6001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -5919,7 +6018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -5936,7 +6035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -5953,7 +6052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
@@ -5968,7 +6067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -5985,7 +6084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -6002,7 +6101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -6019,7 +6118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -6036,7 +6135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -6053,7 +6152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
@@ -6070,7 +6169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
@@ -6087,7 +6186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
@@ -6104,7 +6203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
@@ -6121,7 +6220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
@@ -6136,7 +6235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
@@ -6151,7 +6250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>29</v>
       </c>
@@ -6166,7 +6265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -6181,7 +6280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
@@ -6218,22 +6317,22 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="11"/>
+    <col min="5" max="5" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
@@ -6265,7 +6364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -6297,7 +6396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -6329,7 +6428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -6361,7 +6460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -6393,7 +6492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
@@ -6425,7 +6524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -6457,7 +6556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
@@ -6489,7 +6588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
@@ -6521,7 +6620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -6553,7 +6652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -6585,7 +6684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
@@ -6617,7 +6716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
@@ -6649,7 +6748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
@@ -6681,7 +6780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
@@ -6713,7 +6812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
@@ -6759,21 +6858,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -6805,7 +6904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -6837,7 +6936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -6869,7 +6968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -6915,16 +7014,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -6938,7 +7037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -6955,7 +7054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -6972,7 +7071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -6987,7 +7086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -7002,7 +7101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -7019,7 +7118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -7036,7 +7135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -7053,7 +7152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -7070,7 +7169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
@@ -7087,7 +7186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -7101,7 +7200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -7115,7 +7214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -7152,21 +7251,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7198,7 +7297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -7230,7 +7329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7242,7 +7341,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
@@ -7288,16 +7387,16 @@
       <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -7314,7 +7413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -7331,7 +7430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -7348,7 +7447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -7365,7 +7464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -7380,7 +7479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -7397,7 +7496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -7414,7 +7513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -7431,7 +7530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -7448,7 +7547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
@@ -7465,7 +7564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
@@ -7482,7 +7581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -7497,7 +7596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -7512,7 +7611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -7527,7 +7626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -7542,7 +7641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
@@ -7559,7 +7658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>29</v>
       </c>
@@ -7576,7 +7675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>29</v>
       </c>
@@ -7593,7 +7692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
@@ -7610,7 +7709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
@@ -7627,7 +7726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
@@ -7672,16 +7771,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
@@ -7698,7 +7797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -7715,7 +7814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>29</v>
       </c>
@@ -7732,7 +7831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
@@ -7749,7 +7848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
@@ -7766,7 +7865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -7783,7 +7882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
@@ -7800,7 +7899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -7817,7 +7916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -9,34 +9,40 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="18270" windowHeight="27300" tabRatio="741" firstSheet="3" activeTab="9" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="6630" windowWidth="18270" windowHeight="27300" tabRatio="741" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Quality_TrainingLinks" sheetId="1" r:id="rId1"/>
-    <sheet name="Quality_DirectLinks" sheetId="2" r:id="rId2"/>
-    <sheet name="RunTheBus_Direct" sheetId="5" r:id="rId3"/>
-    <sheet name="RunTheBusiness_Train" sheetId="6" r:id="rId4"/>
-    <sheet name="DevTeam_Train" sheetId="17" r:id="rId5"/>
-    <sheet name="DevTeam_Direct" sheetId="18" r:id="rId6"/>
-    <sheet name="DevSelf_Trainging" sheetId="19" r:id="rId7"/>
-    <sheet name="DevSelf_Direct" sheetId="20" r:id="rId8"/>
-    <sheet name="Draw_Direct" sheetId="21" r:id="rId9"/>
-    <sheet name="Draw_Train" sheetId="28" r:id="rId10"/>
-    <sheet name="ManTeam_Train" sheetId="22" r:id="rId11"/>
-    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId12"/>
-    <sheet name="Resources_Direect" sheetId="24" r:id="rId13"/>
-    <sheet name="BPS_Related Links" sheetId="7" r:id="rId14"/>
-    <sheet name="BPS_Direct" sheetId="3" r:id="rId15"/>
-    <sheet name="BPS_Training" sheetId="4" r:id="rId16"/>
-    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId17"/>
-    <sheet name="FOD_Training" sheetId="10" r:id="rId18"/>
-    <sheet name="FOD_Direct" sheetId="11" r:id="rId19"/>
-    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId20"/>
-    <sheet name="G4_Direct" sheetId="13" r:id="rId21"/>
-    <sheet name="PPMan_Direct" sheetId="25" r:id="rId22"/>
-    <sheet name="PPMan_Train" sheetId="26" r:id="rId23"/>
-    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId24"/>
+    <sheet name="Accordion" sheetId="29" r:id="rId1"/>
+    <sheet name="Lookup" sheetId="30" r:id="rId2"/>
+    <sheet name="Cleanup" sheetId="31" r:id="rId3"/>
+    <sheet name="Quality_TrainingLinks" sheetId="1" r:id="rId4"/>
+    <sheet name="Quality_DirectLinks" sheetId="2" r:id="rId5"/>
+    <sheet name="RunTheBus_Direct" sheetId="5" r:id="rId6"/>
+    <sheet name="RunTheBusiness_Train" sheetId="6" r:id="rId7"/>
+    <sheet name="DevTeam_Train" sheetId="17" r:id="rId8"/>
+    <sheet name="DevTeam_Direct" sheetId="18" r:id="rId9"/>
+    <sheet name="DevSelf_Trainging" sheetId="19" r:id="rId10"/>
+    <sheet name="DevSelf_Direct" sheetId="20" r:id="rId11"/>
+    <sheet name="Draw_Direct" sheetId="21" r:id="rId12"/>
+    <sheet name="Draw_Train" sheetId="28" r:id="rId13"/>
+    <sheet name="ManTeam_Train" sheetId="22" r:id="rId14"/>
+    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId15"/>
+    <sheet name="Resources_Direect" sheetId="24" r:id="rId16"/>
+    <sheet name="BPS_Related Links" sheetId="7" r:id="rId17"/>
+    <sheet name="BPS_Direct" sheetId="3" r:id="rId18"/>
+    <sheet name="BPS_Training" sheetId="4" r:id="rId19"/>
+    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId20"/>
+    <sheet name="FOD_Training" sheetId="10" r:id="rId21"/>
+    <sheet name="FOD_Direct" sheetId="11" r:id="rId22"/>
+    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId23"/>
+    <sheet name="G4_Direct" sheetId="13" r:id="rId24"/>
+    <sheet name="PPMan_Direct" sheetId="25" r:id="rId25"/>
+    <sheet name="PPMan_Train" sheetId="26" r:id="rId26"/>
+    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId27"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cleanup!$A$1:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="383">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -1146,13 +1152,64 @@
   </si>
   <si>
     <t xml:space="preserve">Introduction to Process Management </t>
+  </si>
+  <si>
+    <t>&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;div class="panel panel-default"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class="panel-heading"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;h4 class="panel-title"&gt;&lt;a href="</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div class="panel-body"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!-- BEGIN ACCORDION </t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;div id="collapse</t>
+  </si>
+  <si>
+    <t>" class="panel-collapse collapse"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!-- END ACCORDION </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt;</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T?</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,13 +1245,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1210,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1274,6 +1351,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1588,51 +1672,3369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE13097-574F-4C9F-8B19-08314361E335}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F345F0-B9BD-45AA-A760-F77719206F87}">
+  <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="109.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="33">
+        <f>Lookup!A$1</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="34" t="str">
+        <f>Lookup!C$1</f>
+        <v>http://satsystem.web.boeing.com/</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="34" t="str">
+        <f>Lookup!B$1</f>
+        <v>Shipside Action Tracker (SAT)</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="33">
+        <f>Lookup!A$1</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="33">
+        <f>Lookup!A$1</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" s="33">
+        <f>Lookup!A$2</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="34" t="str">
+        <f>Lookup!C$2</f>
+        <v>http://termbank.web.boeing.com/#/</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="34" t="str">
+        <f>Lookup!B$2</f>
+        <v>Acronym Search</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" s="33">
+        <f>Lookup!A$2</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="33">
+        <f>Lookup!A$2</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="33">
+        <f>Lookup!A$3</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="34" t="str">
+        <f>Lookup!C$3</f>
+        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="34" t="str">
+        <f>Lookup!B$3</f>
+        <v>BCA Security</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="33">
+        <f>Lookup!A$3</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" s="33">
+        <f>Lookup!A$3</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" s="33">
+        <f>Lookup!A$4</f>
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" s="34" t="str">
+        <f>Lookup!C$4</f>
+        <v>http://carats.ca.boeing.com/Request.asp</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="34" t="str">
+        <f>Lookup!B$4</f>
+        <v>CARATS</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" s="33">
+        <f>Lookup!A$4</f>
+        <v>4</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" s="33">
+        <f>Lookup!A$4</f>
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B49" s="33">
+        <f>Lookup!A$4</f>
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B52" s="34" t="str">
+        <f>Lookup!C$5</f>
+        <v>https://boeing.webex.com/mw3100/mywebex/default.do?siteurl=boeing</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="34" t="str">
+        <f>Lookup!B$5</f>
+        <v xml:space="preserve">Webex </v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" s="33">
+        <f>Lookup!A$5</f>
+        <v>5</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B59" s="33">
+        <f>Lookup!A$5</f>
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B61" s="33">
+        <f>Lookup!A$6</f>
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" s="34" t="str">
+        <f>Lookup!C$6</f>
+        <v>https://insite.web.boeing.com/culture/index.do</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="34" t="str">
+        <f>Lookup!B$6</f>
+        <v>Boeing InSite</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" s="33">
+        <f>Lookup!A$6</f>
+        <v>6</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71" s="33">
+        <f>Lookup!A$6</f>
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B73" s="33">
+        <f>Lookup!A$7</f>
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" s="34" t="str">
+        <f>Lookup!C$7</f>
+        <v xml:space="preserve">http://sitemaps.web.boeing.com/index.asp
+</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="34" t="str">
+        <f>Lookup!B$7</f>
+        <v>Boeing Maps</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" s="33">
+        <f>Lookup!A$7</f>
+        <v>7</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" s="33">
+        <f>Lookup!A$7</f>
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" s="33">
+        <f>Lookup!A$8</f>
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B88" s="34" t="str">
+        <f>Lookup!C$8</f>
+        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="34" t="str">
+        <f>Lookup!B$8</f>
+        <v>Library Resources</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" s="33">
+        <f>Lookup!A$8</f>
+        <v>8</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B95" s="33">
+        <f>Lookup!A$8</f>
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B97" s="33">
+        <f>Lookup!A$9</f>
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B100" s="34" t="str">
+        <f>Lookup!C$9</f>
+        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="34" t="str">
+        <f>Lookup!B$9</f>
+        <v>Employee Timekeeping System (ETS)</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B102" s="33">
+        <f>Lookup!A$9</f>
+        <v>9</v>
+      </c>
+      <c r="C102" s="17"/>
+      <c r="D102" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B107" s="33">
+        <f>Lookup!A$9</f>
+        <v>9</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="33">
+        <f>Lookup!A$10</f>
+        <v>10</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" s="34" t="str">
+        <f>Lookup!C$10</f>
+        <v>http://helpdesk.web.boeing.com/</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="34" t="str">
+        <f>Lookup!B$10</f>
+        <v>Enterprise Help Desk (EHD)</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" s="33">
+        <f>Lookup!A$10</f>
+        <v>10</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" s="33">
+        <f>Lookup!A$10</f>
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B121" s="33">
+        <f>Lookup!A$11</f>
+        <v>11</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B124" s="34" t="str">
+        <f>Lookup!C$11</f>
+        <v>http://foodservices.web.boeing.com/PS/everett.asp</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="34" t="str">
+        <f>Lookup!B$11</f>
+        <v>Food Services</v>
+      </c>
+      <c r="E124" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B126" s="33">
+        <f>Lookup!A$11</f>
+        <v>11</v>
+      </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B131" s="33">
+        <f>Lookup!A$11</f>
+        <v>11</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" s="33">
+        <f>Lookup!A$12</f>
+        <v>12</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" s="34" t="str">
+        <f>Lookup!C$12</f>
+        <v>http://www.boeing.com/company/tours/</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="34" t="str">
+        <f>Lookup!B$12</f>
+        <v>Site Tours</v>
+      </c>
+      <c r="E136" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B138" s="33">
+        <f>Lookup!A$12</f>
+        <v>12</v>
+      </c>
+      <c r="C138" s="17"/>
+      <c r="D138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E138" s="17"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B143" s="33">
+        <f>Lookup!A$12</f>
+        <v>12</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B145" s="33">
+        <f>Lookup!A$13</f>
+        <v>13</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" s="34" t="str">
+        <f>Lookup!C$13</f>
+        <v>https://wp-myb-portal.web.boeing.com/myb/ta/TotalAccess</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="34" t="str">
+        <f>Lookup!B$13</f>
+        <v>My Learning - Total Access</v>
+      </c>
+      <c r="E148" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="33">
+        <f>Lookup!A$13</f>
+        <v>13</v>
+      </c>
+      <c r="C150" s="17"/>
+      <c r="D150" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E150" s="17"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B151" s="17"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B154" s="17"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B155" s="33">
+        <f>Lookup!A$13</f>
+        <v>13</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" s="33">
+        <f>Lookup!A$14</f>
+        <v>14</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B158" s="17"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B160" s="34" t="str">
+        <f>Lookup!C$14</f>
+        <v>http://boeingtravel.web.boeing.com/</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="34" t="str">
+        <f>Lookup!B$14</f>
+        <v>Travel @Boeing</v>
+      </c>
+      <c r="E160" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B162" s="33">
+        <f>Lookup!A$14</f>
+        <v>14</v>
+      </c>
+      <c r="C162" s="17"/>
+      <c r="D162" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B164" s="17"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="17"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" s="33">
+        <f>Lookup!A$14</f>
+        <v>14</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B169" s="33">
+        <f>Lookup!A$15</f>
+        <v>15</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" s="34">
+        <f>Lookup!C$15</f>
+        <v>0</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="34">
+        <f>Lookup!B$15</f>
+        <v>0</v>
+      </c>
+      <c r="E172" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B174" s="33">
+        <f>Lookup!A$15</f>
+        <v>15</v>
+      </c>
+      <c r="C174" s="17"/>
+      <c r="D174" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E174" s="17"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B175" s="17"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B177" s="17"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B179" s="33">
+        <f>Lookup!A$15</f>
+        <v>15</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B181" s="33">
+        <f>Lookup!A$16</f>
+        <v>16</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B184" s="34">
+        <f>Lookup!C$16</f>
+        <v>0</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="34">
+        <f>Lookup!B$16</f>
+        <v>0</v>
+      </c>
+      <c r="E184" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B186" s="33">
+        <f>Lookup!A$16</f>
+        <v>16</v>
+      </c>
+      <c r="C186" s="17"/>
+      <c r="D186" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E186" s="17"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" s="17"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" s="17"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="33">
+        <f>Lookup!A$16</f>
+        <v>16</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B193" s="33">
+        <f>Lookup!A$17</f>
+        <v>17</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" s="17"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B196" s="34">
+        <f>Lookup!C$17</f>
+        <v>0</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="34">
+        <f>Lookup!B$17</f>
+        <v>0</v>
+      </c>
+      <c r="E196" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B198" s="33">
+        <f>Lookup!A$17</f>
+        <v>17</v>
+      </c>
+      <c r="C198" s="17"/>
+      <c r="D198" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E198" s="17"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B202" s="17"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B203" s="33">
+        <f>Lookup!A$17</f>
+        <v>17</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B205" s="33">
+        <f>Lookup!A$18</f>
+        <v>18</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B208" s="34">
+        <f>Lookup!C$18</f>
+        <v>0</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="34">
+        <f>Lookup!B$18</f>
+        <v>0</v>
+      </c>
+      <c r="E208" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B210" s="33">
+        <f>Lookup!A$18</f>
+        <v>18</v>
+      </c>
+      <c r="C210" s="17"/>
+      <c r="D210" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E210" s="17"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" s="17"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B214" s="17"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B215" s="33">
+        <f>Lookup!A$18</f>
+        <v>18</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B217" s="33">
+        <f>Lookup!A$19</f>
+        <v>19</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B218" s="17"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B220" s="34">
+        <f>Lookup!C$19</f>
+        <v>0</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="34">
+        <f>Lookup!B$19</f>
+        <v>0</v>
+      </c>
+      <c r="E220" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B222" s="33">
+        <f>Lookup!A$19</f>
+        <v>19</v>
+      </c>
+      <c r="C222" s="17"/>
+      <c r="D222" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E222" s="17"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B223" s="17"/>
+      <c r="C223" s="17"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B224" s="17"/>
+      <c r="C224" s="17"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B225" s="17"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B226" s="17"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B227" s="33">
+        <f>Lookup!A$19</f>
+        <v>19</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="32"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B229" s="33">
+        <f>Lookup!A$20</f>
+        <v>20</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B232" s="34">
+        <f>Lookup!C$20</f>
+        <v>0</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="34">
+        <f>Lookup!B$20</f>
+        <v>0</v>
+      </c>
+      <c r="E232" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B234" s="33">
+        <f>Lookup!A$20</f>
+        <v>20</v>
+      </c>
+      <c r="C234" s="17"/>
+      <c r="D234" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E234" s="17"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="17"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B239" s="33">
+        <f>Lookup!A$20</f>
+        <v>20</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B240" s="32"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B241" s="33">
+        <f>Lookup!A$21</f>
+        <v>21</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B244" s="34">
+        <f>Lookup!C$21</f>
+        <v>0</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="34">
+        <f>Lookup!B$21</f>
+        <v>0</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B245" s="17"/>
+      <c r="C245" s="17"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B246" s="33">
+        <f>Lookup!A$21</f>
+        <v>21</v>
+      </c>
+      <c r="C246" s="17"/>
+      <c r="D246" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E246" s="17"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="17"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="17"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B250" s="17"/>
+      <c r="C250" s="17"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="17"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B251" s="33">
+        <f>Lookup!A$21</f>
+        <v>21</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B253" s="33">
+        <f>Lookup!A$22</f>
+        <v>22</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B256" s="34">
+        <f>Lookup!C$22</f>
+        <v>0</v>
+      </c>
+      <c r="C256" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="34">
+        <f>Lookup!B$22</f>
+        <v>0</v>
+      </c>
+      <c r="E256" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B257" s="17"/>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B258" s="33">
+        <f>Lookup!A$22</f>
+        <v>22</v>
+      </c>
+      <c r="C258" s="17"/>
+      <c r="D258" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E258" s="17"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B262" s="17"/>
+      <c r="C262" s="17"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B263" s="33">
+        <f>Lookup!A$22</f>
+        <v>22</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D263" s="17"/>
+      <c r="E263" s="17"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
+      <c r="D264" s="32"/>
+      <c r="E264" s="32"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B265" s="33">
+        <f>Lookup!A$23</f>
+        <v>23</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B267" s="17"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B268" s="34">
+        <f>Lookup!C$23</f>
+        <v>0</v>
+      </c>
+      <c r="C268" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="34">
+        <f>Lookup!B$23</f>
+        <v>0</v>
+      </c>
+      <c r="E268" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B270" s="33">
+        <f>Lookup!A$23</f>
+        <v>23</v>
+      </c>
+      <c r="C270" s="17"/>
+      <c r="D270" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E270" s="17"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="17"/>
+      <c r="E271" s="17"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="17"/>
+      <c r="E272" s="17"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="17"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B274" s="17"/>
+      <c r="C274" s="17"/>
+      <c r="D274" s="17"/>
+      <c r="E274" s="17"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B275" s="33">
+        <f>Lookup!A$23</f>
+        <v>23</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B276" s="32"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="32"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B277" s="33">
+        <f>Lookup!A$24</f>
+        <v>24</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D277" s="17"/>
+      <c r="E277" s="17"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="17"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B279" s="17"/>
+      <c r="C279" s="17"/>
+      <c r="D279" s="17"/>
+      <c r="E279" s="17"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B280" s="34">
+        <f>Lookup!C$24</f>
+        <v>0</v>
+      </c>
+      <c r="C280" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="34">
+        <f>Lookup!B$24</f>
+        <v>0</v>
+      </c>
+      <c r="E280" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B281" s="17"/>
+      <c r="C281" s="17"/>
+      <c r="D281" s="17"/>
+      <c r="E281" s="17"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B282" s="33">
+        <f>Lookup!A$24</f>
+        <v>24</v>
+      </c>
+      <c r="C282" s="17"/>
+      <c r="D282" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E282" s="17"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B283" s="17"/>
+      <c r="C283" s="17"/>
+      <c r="D283" s="17"/>
+      <c r="E283" s="17"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B284" s="17"/>
+      <c r="C284" s="17"/>
+      <c r="D284" s="17"/>
+      <c r="E284" s="17"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B285" s="17"/>
+      <c r="C285" s="17"/>
+      <c r="D285" s="17"/>
+      <c r="E285" s="17"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B286" s="17"/>
+      <c r="C286" s="17"/>
+      <c r="D286" s="17"/>
+      <c r="E286" s="17"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B287" s="33">
+        <f>Lookup!A$24</f>
+        <v>24</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D287" s="17"/>
+      <c r="E287" s="17"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B288" s="32"/>
+      <c r="C288" s="32"/>
+      <c r="D288" s="32"/>
+      <c r="E288" s="32"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B289" s="33">
+        <f>Lookup!A$25</f>
+        <v>25</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D289" s="17"/>
+      <c r="E289" s="17"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B290" s="17"/>
+      <c r="C290" s="17"/>
+      <c r="D290" s="17"/>
+      <c r="E290" s="17"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B291" s="17"/>
+      <c r="C291" s="17"/>
+      <c r="D291" s="17"/>
+      <c r="E291" s="17"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B292" s="34">
+        <f>Lookup!C$25</f>
+        <v>0</v>
+      </c>
+      <c r="C292" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" s="34">
+        <f>Lookup!B$25</f>
+        <v>0</v>
+      </c>
+      <c r="E292" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B293" s="17"/>
+      <c r="C293" s="17"/>
+      <c r="D293" s="17"/>
+      <c r="E293" s="17"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B294" s="33">
+        <f>Lookup!A$25</f>
+        <v>25</v>
+      </c>
+      <c r="C294" s="17"/>
+      <c r="D294" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E294" s="17"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B295" s="17"/>
+      <c r="C295" s="17"/>
+      <c r="D295" s="17"/>
+      <c r="E295" s="17"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B296" s="17"/>
+      <c r="C296" s="17"/>
+      <c r="D296" s="17"/>
+      <c r="E296" s="17"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B297" s="17"/>
+      <c r="C297" s="17"/>
+      <c r="D297" s="17"/>
+      <c r="E297" s="17"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B298" s="17"/>
+      <c r="C298" s="17"/>
+      <c r="D298" s="17"/>
+      <c r="E298" s="17"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B299" s="33">
+        <f>Lookup!A$25</f>
+        <v>25</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D299" s="17"/>
+      <c r="E299" s="17"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B300" s="32"/>
+      <c r="C300" s="32"/>
+      <c r="D300" s="32"/>
+      <c r="E300" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D7100C-4DB2-47F9-B174-F848E9E26C19}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="17">
-        <v>77487</v>
+      <c r="E1" s="10">
+        <v>77519</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1">
-        <v>77487</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="10">
+        <v>77519</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
       <c r="J1" t="s">
@@ -1643,28 +5045,28 @@
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="17">
-        <v>77493</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>77493</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E2" s="10">
+        <v>755595</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="10">
+        <v>755595</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J2" s="17" t="s">
@@ -1672,449 +5074,620 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="17">
-        <v>80504</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>80504</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="E4" s="10">
+        <v>78961</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="10">
+        <v>78961</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="17">
-        <v>78984</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>78984</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="17">
-        <v>78975</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>78975</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="17">
-        <v>78960</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>78960</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="22">
-        <v>78983</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="22">
-        <v>78983</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="22">
-        <v>78984</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="22">
-        <v>78984</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{F7DF6952-CDD6-4535-B488-88255DD99637}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{D74B835F-5657-4DBF-A68B-F4663818A0F2}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{FAF8AC57-B5E3-404A-B51C-63E8688D7B11}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{F2D1AD48-1BFD-4101-BB94-477FE9A6432A}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{E85483C7-C833-44D1-B452-1DFA3F15B874}"/>
-    <hyperlink ref="D13" r:id="rId6" xr:uid="{35F61372-5554-4786-94C8-E12916251915}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{D43D1C53-E323-4429-A9B1-AAD7DEA20614}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{E02A2197-62FA-4643-9455-FD8FBBE7A2A7}"/>
-    <hyperlink ref="D1" r:id="rId9" xr:uid="{A914D22A-568C-407D-9EF1-A2261B2EE0BE}"/>
-    <hyperlink ref="D2" r:id="rId10" xr:uid="{E94496C5-474F-4B51-8B5A-AC20DECD8A0F}"/>
-    <hyperlink ref="D3" r:id="rId11" xr:uid="{FA865286-BDEE-4A30-BC95-64FD60FB5FDD}"/>
-    <hyperlink ref="D4" r:id="rId12" xr:uid="{5ADAB3EF-2322-4EA9-ACEF-F5CECB924DD6}"/>
-    <hyperlink ref="D5" r:id="rId13" xr:uid="{E767861F-2331-4428-AE24-4343C3B84331}"/>
-    <hyperlink ref="D6" r:id="rId14" xr:uid="{0FB437A5-2631-4CB8-B6A3-09A559F0B296}"/>
-    <hyperlink ref="D7" r:id="rId15" xr:uid="{94CC7D35-903C-4AA5-8271-E0C6A0C6ED0D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A559FD-CCC3-4E61-81EE-2862331EDF2D}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1ED18805-983B-4C1E-8BEF-2B68BB4563B3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{881EB021-742E-4480-B501-80F9119AFDA0}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E8DAC39B-14B7-4F5A-B032-4B59F5F44DEC}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C78B9CA8-E327-48A7-9108-A047E0ADE31B}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{EF099962-83CF-4F17-9DFB-9C2E56B04640}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{31D3757D-0123-42F8-9806-4F512177C668}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{B81163B7-8704-4B55-8A01-81C8BA2E768C}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{4921272C-E809-4BB4-A328-74EEBC89E62A}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{B5794738-AAB3-4CF5-987B-D15A2E6C346F}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{254855E2-7360-49FF-B8D5-420C87149D59}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{CFA9967D-D2DB-44FA-8330-6A7C36E5E9F0}"/>
+    <hyperlink ref="B20" r:id="rId12" xr:uid="{24484CD0-E08E-497C-B899-868FAC8F045C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A742A-0FE9-466D-BF17-68046948EB13}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09D885-2A35-4A4A-96AB-2442850FCA7A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
@@ -2202,7 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D9536-D7D4-4119-BF78-312DB72EE7F2}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -2902,7 +6475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D183A9F-9016-4D73-9CB0-8CEB1EDD60A5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3029,7 +6602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443FEA50-AD07-4FAC-B5D8-A536423DFC1D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3273,7 +6846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69448B4-7CF2-487A-99A0-7584E7F873C5}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -3480,7 +7053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -3868,7 +7441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -4314,7 +7887,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A4122-4BF1-41FB-BBB0-91C4AEC4AE3F}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>25</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2A872-A16A-4323-B464-27EB94CEE53C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -4516,7 +8334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93EDD-9701-45D0-9497-39EB7C448135}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -4987,7 +8805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E26E63-8109-4DE4-A022-D115E987BDFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -5146,131 +8964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF194037-FCAE-4149-A2B7-FC153B064D9E}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E298D-E3B6-4BA9-AF20-BC32A4D16B77}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -5525,7 +9219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E9432-44DE-4E30-95C9-2B82A00E63DA}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5723,7 +9417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3FC1-706E-4539-B51F-A7DE3171945B}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5766,7 +9460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DF135-25CB-409B-A853-E1F0D9C04303}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -5826,7 +9520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FDFE3D-CB98-463D-8738-A88643500DE3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5888,6 +9582,841 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8BE3AD-C46B-4FE5-92FF-91D9AF802946}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="17"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C35" xr:uid="{756F8F61-1E0D-4BBD-A9F6-57D9D2109FF3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE13097-574F-4C9F-8B19-08314361E335}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17">
+        <v>77487</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>77487</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="17">
+        <v>77493</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>77493</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="17">
+        <v>80504</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>80504</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="17">
+        <v>78984</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>78984</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="17">
+        <v>78975</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>78975</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="17">
+        <v>78960</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>78960</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="22">
+        <v>78983</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="22">
+        <v>78983</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="22">
+        <v>78984</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="22">
+        <v>78984</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{F7DF6952-CDD6-4535-B488-88255DD99637}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{D74B835F-5657-4DBF-A68B-F4663818A0F2}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{FAF8AC57-B5E3-404A-B51C-63E8688D7B11}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{F2D1AD48-1BFD-4101-BB94-477FE9A6432A}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{E85483C7-C833-44D1-B452-1DFA3F15B874}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{35F61372-5554-4786-94C8-E12916251915}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{D43D1C53-E323-4429-A9B1-AAD7DEA20614}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{E02A2197-62FA-4643-9455-FD8FBBE7A2A7}"/>
+    <hyperlink ref="D1" r:id="rId9" xr:uid="{A914D22A-568C-407D-9EF1-A2261B2EE0BE}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{E94496C5-474F-4B51-8B5A-AC20DECD8A0F}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{FA865286-BDEE-4A30-BC95-64FD60FB5FDD}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{5ADAB3EF-2322-4EA9-ACEF-F5CECB924DD6}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{E767861F-2331-4428-AE24-4343C3B84331}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{0FB437A5-2631-4CB8-B6A3-09A559F0B296}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{94CC7D35-903C-4AA5-8271-E0C6A0C6ED0D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF194037-FCAE-4149-A2B7-FC153B064D9E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E0EBA3-0050-4665-953C-FBCD138694ED}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -6309,7 +10838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE5B24-297A-4D5A-B794-07A676657E5F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -6850,7 +11379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30C4674-3DF7-47AB-ABF4-E953E826AB0C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -7006,7 +11535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A512123-8187-401D-9BB6-B5E323D4E791}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -7241,700 +11770,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D7100C-4DB2-47F9-B174-F848E9E26C19}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10">
-        <v>77519</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="10">
-        <v>77519</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="10">
-        <v>755595</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="10">
-        <v>755595</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="10">
-        <v>78961</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="10">
-        <v>78961</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A559FD-CCC3-4E61-81EE-2862331EDF2D}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{1ED18805-983B-4C1E-8BEF-2B68BB4563B3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{881EB021-742E-4480-B501-80F9119AFDA0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E8DAC39B-14B7-4F5A-B032-4B59F5F44DEC}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{C78B9CA8-E327-48A7-9108-A047E0ADE31B}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{EF099962-83CF-4F17-9DFB-9C2E56B04640}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{31D3757D-0123-42F8-9806-4F512177C668}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{B81163B7-8704-4B55-8A01-81C8BA2E768C}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{4921272C-E809-4BB4-A328-74EEBC89E62A}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{B5794738-AAB3-4CF5-987B-D15A2E6C346F}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{254855E2-7360-49FF-B8D5-420C87149D59}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{CFA9967D-D2DB-44FA-8330-6A7C36E5E9F0}"/>
-    <hyperlink ref="B20" r:id="rId12" xr:uid="{24484CD0-E08E-497C-B899-868FAC8F045C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A742A-0FE9-466D-BF17-68046948EB13}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6630" windowWidth="18270" windowHeight="27300" tabRatio="741" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="6630" windowWidth="18270" windowHeight="27300" tabRatio="850" firstSheet="7" activeTab="13" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accordion" sheetId="29" r:id="rId1"/>
@@ -26,22 +26,24 @@
     <sheet name="Draw_Direct" sheetId="21" r:id="rId12"/>
     <sheet name="Draw_Train" sheetId="28" r:id="rId13"/>
     <sheet name="ManTeam_Train" sheetId="22" r:id="rId14"/>
-    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId15"/>
-    <sheet name="Resources_Direect" sheetId="24" r:id="rId16"/>
-    <sheet name="BPS_Related Links" sheetId="7" r:id="rId17"/>
-    <sheet name="BPS_Direct" sheetId="3" r:id="rId18"/>
-    <sheet name="BPS_Training" sheetId="4" r:id="rId19"/>
-    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId20"/>
-    <sheet name="FOD_Training" sheetId="10" r:id="rId21"/>
-    <sheet name="FOD_Direct" sheetId="11" r:id="rId22"/>
-    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId23"/>
-    <sheet name="G4_Direct" sheetId="13" r:id="rId24"/>
-    <sheet name="PPMan_Direct" sheetId="25" r:id="rId25"/>
-    <sheet name="PPMan_Train" sheetId="26" r:id="rId26"/>
-    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId15"/>
+    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId16"/>
+    <sheet name="Resources_Direect" sheetId="24" r:id="rId17"/>
+    <sheet name="BPS_Related Links" sheetId="7" r:id="rId18"/>
+    <sheet name="BPS_Direct" sheetId="3" r:id="rId19"/>
+    <sheet name="BPS_Training" sheetId="4" r:id="rId20"/>
+    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId21"/>
+    <sheet name="FOD_Training" sheetId="10" r:id="rId22"/>
+    <sheet name="FOD_Direct" sheetId="11" r:id="rId23"/>
+    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId24"/>
+    <sheet name="G4_Direct" sheetId="13" r:id="rId25"/>
+    <sheet name="PPMan_Direct" sheetId="25" r:id="rId26"/>
+    <sheet name="PPMan_Train" sheetId="26" r:id="rId27"/>
+    <sheet name="ToolMan_Direct" sheetId="27" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cleanup!$A$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet1!$A$1:$B$22</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="384">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -806,9 +808,6 @@
   </si>
   <si>
     <t xml:space="preserve">Building Trust </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commuincation Elements of Trust </t>
   </si>
   <si>
     <t xml:space="preserve">Decision Making Methods </t>
@@ -1203,6 +1202,12 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication Elements of Trust </t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F345F0-B9BD-45AA-A760-F77719206F87}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A127" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:E167"/>
     </sheetView>
   </sheetViews>
@@ -1691,29 +1696,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1" s="33">
         <f>Lookup!A$1</f>
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="34" t="str">
         <f>Lookup!C$1</f>
@@ -1732,56 +1737,56 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="33">
         <f>Lookup!A$1</f>
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="33">
         <f>Lookup!A$1</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1790,21 +1795,21 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" s="33">
         <f>Lookup!A$2</f>
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1813,7 +1818,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1822,7 +1827,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B16" s="34" t="str">
         <f>Lookup!C$2</f>
@@ -1841,7 +1846,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1850,7 +1855,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18" s="33">
         <f>Lookup!A$2</f>
@@ -1858,13 +1863,13 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1873,7 +1878,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1882,7 +1887,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1891,7 +1896,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1900,21 +1905,21 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B23" s="33">
         <f>Lookup!A$2</f>
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -1923,21 +1928,21 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B25" s="33">
         <f>Lookup!A$3</f>
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1946,7 +1951,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1955,7 +1960,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="34" t="str">
         <f>Lookup!C$3</f>
@@ -1974,7 +1979,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1983,7 +1988,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" s="33">
         <f>Lookup!A$3</f>
@@ -1991,13 +1996,13 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2006,7 +2011,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2015,7 +2020,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2024,7 +2029,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2033,21 +2038,21 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35" s="33">
         <f>Lookup!A$3</f>
         <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -2056,21 +2061,21 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B37" s="33">
         <f>Lookup!A$4</f>
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -2079,7 +2084,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -2088,7 +2093,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B40" s="34" t="str">
         <f>Lookup!C$4</f>
@@ -2107,7 +2112,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -2116,7 +2121,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="33">
         <f>Lookup!A$4</f>
@@ -2124,13 +2129,13 @@
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -2139,7 +2144,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -2148,7 +2153,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -2157,7 +2162,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2166,21 +2171,21 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="33">
         <f>Lookup!A$4</f>
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -2189,21 +2194,21 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" s="33">
         <f>Lookup!A$4</f>
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -2212,7 +2217,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -2221,7 +2226,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" s="34" t="str">
         <f>Lookup!C$5</f>
@@ -2240,7 +2245,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -2249,7 +2254,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B54" s="33">
         <f>Lookup!A$5</f>
@@ -2257,13 +2262,13 @@
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -2272,7 +2277,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -2281,7 +2286,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -2290,7 +2295,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -2299,21 +2304,21 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B59" s="33">
         <f>Lookup!A$5</f>
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -2322,21 +2327,21 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B61" s="33">
         <f>Lookup!A$6</f>
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -2345,7 +2350,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -2354,7 +2359,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B64" s="34" t="str">
         <f>Lookup!C$6</f>
@@ -2373,7 +2378,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -2382,7 +2387,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B66" s="33">
         <f>Lookup!A$6</f>
@@ -2390,13 +2395,13 @@
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -2405,7 +2410,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -2414,7 +2419,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -2423,7 +2428,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -2432,21 +2437,21 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B71" s="33">
         <f>Lookup!A$6</f>
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -2455,21 +2460,21 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B73" s="33">
         <f>Lookup!A$7</f>
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -2478,7 +2483,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -2487,7 +2492,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B76" s="34" t="str">
         <f>Lookup!C$7</f>
@@ -2507,7 +2512,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -2516,7 +2521,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B78" s="33">
         <f>Lookup!A$7</f>
@@ -2524,13 +2529,13 @@
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -2539,7 +2544,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -2548,7 +2553,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -2557,7 +2562,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -2566,21 +2571,21 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B83" s="33">
         <f>Lookup!A$7</f>
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -2589,21 +2594,21 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B85" s="33">
         <f>Lookup!A$8</f>
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -2612,7 +2617,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -2621,7 +2626,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B88" s="34" t="str">
         <f>Lookup!C$8</f>
@@ -2640,7 +2645,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -2649,7 +2654,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B90" s="33">
         <f>Lookup!A$8</f>
@@ -2657,13 +2662,13 @@
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -2672,7 +2677,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -2681,7 +2686,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -2690,7 +2695,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -2699,21 +2704,21 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B95" s="33">
         <f>Lookup!A$8</f>
         <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -2722,21 +2727,21 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B97" s="33">
         <f>Lookup!A$9</f>
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -2745,7 +2750,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
@@ -2754,7 +2759,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B100" s="34" t="str">
         <f>Lookup!C$9</f>
@@ -2773,7 +2778,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
@@ -2782,7 +2787,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B102" s="33">
         <f>Lookup!A$9</f>
@@ -2790,13 +2795,13 @@
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E102" s="17"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
@@ -2805,7 +2810,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -2814,7 +2819,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
@@ -2823,7 +2828,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -2832,21 +2837,21 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B107" s="33">
         <f>Lookup!A$9</f>
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
@@ -2855,21 +2860,21 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B109" s="33">
         <f>Lookup!A$10</f>
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -2878,7 +2883,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -2887,7 +2892,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B112" s="34" t="str">
         <f>Lookup!C$10</f>
@@ -2906,7 +2911,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -2915,7 +2920,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B114" s="33">
         <f>Lookup!A$10</f>
@@ -2923,13 +2928,13 @@
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E114" s="17"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -2938,7 +2943,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -2947,7 +2952,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -2956,7 +2961,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -2965,21 +2970,21 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B119" s="33">
         <f>Lookup!A$10</f>
         <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B120" s="32"/>
       <c r="C120" s="32"/>
@@ -2988,21 +2993,21 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B121" s="33">
         <f>Lookup!A$11</f>
         <v>11</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -3011,7 +3016,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -3020,7 +3025,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B124" s="34" t="str">
         <f>Lookup!C$11</f>
@@ -3039,7 +3044,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -3048,7 +3053,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B126" s="33">
         <f>Lookup!A$11</f>
@@ -3056,13 +3061,13 @@
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E126" s="17"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -3071,7 +3076,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -3080,7 +3085,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -3089,7 +3094,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -3098,21 +3103,21 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B131" s="33">
         <f>Lookup!A$11</f>
         <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -3121,21 +3126,21 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B133" s="33">
         <f>Lookup!A$12</f>
         <v>12</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="17"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -3144,7 +3149,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -3153,7 +3158,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B136" s="34" t="str">
         <f>Lookup!C$12</f>
@@ -3172,7 +3177,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -3181,7 +3186,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B138" s="33">
         <f>Lookup!A$12</f>
@@ -3189,13 +3194,13 @@
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E138" s="17"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -3204,7 +3209,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -3213,7 +3218,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -3222,7 +3227,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -3231,21 +3236,21 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B143" s="33">
         <f>Lookup!A$12</f>
         <v>12</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -3254,21 +3259,21 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B145" s="33">
         <f>Lookup!A$13</f>
         <v>13</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -3277,7 +3282,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -3286,7 +3291,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B148" s="34" t="str">
         <f>Lookup!C$13</f>
@@ -3305,7 +3310,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -3314,7 +3319,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B150" s="33">
         <f>Lookup!A$13</f>
@@ -3322,13 +3327,13 @@
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E150" s="17"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -3337,7 +3342,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -3346,7 +3351,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -3355,7 +3360,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -3364,21 +3369,21 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B155" s="33">
         <f>Lookup!A$13</f>
         <v>13</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="17"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -3387,21 +3392,21 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B157" s="33">
         <f>Lookup!A$14</f>
         <v>14</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="17"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -3410,7 +3415,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -3419,7 +3424,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B160" s="34" t="str">
         <f>Lookup!C$14</f>
@@ -3438,7 +3443,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -3447,7 +3452,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B162" s="33">
         <f>Lookup!A$14</f>
@@ -3455,13 +3460,13 @@
       </c>
       <c r="C162" s="17"/>
       <c r="D162" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E162" s="17"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -3470,7 +3475,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -3479,7 +3484,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -3488,7 +3493,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -3497,21 +3502,21 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B167" s="33">
         <f>Lookup!A$14</f>
         <v>14</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B168" s="32"/>
       <c r="C168" s="32"/>
@@ -3520,21 +3525,21 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B169" s="33">
         <f>Lookup!A$15</f>
         <v>15</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D169" s="17"/>
       <c r="E169" s="17"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -3543,7 +3548,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -3552,7 +3557,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B172" s="34">
         <f>Lookup!C$15</f>
@@ -3571,7 +3576,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -3580,7 +3585,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B174" s="33">
         <f>Lookup!A$15</f>
@@ -3588,13 +3593,13 @@
       </c>
       <c r="C174" s="17"/>
       <c r="D174" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E174" s="17"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -3603,7 +3608,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -3612,7 +3617,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -3621,7 +3626,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -3630,21 +3635,21 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B179" s="33">
         <f>Lookup!A$15</f>
         <v>15</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D179" s="17"/>
       <c r="E179" s="17"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B180" s="32"/>
       <c r="C180" s="32"/>
@@ -3653,21 +3658,21 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B181" s="33">
         <f>Lookup!A$16</f>
         <v>16</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D181" s="17"/>
       <c r="E181" s="17"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -3676,7 +3681,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -3685,7 +3690,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B184" s="34">
         <f>Lookup!C$16</f>
@@ -3704,7 +3709,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -3713,7 +3718,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B186" s="33">
         <f>Lookup!A$16</f>
@@ -3721,13 +3726,13 @@
       </c>
       <c r="C186" s="17"/>
       <c r="D186" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E186" s="17"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -3736,7 +3741,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -3745,7 +3750,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -3754,7 +3759,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -3763,21 +3768,21 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B191" s="33">
         <f>Lookup!A$16</f>
         <v>16</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D191" s="17"/>
       <c r="E191" s="17"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B192" s="32"/>
       <c r="C192" s="32"/>
@@ -3786,21 +3791,21 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B193" s="33">
         <f>Lookup!A$17</f>
         <v>17</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D193" s="17"/>
       <c r="E193" s="17"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -3809,7 +3814,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -3818,7 +3823,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B196" s="34">
         <f>Lookup!C$17</f>
@@ -3837,7 +3842,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -3846,7 +3851,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B198" s="33">
         <f>Lookup!A$17</f>
@@ -3854,13 +3859,13 @@
       </c>
       <c r="C198" s="17"/>
       <c r="D198" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E198" s="17"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -3869,7 +3874,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -3878,7 +3883,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -3887,7 +3892,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -3896,21 +3901,21 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B203" s="33">
         <f>Lookup!A$17</f>
         <v>17</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D203" s="17"/>
       <c r="E203" s="17"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B204" s="32"/>
       <c r="C204" s="32"/>
@@ -3919,21 +3924,21 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B205" s="33">
         <f>Lookup!A$18</f>
         <v>18</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D205" s="17"/>
       <c r="E205" s="17"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -3942,7 +3947,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -3951,7 +3956,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B208" s="34">
         <f>Lookup!C$18</f>
@@ -3970,7 +3975,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -3979,7 +3984,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B210" s="33">
         <f>Lookup!A$18</f>
@@ -3987,13 +3992,13 @@
       </c>
       <c r="C210" s="17"/>
       <c r="D210" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E210" s="17"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -4002,7 +4007,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -4011,7 +4016,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -4020,7 +4025,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -4029,21 +4034,21 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B215" s="33">
         <f>Lookup!A$18</f>
         <v>18</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D215" s="17"/>
       <c r="E215" s="17"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B216" s="32"/>
       <c r="C216" s="32"/>
@@ -4052,21 +4057,21 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B217" s="33">
         <f>Lookup!A$19</f>
         <v>19</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -4075,7 +4080,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -4084,7 +4089,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B220" s="34">
         <f>Lookup!C$19</f>
@@ -4103,7 +4108,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -4112,7 +4117,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B222" s="33">
         <f>Lookup!A$19</f>
@@ -4120,13 +4125,13 @@
       </c>
       <c r="C222" s="17"/>
       <c r="D222" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E222" s="17"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -4135,7 +4140,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -4144,7 +4149,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -4153,7 +4158,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -4162,21 +4167,21 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B227" s="33">
         <f>Lookup!A$19</f>
         <v>19</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D227" s="17"/>
       <c r="E227" s="17"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
@@ -4185,21 +4190,21 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B229" s="33">
         <f>Lookup!A$20</f>
         <v>20</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D229" s="17"/>
       <c r="E229" s="17"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -4208,7 +4213,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -4217,7 +4222,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B232" s="34">
         <f>Lookup!C$20</f>
@@ -4236,7 +4241,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -4245,7 +4250,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B234" s="33">
         <f>Lookup!A$20</f>
@@ -4253,13 +4258,13 @@
       </c>
       <c r="C234" s="17"/>
       <c r="D234" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E234" s="17"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -4268,7 +4273,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -4277,7 +4282,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -4286,7 +4291,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -4295,21 +4300,21 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B239" s="33">
         <f>Lookup!A$20</f>
         <v>20</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D239" s="17"/>
       <c r="E239" s="17"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B240" s="32"/>
       <c r="C240" s="32"/>
@@ -4318,21 +4323,21 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B241" s="33">
         <f>Lookup!A$21</f>
         <v>21</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D241" s="17"/>
       <c r="E241" s="17"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -4341,7 +4346,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -4350,7 +4355,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B244" s="34">
         <f>Lookup!C$21</f>
@@ -4369,7 +4374,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -4378,7 +4383,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B246" s="33">
         <f>Lookup!A$21</f>
@@ -4386,13 +4391,13 @@
       </c>
       <c r="C246" s="17"/>
       <c r="D246" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E246" s="17"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -4401,7 +4406,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -4410,7 +4415,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -4419,7 +4424,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -4428,21 +4433,21 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B251" s="33">
         <f>Lookup!A$21</f>
         <v>21</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D251" s="17"/>
       <c r="E251" s="17"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B252" s="32"/>
       <c r="C252" s="32"/>
@@ -4451,21 +4456,21 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B253" s="33">
         <f>Lookup!A$22</f>
         <v>22</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D253" s="17"/>
       <c r="E253" s="17"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -4474,7 +4479,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -4483,7 +4488,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B256" s="34">
         <f>Lookup!C$22</f>
@@ -4502,7 +4507,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -4511,7 +4516,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B258" s="33">
         <f>Lookup!A$22</f>
@@ -4519,13 +4524,13 @@
       </c>
       <c r="C258" s="17"/>
       <c r="D258" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E258" s="17"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -4534,7 +4539,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -4543,7 +4548,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -4552,7 +4557,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -4561,21 +4566,21 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B263" s="33">
         <f>Lookup!A$22</f>
         <v>22</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D263" s="17"/>
       <c r="E263" s="17"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B264" s="32"/>
       <c r="C264" s="32"/>
@@ -4584,21 +4589,21 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B265" s="33">
         <f>Lookup!A$23</f>
         <v>23</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D265" s="17"/>
       <c r="E265" s="17"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -4607,7 +4612,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -4616,7 +4621,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B268" s="34">
         <f>Lookup!C$23</f>
@@ -4635,7 +4640,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -4644,7 +4649,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B270" s="33">
         <f>Lookup!A$23</f>
@@ -4652,13 +4657,13 @@
       </c>
       <c r="C270" s="17"/>
       <c r="D270" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E270" s="17"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -4667,7 +4672,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -4676,7 +4681,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -4685,7 +4690,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -4694,21 +4699,21 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B275" s="33">
         <f>Lookup!A$23</f>
         <v>23</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D275" s="17"/>
       <c r="E275" s="17"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B276" s="32"/>
       <c r="C276" s="32"/>
@@ -4717,21 +4722,21 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B277" s="33">
         <f>Lookup!A$24</f>
         <v>24</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D277" s="17"/>
       <c r="E277" s="17"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -4740,7 +4745,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -4749,7 +4754,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B280" s="34">
         <f>Lookup!C$24</f>
@@ -4768,7 +4773,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -4777,7 +4782,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B282" s="33">
         <f>Lookup!A$24</f>
@@ -4785,13 +4790,13 @@
       </c>
       <c r="C282" s="17"/>
       <c r="D282" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E282" s="17"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -4800,7 +4805,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -4809,7 +4814,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -4818,7 +4823,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -4827,21 +4832,21 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B287" s="33">
         <f>Lookup!A$24</f>
         <v>24</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D287" s="17"/>
       <c r="E287" s="17"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B288" s="32"/>
       <c r="C288" s="32"/>
@@ -4850,21 +4855,21 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B289" s="33">
         <f>Lookup!A$25</f>
         <v>25</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D289" s="17"/>
       <c r="E289" s="17"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -4873,7 +4878,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -4882,7 +4887,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B292" s="34">
         <f>Lookup!C$25</f>
@@ -4901,7 +4906,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -4910,7 +4915,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B294" s="33">
         <f>Lookup!A$25</f>
@@ -4918,13 +4923,13 @@
       </c>
       <c r="C294" s="17"/>
       <c r="D294" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E294" s="17"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -4933,7 +4938,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -4942,7 +4947,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -4951,7 +4956,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -4960,21 +4965,21 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B299" s="33">
         <f>Lookup!A$25</f>
         <v>25</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D299" s="17"/>
       <c r="E299" s="17"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B300" s="32"/>
       <c r="C300" s="32"/>
@@ -5710,7 +5715,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -5742,7 +5747,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -5779,14 +5784,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D9536-D7D4-4119-BF78-312DB72EE7F2}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
@@ -5802,7 +5807,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -5810,8 +5815,8 @@
       <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>261</v>
+      <c r="E1" s="17">
+        <v>754541</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>16</v>
@@ -5819,8 +5824,8 @@
       <c r="G1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>261</v>
+      <c r="H1" s="17">
+        <v>754541</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>39</v>
@@ -5834,7 +5839,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>1</v>
@@ -5842,8 +5847,8 @@
       <c r="D2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>262</v>
+      <c r="E2" s="17">
+        <v>754542</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>16</v>
@@ -5851,8 +5856,8 @@
       <c r="G2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>262</v>
+      <c r="H2" s="17">
+        <v>754542</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>39</v>
@@ -5866,7 +5871,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
@@ -5874,8 +5879,8 @@
       <c r="D3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="10">
-        <v>755591</v>
+      <c r="E3" s="17">
+        <v>754546</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>16</v>
@@ -5883,8 +5888,8 @@
       <c r="G3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="10">
-        <v>755591</v>
+      <c r="H3" s="17">
+        <v>754546</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>39</v>
@@ -5898,7 +5903,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>1</v>
@@ -5906,8 +5911,8 @@
       <c r="D4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10">
-        <v>755592</v>
+      <c r="E4" s="17">
+        <v>754548</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>16</v>
@@ -5915,8 +5920,8 @@
       <c r="G4" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="10">
-        <v>755592</v>
+      <c r="H4" s="17">
+        <v>754548</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>39</v>
@@ -5930,7 +5935,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -5938,8 +5943,8 @@
       <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10">
-        <v>755593</v>
+      <c r="E5" s="17">
+        <v>754711</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>16</v>
@@ -5947,8 +5952,8 @@
       <c r="G5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="10">
-        <v>755593</v>
+      <c r="H5" s="17">
+        <v>754711</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>39</v>
@@ -5962,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
@@ -5970,8 +5975,8 @@
       <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10">
-        <v>755594</v>
+      <c r="E6" s="17">
+        <v>754712</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>16</v>
@@ -5979,8 +5984,8 @@
       <c r="G6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="10">
-        <v>755594</v>
+      <c r="H6" s="17">
+        <v>754712</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>39</v>
@@ -5994,7 +5999,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>1</v>
@@ -6002,8 +6007,8 @@
       <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10">
-        <v>755597</v>
+      <c r="E7" s="17">
+        <v>755211</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>16</v>
@@ -6011,8 +6016,8 @@
       <c r="G7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="10">
-        <v>755597</v>
+      <c r="H7" s="17">
+        <v>755211</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>39</v>
@@ -6026,7 +6031,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>1</v>
@@ -6034,8 +6039,8 @@
       <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10">
-        <v>755541</v>
+      <c r="E8" s="17">
+        <v>755212</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>16</v>
@@ -6043,8 +6048,8 @@
       <c r="G8" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="10">
-        <v>755541</v>
+      <c r="H8" s="17">
+        <v>755212</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>39</v>
@@ -6053,12 +6058,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
@@ -6066,8 +6071,8 @@
       <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10">
-        <v>755542</v>
+      <c r="E9" s="17">
+        <v>755232</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>16</v>
@@ -6075,8 +6080,8 @@
       <c r="G9" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="10">
-        <v>755542</v>
+      <c r="H9" s="17">
+        <v>755232</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>39</v>
@@ -6090,7 +6095,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>249</v>
+        <v>383</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -6098,8 +6103,8 @@
       <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="10">
-        <v>755543</v>
+      <c r="E10" s="17">
+        <v>755233</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>16</v>
@@ -6107,8 +6112,8 @@
       <c r="G10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="10">
-        <v>755543</v>
+      <c r="H10" s="17">
+        <v>755233</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>39</v>
@@ -6122,7 +6127,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
@@ -6130,8 +6135,8 @@
       <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="10">
-        <v>755232</v>
+      <c r="E11" s="17">
+        <v>755541</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>16</v>
@@ -6139,8 +6144,8 @@
       <c r="G11" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="10">
-        <v>755232</v>
+      <c r="H11" s="17">
+        <v>755541</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>39</v>
@@ -6154,7 +6159,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
@@ -6162,8 +6167,8 @@
       <c r="D12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="10">
-        <v>755233</v>
+      <c r="E12" s="17">
+        <v>755542</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>16</v>
@@ -6171,8 +6176,8 @@
       <c r="G12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="10">
-        <v>755233</v>
+      <c r="H12" s="17">
+        <v>755542</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>39</v>
@@ -6186,7 +6191,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
@@ -6194,8 +6199,8 @@
       <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="10">
-        <v>755211</v>
+      <c r="E13" s="17">
+        <v>755543</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>16</v>
@@ -6203,8 +6208,8 @@
       <c r="G13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="10">
-        <v>755211</v>
+      <c r="H13" s="17">
+        <v>755543</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>39</v>
@@ -6218,7 +6223,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -6226,8 +6231,8 @@
       <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10">
-        <v>755212</v>
+      <c r="E14" s="17">
+        <v>755591</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>16</v>
@@ -6235,8 +6240,8 @@
       <c r="G14" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="10">
-        <v>755212</v>
+      <c r="H14" s="17">
+        <v>755591</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>39</v>
@@ -6250,7 +6255,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -6258,8 +6263,8 @@
       <c r="D15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="10">
-        <v>754711</v>
+      <c r="E15" s="17">
+        <v>755592</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>16</v>
@@ -6267,8 +6272,8 @@
       <c r="G15" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="10">
-        <v>754711</v>
+      <c r="H15" s="17">
+        <v>755592</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>39</v>
@@ -6282,7 +6287,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>1</v>
@@ -6290,8 +6295,8 @@
       <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="10">
-        <v>754712</v>
+      <c r="E16" s="17">
+        <v>755593</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>16</v>
@@ -6299,8 +6304,8 @@
       <c r="G16" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="10">
-        <v>754712</v>
+      <c r="H16" s="17">
+        <v>755593</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>39</v>
@@ -6314,7 +6319,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>1</v>
@@ -6322,8 +6327,8 @@
       <c r="D17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10">
-        <v>754541</v>
+      <c r="E17" s="17">
+        <v>755594</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>16</v>
@@ -6331,8 +6336,8 @@
       <c r="G17" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="10">
-        <v>754541</v>
+      <c r="H17" s="17">
+        <v>755594</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>39</v>
@@ -6346,7 +6351,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>1</v>
@@ -6354,8 +6359,8 @@
       <c r="D18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="10">
-        <v>754542</v>
+      <c r="E18" s="17">
+        <v>755597</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>16</v>
@@ -6363,8 +6368,8 @@
       <c r="G18" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="10">
-        <v>754542</v>
+      <c r="H18" s="17">
+        <v>755597</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>39</v>
@@ -6378,7 +6383,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>1</v>
@@ -6386,8 +6391,8 @@
       <c r="D19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10">
-        <v>754546</v>
+      <c r="E19" s="17">
+        <v>7545411</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>16</v>
@@ -6395,8 +6400,8 @@
       <c r="G19" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="10">
-        <v>754546</v>
+      <c r="H19" s="17">
+        <v>7545411</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>39</v>
@@ -6410,7 +6415,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>1</v>
@@ -6418,8 +6423,8 @@
       <c r="D20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="10">
-        <v>754548</v>
+      <c r="E20" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>16</v>
@@ -6427,8 +6432,8 @@
       <c r="G20" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="10">
-        <v>754548</v>
+      <c r="H20" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>39</v>
@@ -6442,7 +6447,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>1</v>
@@ -6450,8 +6455,8 @@
       <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="10">
-        <v>7545411</v>
+      <c r="E21" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>16</v>
@@ -6459,8 +6464,8 @@
       <c r="G21" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="10">
-        <v>7545411</v>
+      <c r="H21" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>39</v>
@@ -6476,6 +6481,207 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DCEF17-5155-4641-93F3-38E2C989DB33}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>754541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>754542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4">
+        <v>754546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5">
+        <v>754548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6">
+        <v>754711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7">
+        <v>754712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8">
+        <v>755211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9">
+        <v>755212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>755232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11">
+        <v>755233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12">
+        <v>755541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13">
+        <v>755542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14">
+        <v>755543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15">
+        <v>755591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16">
+        <v>755592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17">
+        <v>755593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18">
+        <v>755594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19">
+        <v>755597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20">
+        <v>7545411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B22" xr:uid="{AF9439BB-C5B9-4260-BE6A-708982D5006D}">
+    <sortState ref="A2:B22">
+      <sortCondition ref="B1:B22"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D183A9F-9016-4D73-9CB0-8CEB1EDD60A5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -6497,13 +6703,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -6514,13 +6720,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -6531,13 +6737,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -6548,13 +6754,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -6565,13 +6771,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -6586,7 +6792,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -6602,7 +6808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443FEA50-AD07-4FAC-B5D8-A536423DFC1D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6624,13 +6830,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -6641,13 +6847,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -6658,13 +6864,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -6675,13 +6881,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -6692,13 +6898,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -6709,13 +6915,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -6726,13 +6932,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -6743,13 +6949,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -6760,13 +6966,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>18</v>
@@ -6777,13 +6983,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>18</v>
@@ -6794,13 +7000,13 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>18</v>
@@ -6811,13 +7017,13 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>18</v>
@@ -6828,13 +7034,13 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>18</v>
@@ -6846,7 +7052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69448B4-7CF2-487A-99A0-7584E7F873C5}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -7053,7 +7259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -7074,13 +7280,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -7091,13 +7297,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -7108,13 +7314,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -7125,13 +7331,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>18</v>
@@ -7142,13 +7348,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
@@ -7159,13 +7365,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -7441,7 +7647,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A4122-4BF1-41FB-BBB0-91C4AEC4AE3F}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>19</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>21</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>23</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>25</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -7628,7 +8079,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
@@ -7701,7 +8152,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>16</v>
@@ -7710,7 +8161,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>39</v>
@@ -7735,7 +8186,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
@@ -7887,252 +8338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A4122-4BF1-41FB-BBB0-91C4AEC4AE3F}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>2</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>3</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>4</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>6</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>8</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>9</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>11</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>13</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>15</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>16</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>18</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>19</v>
-      </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>20</v>
-      </c>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>21</v>
-      </c>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>22</v>
-      </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>23</v>
-      </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>24</v>
-      </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>25</v>
-      </c>
-      <c r="C25" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2A872-A16A-4323-B464-27EB94CEE53C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -8334,7 +8540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93EDD-9701-45D0-9497-39EB7C448135}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -8805,7 +9011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E26E63-8109-4DE4-A022-D115E987BDFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -8827,13 +9033,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -8844,13 +9050,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -8861,13 +9067,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -8878,13 +9084,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>18</v>
@@ -8895,13 +9101,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>18</v>
@@ -8912,13 +9118,13 @@
         <v>29</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -8929,13 +9135,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>18</v>
@@ -8946,13 +9152,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>18</v>
@@ -8964,7 +9170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E298D-E3B6-4BA9-AF20-BC32A4D16B77}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -9014,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>78</v>
@@ -9023,7 +9229,7 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>17</v>
@@ -9037,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>78</v>
@@ -9046,7 +9252,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>17</v>
@@ -9060,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>78</v>
@@ -9069,7 +9275,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>17</v>
@@ -9083,7 +9289,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
@@ -9092,7 +9298,7 @@
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>17</v>
@@ -9106,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
@@ -9115,7 +9321,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>17</v>
@@ -9129,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>78</v>
@@ -9138,7 +9344,7 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>17</v>
@@ -9152,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>78</v>
@@ -9161,7 +9367,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>17</v>
@@ -9175,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>78</v>
@@ -9184,7 +9390,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>17</v>
@@ -9198,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>78</v>
@@ -9207,7 +9413,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>17</v>
@@ -9219,7 +9425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E9432-44DE-4E30-95C9-2B82A00E63DA}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -9417,7 +9623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3FC1-706E-4539-B51F-A7DE3171945B}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -9439,13 +9645,13 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>18</v>
@@ -9460,7 +9666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DF135-25CB-409B-A853-E1F0D9C04303}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -9487,7 +9693,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -9520,7 +9726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FDFE3D-CB98-463D-8738-A88643500DE3}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -9542,7 +9748,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
@@ -9559,13 +9765,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>18</v>
@@ -9597,13 +9803,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>380</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9616,110 +9822,110 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="17"/>
     </row>
@@ -9899,7 +10105,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -9908,7 +10114,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>39</v>
@@ -10210,7 +10416,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>1</v>
@@ -10242,7 +10448,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1</v>
@@ -10404,7 +10610,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>18</v>
@@ -10473,7 +10679,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
@@ -10758,7 +10964,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>18</v>
@@ -10773,7 +10979,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>18</v>
@@ -10788,7 +10994,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>18</v>
@@ -10803,7 +11009,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>18</v>
@@ -10818,7 +11024,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>18</v>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="10290" windowHeight="0" tabRatio="850" activeTab="5" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="10290" windowHeight="0" tabRatio="850" activeTab="14" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accordion_New" sheetId="35" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="476">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -1617,9 +1617,6 @@
     <t>Managing With Metrics</t>
   </si>
   <si>
-    <t>Active Listening</t>
-  </si>
-  <si>
     <t>MyLearning Learner Training</t>
   </si>
   <si>
@@ -1680,9 +1677,6 @@
     <t>target="_blank"</t>
   </si>
   <si>
-    <t>&lt;&lt;Accordion&gt;&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">      &lt;h4 class="panel-title"&gt;&lt;a </t>
   </si>
   <si>
@@ -1804,9 +1798,6 @@
   </si>
   <si>
     <t>http://hr1.web.boeing.com/ltmoe/ltmoe_boeing_leadership_center.cfm</t>
-  </si>
-  <si>
-    <t>Career Development</t>
   </si>
   <si>
     <t>Chess Not Checkers (Elevate Your Leadership Game) (Abstract)</t>
@@ -2361,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42396E6-F478-4B75-B1F5-C87D3BA47C18}">
   <dimension ref="A1:H396"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:H216"/>
+    <sheetView topLeftCell="A196" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,14 +2401,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B4" s="28" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C4" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D4" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C1)</f>
@@ -2540,14 +2531,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" s="28" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C16" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D16" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C2)</f>
@@ -2670,14 +2661,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B28" s="28" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C28" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D28" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C3)</f>
@@ -2800,14 +2791,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B40" s="28" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C40" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D40" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C4)</f>
@@ -2930,29 +2921,29 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B52" s="28" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C52" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D52" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C5)</f>
-        <v>#collapse</v>
-      </c>
-      <c r="E52" s="44">
+        <v>http://ltd.web.boeing.com/careerDev/index.html</v>
+      </c>
+      <c r="E52" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",Lookup!A5,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F52" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="33" t="str">
         <f>Lookup!B$5</f>
-        <v>Career Development</v>
+        <v>Career Development Framework</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>7</v>
@@ -3060,18 +3051,18 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B64" s="28" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C64" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D64" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C6)</f>
-        <v>https://www.getabstract.com/en/summary/leadership-and-management/chess-not-checkers/23534</v>
+        <v>https://my.boeing.com/portal/server.pt/community/totalaccess/399#CareerOpportunities</v>
       </c>
       <c r="E64" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",Lookup!A6,"")</f>
@@ -3082,7 +3073,7 @@
       </c>
       <c r="G64" s="33" t="str">
         <f>Lookup!B$6</f>
-        <v>Chess Not Checkers (Elevate Your Leadership Game) (Abstract)</v>
+        <v>Careers @ Boeing</v>
       </c>
       <c r="H64" s="29" t="s">
         <v>7</v>
@@ -3190,18 +3181,18 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B76" s="28" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C76" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D76" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C7)</f>
-        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Delegation/101_DELEGATION_Module.pptx</v>
+        <v>http://hr1.web.boeing.com/documents/ltmoe/Connectplan.pdf</v>
       </c>
       <c r="E76" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",Lookup!A7,"")</f>
@@ -3212,7 +3203,7 @@
       </c>
       <c r="G76" s="33" t="str">
         <f>Lookup!B$7</f>
-        <v>Delegation - Transformational Leadership 101</v>
+        <v>Connect Plan</v>
       </c>
       <c r="H76" s="29" t="s">
         <v>7</v>
@@ -3320,18 +3311,18 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B88" s="28" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C88" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D88" s="44" t="str">
         <f>Lookup!C$8</f>
-        <v>https://fll.web.boeing.com/filespub/DoK_TL_101FacilitatingGroups/101_FACILITATINGGROUPS_Module.pptx</v>
+        <v>https://www.getabstract.com/en/summary/leadership-and-management/chess-not-checkers/23534</v>
       </c>
       <c r="E88" s="44" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",Lookup!A8,"")</f>
@@ -3342,7 +3333,7 @@
       </c>
       <c r="G88" s="33" t="str">
         <f>Lookup!B$8</f>
-        <v>Facilitating Groups - Transformational Leadership 101</v>
+        <v>Chess Not Checkers (Elevate Your Leadership Game) (Abstract)</v>
       </c>
       <c r="H88" s="29" t="s">
         <v>7</v>
@@ -3450,18 +3441,18 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B100" s="28" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C100" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D100" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C9)</f>
-        <v>https://totalaccess.web.boeing.com/TotalAccessAppEntry?action=view&amp;appid=1104&amp;SearchLearningCatalog=TR005593</v>
+        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Delegation/101_DELEGATION_Module.pptx</v>
       </c>
       <c r="E100" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",Lookup!A9,"")</f>
@@ -3472,7 +3463,7 @@
       </c>
       <c r="G100" s="33" t="str">
         <f>Lookup!B$9</f>
-        <v>Just Enough Project Management</v>
+        <v>Delegation - Transformational Leadership 101</v>
       </c>
       <c r="H100" s="29" t="s">
         <v>7</v>
@@ -3580,18 +3571,18 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B112" s="28" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C112" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D112" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C10)</f>
-        <v>http://ltd.web.boeing.com/LTD_CEA/index.cfm</v>
+        <v>https://fll.web.boeing.com/filespub/DoK_TL_101FacilitatingGroups/101_FACILITATINGGROUPS_Module.pptx</v>
       </c>
       <c r="E112" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",Lookup!A10,"")</f>
@@ -3602,7 +3593,7 @@
       </c>
       <c r="G112" s="33" t="str">
         <f>Lookup!B$10</f>
-        <v>Learning Together</v>
+        <v>Facilitating Groups - Transformational Leadership 101</v>
       </c>
       <c r="H112" s="29" t="s">
         <v>7</v>
@@ -3710,18 +3701,18 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B124" s="28" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C124" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D124" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C11)</f>
-        <v>http://mentoring.web.boeing.com/</v>
+        <v>http://hr1.web.boeing.com/ltd/index.cfm</v>
       </c>
       <c r="E124" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",Lookup!A11,"")</f>
@@ -3732,7 +3723,7 @@
       </c>
       <c r="G124" s="33" t="str">
         <f>Lookup!B$11</f>
-        <v>Mentoring</v>
+        <v>LTP (Learning Together Program)</v>
       </c>
       <c r="H124" s="29" t="s">
         <v>7</v>
@@ -3840,18 +3831,18 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B136" s="28" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C136" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D136" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C12)</f>
-        <v>https://www.getabstract.com/ShowAbstract.do?dataId=7932</v>
+        <v>http://mentoring.web.boeing.com/</v>
       </c>
       <c r="E136" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",Lookup!A12,"")</f>
@@ -3862,7 +3853,7 @@
       </c>
       <c r="G136" s="33" t="str">
         <f>Lookup!B$12</f>
-        <v>Micromessaging (Abstract)</v>
+        <v>Mentoring</v>
       </c>
       <c r="H136" s="29" t="s">
         <v>7</v>
@@ -3970,18 +3961,18 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B148" s="28" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C148" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D148" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C13)</f>
-        <v>https://www.getabstract.com/en/summary/career-and-self-development/qbq-the-question-behind-the-question/4507</v>
+        <v>https://www.getabstract.com/ShowAbstract.do?dataId=7932</v>
       </c>
       <c r="E148" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",Lookup!A13,"")</f>
@@ -3992,7 +3983,7 @@
       </c>
       <c r="G148" s="33" t="str">
         <f>Lookup!B$13</f>
-        <v>QBQ: The Question Behind the Question (Abstract)</v>
+        <v>Micromessaging (Abstract)</v>
       </c>
       <c r="H148" s="29" t="s">
         <v>7</v>
@@ -4100,18 +4091,18 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B160" s="28" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C160" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D160" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C14)</f>
-        <v>https://boeing.skillport.com/</v>
+        <v>https://www.getabstract.com/en/summary/career-and-self-development/qbq-the-question-behind-the-question/4507</v>
       </c>
       <c r="E160" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",Lookup!A14,"")</f>
@@ -4122,7 +4113,7 @@
       </c>
       <c r="G160" s="33" t="str">
         <f>Lookup!B$14</f>
-        <v>Skillport</v>
+        <v>QBQ: The Question Behind the Question (Abstract)</v>
       </c>
       <c r="H160" s="29" t="s">
         <v>7</v>
@@ -4230,18 +4221,18 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B172" s="28" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C172" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D172" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C15)</f>
-        <v>https://www.getabstract.com/en/summary/leadership-and-management/strengths-based-leadership/12025</v>
+        <v>https://boeing.skillport.com/</v>
       </c>
       <c r="E172" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",Lookup!A15,"")</f>
@@ -4252,7 +4243,7 @@
       </c>
       <c r="G172" s="33" t="str">
         <f>Lookup!B$15</f>
-        <v>Strengths Based Leadership Guide (Abstract)</v>
+        <v>Skillport</v>
       </c>
       <c r="H172" s="29" t="s">
         <v>7</v>
@@ -4360,18 +4351,18 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B184" s="28" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C184" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D184" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C16)</f>
-        <v>https://www.getabstract.com/en/summary/career-and-self-development/the-connect-effect/9433</v>
+        <v>https://www.getabstract.com/en/summary/leadership-and-management/strengths-based-leadership/12025</v>
       </c>
       <c r="E184" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",Lookup!A16,"")</f>
@@ -4382,7 +4373,7 @@
       </c>
       <c r="G184" s="33" t="str">
         <f>Lookup!B$16</f>
-        <v>The Connect Effect (Abstract)</v>
+        <v>Strengths Based Leadership Guide (Abstract)</v>
       </c>
       <c r="H184" s="29" t="s">
         <v>7</v>
@@ -4490,18 +4481,18 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B196" s="28" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C196" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D196" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C17)</f>
-        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Trust/101_TRUST_Module.pptx</v>
+        <v>https://www.getabstract.com/en/summary/career-and-self-development/the-connect-effect/9433</v>
       </c>
       <c r="E196" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",Lookup!A17,"")</f>
@@ -4512,7 +4503,7 @@
       </c>
       <c r="G196" s="33" t="str">
         <f>Lookup!B$17</f>
-        <v>Trust - Transformational Leadership 101</v>
+        <v>The Connect Effect (Abstract)</v>
       </c>
       <c r="H196" s="29" t="s">
         <v>7</v>
@@ -4620,18 +4611,18 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B208" s="28" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C208" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D208" s="44" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C18)</f>
-        <v>https://hbr.org/2014/09/a-framework-for-understanding-vuca</v>
+        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Trust/101_TRUST_Module.pptx</v>
       </c>
       <c r="E208" s="44" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",Lookup!A18,"")</f>
@@ -4642,7 +4633,7 @@
       </c>
       <c r="G208" s="33" t="str">
         <f>Lookup!B$18</f>
-        <v>VUCA Concepts (Volatility, Uncertainty, Complexity, Ambiguity)</v>
+        <v>Trust - Transformational Leadership 101</v>
       </c>
       <c r="H208" s="29" t="s">
         <v>7</v>
@@ -4750,18 +4741,18 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B220" s="28" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C220" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="D220" s="44">
+        <v>425</v>
+      </c>
+      <c r="D220" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C19)</f>
-        <v>0</v>
+        <v>https://hbr.org/2014/09/a-framework-for-understanding-vuca</v>
       </c>
       <c r="E220" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",Lookup!A19,"")</f>
@@ -4770,9 +4761,9 @@
       <c r="F220" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G220" s="33">
+      <c r="G220" s="33" t="str">
         <f>Lookup!B$19</f>
-        <v>0</v>
+        <v>VUCA Concepts (Volatility, Uncertainty, Complexity, Ambiguity)</v>
       </c>
       <c r="H220" s="29" t="s">
         <v>7</v>
@@ -4880,14 +4871,14 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B232" s="28" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C232" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D232" s="44">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C20)</f>
@@ -5010,14 +5001,14 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B244" s="28" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C244" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D244" s="44">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C21)</f>
@@ -5140,14 +5131,14 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B256" s="28" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C256" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D256" s="44">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C22)</f>
@@ -5270,14 +5261,14 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B268" s="28" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C268" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D268" s="44">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C23)</f>
@@ -5400,14 +5391,14 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B280" s="28" t="str">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C280" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D280" s="44">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C24)</f>
@@ -5530,14 +5521,14 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B292" s="28" t="str">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C292" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D292" s="44">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C25)</f>
@@ -5660,14 +5651,14 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B304" s="28" t="str">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C304" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D304" s="44">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C26)</f>
@@ -5790,14 +5781,14 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B316" s="28" t="str">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C316" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D316" s="44">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C27)</f>
@@ -5920,14 +5911,14 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B328" s="28" t="str">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C328" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D328" s="44">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C28)</f>
@@ -6050,14 +6041,14 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B340" s="28" t="str">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C340" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D340" s="44">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C29)</f>
@@ -6180,14 +6171,14 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B352" s="28" t="str">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C352" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D352" s="44">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C30)</f>
@@ -6310,14 +6301,14 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B364" s="28" t="str">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C364" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D364" s="44">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C31)</f>
@@ -6440,14 +6431,14 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B376" s="28" t="str">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C376" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D376" s="44">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C32)</f>
@@ -6570,14 +6561,14 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B388" s="28" t="str">
         <f>IF(Lookup!C33="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
       <c r="C388" s="28" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D388" s="44">
         <f>IF(Lookup!C33="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C33)</f>
@@ -7230,7 +7221,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7251,37 +7242,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>337</v>
       </c>
       <c r="D1" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="I1" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="K1" s="47" t="s">
         <v>438</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -7429,7 +7420,7 @@
         <v>369</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>327</v>
@@ -7851,7 +7842,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>5</v>
@@ -7860,7 +7851,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>28</v>
@@ -8023,7 +8014,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>5</v>
@@ -8032,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>28</v>
@@ -8055,7 +8046,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>5</v>
@@ -8064,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>28</v>
@@ -8088,7 +8079,7 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="11" t="s">
@@ -8103,14 +8094,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="11" t="s">
@@ -8125,14 +8116,14 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="11" t="s">
@@ -8178,37 +8169,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>417</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>337</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="I1" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="H1" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="I1" s="49" t="s">
+      <c r="K1" s="49" t="s">
         <v>438</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -8216,7 +8207,7 @@
         <v>369</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>327</v>
@@ -8251,7 +8242,7 @@
         <v>369</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>327</v>
@@ -8286,7 +8277,7 @@
         <v>369</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>327</v>
@@ -8334,7 +8325,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="17" t="s">
@@ -8352,14 +8343,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="41" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="17" t="s">
@@ -8377,14 +8368,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="17" t="s">
@@ -8402,14 +8393,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="17" t="s">
@@ -8427,14 +8418,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="41" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="17" t="s">
@@ -8459,7 +8450,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="17" t="s">
@@ -8477,14 +8468,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="17" t="s">
@@ -8502,14 +8493,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="17" t="s">
@@ -8527,14 +8518,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="17" t="s">
@@ -8825,10 +8816,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="E4:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8849,9 +8840,7 @@
       <c r="A1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>403</v>
-      </c>
+      <c r="B1" s="8"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -8877,28 +8866,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>406</v>
-      </c>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="8"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="41" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -8908,15 +8880,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
-        <v>405</v>
+      <c r="H3" s="41" t="s">
+        <v>403</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17" t="s">
@@ -8924,12 +8896,35 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>406</v>
+      </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="17" t="s">
+        <v>404</v>
+      </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="10"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8942,7 +8937,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B1" sqref="B1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10897,14 +10892,14 @@
       </c>
       <c r="B52" s="33" t="str">
         <f>Lookup!C$5</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>http://ltd.web.boeing.com/careerDev/index.html</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="33" t="str">
         <f>Lookup!B$5</f>
-        <v>Career Development</v>
+        <v>Career Development Framework</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>7</v>
@@ -11030,14 +11025,14 @@
       </c>
       <c r="B64" s="33" t="str">
         <f>Lookup!C$6</f>
-        <v>https://www.getabstract.com/en/summary/leadership-and-management/chess-not-checkers/23534</v>
+        <v>https://my.boeing.com/portal/server.pt/community/totalaccess/399#CareerOpportunities</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="33" t="str">
         <f>Lookup!B$6</f>
-        <v>Chess Not Checkers (Elevate Your Leadership Game) (Abstract)</v>
+        <v>Careers @ Boeing</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>7</v>
@@ -11163,14 +11158,14 @@
       </c>
       <c r="B76" s="33" t="str">
         <f>Lookup!C$7</f>
-        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Delegation/101_DELEGATION_Module.pptx</v>
+        <v>http://hr1.web.boeing.com/documents/ltmoe/Connectplan.pdf</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="33" t="str">
         <f>Lookup!B$7</f>
-        <v>Delegation - Transformational Leadership 101</v>
+        <v>Connect Plan</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>7</v>
@@ -11296,14 +11291,14 @@
       </c>
       <c r="B88" s="33" t="str">
         <f>Lookup!C$8</f>
-        <v>https://fll.web.boeing.com/filespub/DoK_TL_101FacilitatingGroups/101_FACILITATINGGROUPS_Module.pptx</v>
+        <v>https://www.getabstract.com/en/summary/leadership-and-management/chess-not-checkers/23534</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="33" t="str">
         <f>Lookup!B$8</f>
-        <v>Facilitating Groups - Transformational Leadership 101</v>
+        <v>Chess Not Checkers (Elevate Your Leadership Game) (Abstract)</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>7</v>
@@ -11429,14 +11424,14 @@
       </c>
       <c r="B100" s="33" t="str">
         <f>Lookup!C$9</f>
-        <v>https://totalaccess.web.boeing.com/TotalAccessAppEntry?action=view&amp;appid=1104&amp;SearchLearningCatalog=TR005593</v>
+        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Delegation/101_DELEGATION_Module.pptx</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="33" t="str">
         <f>Lookup!B$9</f>
-        <v>Just Enough Project Management</v>
+        <v>Delegation - Transformational Leadership 101</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>7</v>
@@ -11562,14 +11557,14 @@
       </c>
       <c r="B112" s="33" t="str">
         <f>Lookup!C$10</f>
-        <v>http://ltd.web.boeing.com/LTD_CEA/index.cfm</v>
+        <v>https://fll.web.boeing.com/filespub/DoK_TL_101FacilitatingGroups/101_FACILITATINGGROUPS_Module.pptx</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="33" t="str">
         <f>Lookup!B$10</f>
-        <v>Learning Together</v>
+        <v>Facilitating Groups - Transformational Leadership 101</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>7</v>
@@ -11695,14 +11690,14 @@
       </c>
       <c r="B124" s="33" t="str">
         <f>Lookup!C$11</f>
-        <v>http://mentoring.web.boeing.com/</v>
+        <v>http://hr1.web.boeing.com/ltd/index.cfm</v>
       </c>
       <c r="C124" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="33" t="str">
         <f>Lookup!B$11</f>
-        <v>Mentoring</v>
+        <v>LTP (Learning Together Program)</v>
       </c>
       <c r="E124" s="29" t="s">
         <v>7</v>
@@ -11828,14 +11823,14 @@
       </c>
       <c r="B136" s="33" t="str">
         <f>Lookup!C$12</f>
-        <v>https://www.getabstract.com/ShowAbstract.do?dataId=7932</v>
+        <v>http://mentoring.web.boeing.com/</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="33" t="str">
         <f>Lookup!B$12</f>
-        <v>Micromessaging (Abstract)</v>
+        <v>Mentoring</v>
       </c>
       <c r="E136" s="29" t="s">
         <v>7</v>
@@ -11961,14 +11956,14 @@
       </c>
       <c r="B148" s="33" t="str">
         <f>Lookup!C$13</f>
-        <v>https://www.getabstract.com/en/summary/career-and-self-development/qbq-the-question-behind-the-question/4507</v>
+        <v>https://www.getabstract.com/ShowAbstract.do?dataId=7932</v>
       </c>
       <c r="C148" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="33" t="str">
         <f>Lookup!B$13</f>
-        <v>QBQ: The Question Behind the Question (Abstract)</v>
+        <v>Micromessaging (Abstract)</v>
       </c>
       <c r="E148" s="29" t="s">
         <v>7</v>
@@ -12094,14 +12089,14 @@
       </c>
       <c r="B160" s="33" t="str">
         <f>Lookup!C$14</f>
-        <v>https://boeing.skillport.com/</v>
+        <v>https://www.getabstract.com/en/summary/career-and-self-development/qbq-the-question-behind-the-question/4507</v>
       </c>
       <c r="C160" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="33" t="str">
         <f>Lookup!B$14</f>
-        <v>Skillport</v>
+        <v>QBQ: The Question Behind the Question (Abstract)</v>
       </c>
       <c r="E160" s="29" t="s">
         <v>7</v>
@@ -12227,14 +12222,14 @@
       </c>
       <c r="B172" s="33" t="str">
         <f>Lookup!C$15</f>
-        <v>https://www.getabstract.com/en/summary/leadership-and-management/strengths-based-leadership/12025</v>
+        <v>https://boeing.skillport.com/</v>
       </c>
       <c r="C172" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="33" t="str">
         <f>Lookup!B$15</f>
-        <v>Strengths Based Leadership Guide (Abstract)</v>
+        <v>Skillport</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>7</v>
@@ -12360,14 +12355,14 @@
       </c>
       <c r="B184" s="33" t="str">
         <f>Lookup!C$16</f>
-        <v>https://www.getabstract.com/en/summary/career-and-self-development/the-connect-effect/9433</v>
+        <v>https://www.getabstract.com/en/summary/leadership-and-management/strengths-based-leadership/12025</v>
       </c>
       <c r="C184" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="33" t="str">
         <f>Lookup!B$16</f>
-        <v>The Connect Effect (Abstract)</v>
+        <v>Strengths Based Leadership Guide (Abstract)</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>7</v>
@@ -12493,14 +12488,14 @@
       </c>
       <c r="B196" s="33" t="str">
         <f>Lookup!C$17</f>
-        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Trust/101_TRUST_Module.pptx</v>
+        <v>https://www.getabstract.com/en/summary/career-and-self-development/the-connect-effect/9433</v>
       </c>
       <c r="C196" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D196" s="33" t="str">
         <f>Lookup!B$17</f>
-        <v>Trust - Transformational Leadership 101</v>
+        <v>The Connect Effect (Abstract)</v>
       </c>
       <c r="E196" s="29" t="s">
         <v>7</v>
@@ -12626,14 +12621,14 @@
       </c>
       <c r="B208" s="33" t="str">
         <f>Lookup!C$18</f>
-        <v>https://hbr.org/2014/09/a-framework-for-understanding-vuca</v>
+        <v>https://fll.web.boeing.com/filespub/DoK_TL_101Trust/101_TRUST_Module.pptx</v>
       </c>
       <c r="C208" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="33" t="str">
         <f>Lookup!B$18</f>
-        <v>VUCA Concepts (Volatility, Uncertainty, Complexity, Ambiguity)</v>
+        <v>Trust - Transformational Leadership 101</v>
       </c>
       <c r="E208" s="29" t="s">
         <v>7</v>
@@ -12757,16 +12752,16 @@
       <c r="A220" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B220" s="33">
+      <c r="B220" s="33" t="str">
         <f>Lookup!C$19</f>
-        <v>0</v>
+        <v>https://hbr.org/2014/09/a-framework-for-understanding-vuca</v>
       </c>
       <c r="C220" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="33">
+      <c r="D220" s="33" t="str">
         <f>Lookup!B$19</f>
-        <v>0</v>
+        <v>VUCA Concepts (Volatility, Uncertainty, Complexity, Ambiguity)</v>
       </c>
       <c r="E220" s="29" t="s">
         <v>7</v>
@@ -17351,7 +17346,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C18"/>
+      <selection activeCell="B1" sqref="B1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17366,10 +17361,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17377,10 +17372,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17388,10 +17383,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17399,10 +17394,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17410,10 +17405,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17421,10 +17416,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>180</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17432,10 +17427,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>468</v>
+        <v>130</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>469</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -17443,10 +17438,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>471</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -17454,10 +17449,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>152</v>
+        <v>465</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>172</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -17465,10 +17460,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>168</v>
+        <v>467</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>183</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -17476,10 +17471,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -17487,10 +17482,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>166</v>
+        <v>469</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>181</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -17498,10 +17493,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -17509,10 +17504,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -17520,10 +17515,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -17531,10 +17526,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>474</v>
+        <v>154</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -17542,10 +17537,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>476</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -17553,17 +17548,22 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>472</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>176</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>19</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
@@ -18053,7 +18053,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -18254,7 +18254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6128076B-D58D-4E98-BC8B-AFEDE8054AD0}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
@@ -18276,13 +18276,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>27</v>
@@ -18296,13 +18296,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>27</v>
@@ -18336,13 +18336,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>27</v>
@@ -19005,33 +19005,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>417</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>337</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>421</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>254</v>
@@ -19043,7 +19043,7 @@
         <v>327</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -19057,10 +19057,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>58</v>
@@ -19069,13 +19069,13 @@
         <v>327</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>6</v>
@@ -19083,7 +19083,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>87</v>
@@ -19095,13 +19095,13 @@
         <v>327</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>6</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>86</v>
@@ -19121,13 +19121,13 @@
         <v>327</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>6</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>251</v>
@@ -19147,13 +19147,13 @@
         <v>327</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>6</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>75</v>
@@ -19173,7 +19173,7 @@
         <v>327</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>59</v>
@@ -19187,10 +19187,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>58</v>
@@ -19199,7 +19199,7 @@
         <v>327</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>59</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>86</v>
@@ -19225,7 +19225,7 @@
         <v>327</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>59</v>
@@ -19239,10 +19239,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>58</v>
@@ -19251,13 +19251,13 @@
         <v>327</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>6</v>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19031"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19110"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conra\Documents\GitHub\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53490EC7-4732-4FB7-B25F-BECD6218A20F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92DAB0D-9BB6-470B-BBBD-C77E5A34CBA4}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5856" windowWidth="10296" windowHeight="0" tabRatio="850" activeTab="5" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="6312" windowWidth="10296" windowHeight="0" tabRatio="850" activeTab="2" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accordion_New" sheetId="35" r:id="rId1"/>
@@ -22,49 +22,54 @@
     <sheet name="DevSelf_EmailMan" sheetId="33" r:id="rId7"/>
     <sheet name="Quick_Links" sheetId="34" r:id="rId8"/>
     <sheet name="Quality_Train" sheetId="1" r:id="rId9"/>
-    <sheet name="Quality_DirectLinks" sheetId="2" r:id="rId10"/>
-    <sheet name="RunTheBus_Direct" sheetId="5" r:id="rId11"/>
-    <sheet name="RunTheBusiness_Train" sheetId="6" r:id="rId12"/>
-    <sheet name="DevTeam_Train" sheetId="17" r:id="rId13"/>
-    <sheet name="DevTeam_Direct" sheetId="18" r:id="rId14"/>
-    <sheet name="DevSelf_Train" sheetId="19" r:id="rId15"/>
-    <sheet name="DevSelf_Direct" sheetId="20" r:id="rId16"/>
-    <sheet name="Draw_Direct" sheetId="21" r:id="rId17"/>
-    <sheet name="Draw_Train" sheetId="28" r:id="rId18"/>
-    <sheet name="ManTeam_Train" sheetId="22" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="32" r:id="rId20"/>
-    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId21"/>
-    <sheet name="Resources_Direect" sheetId="24" r:id="rId22"/>
-    <sheet name="BPS_Related Links" sheetId="7" r:id="rId23"/>
-    <sheet name="BPS_Direct" sheetId="3" r:id="rId24"/>
-    <sheet name="BPS_Training" sheetId="4" r:id="rId25"/>
-    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId26"/>
-    <sheet name="FOD_Training" sheetId="10" r:id="rId27"/>
-    <sheet name="FOD_Direct" sheetId="11" r:id="rId28"/>
-    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId29"/>
-    <sheet name="G4_Direct" sheetId="13" r:id="rId30"/>
-    <sheet name="PPMan_Direct" sheetId="25" r:id="rId31"/>
-    <sheet name="PPMan_Train" sheetId="26" r:id="rId32"/>
+    <sheet name="RunTheBusiness_Train" sheetId="6" r:id="rId10"/>
+    <sheet name="DevTeam_Train" sheetId="17" r:id="rId11"/>
+    <sheet name="DevSelf_Train" sheetId="19" r:id="rId12"/>
+    <sheet name="ManTeam_Train" sheetId="22" r:id="rId13"/>
+    <sheet name="BPS_Training" sheetId="4" r:id="rId14"/>
+    <sheet name="FOD_Training" sheetId="10" r:id="rId15"/>
+    <sheet name="PPMan_Train" sheetId="26" r:id="rId16"/>
+    <sheet name="Quality_DirectLinks" sheetId="2" r:id="rId17"/>
+    <sheet name="RunTheBus_Direct" sheetId="5" r:id="rId18"/>
+    <sheet name="DevTeam_Direct" sheetId="18" r:id="rId19"/>
+    <sheet name="DevSelf_Direct" sheetId="20" r:id="rId20"/>
+    <sheet name="Draw_Direct" sheetId="21" r:id="rId21"/>
+    <sheet name="Draw_Train" sheetId="28" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId23"/>
+    <sheet name="ManTeam_Direct" sheetId="23" r:id="rId24"/>
+    <sheet name="Resources_Direect" sheetId="24" r:id="rId25"/>
+    <sheet name="BPS_Related Links" sheetId="7" r:id="rId26"/>
+    <sheet name="BPS_Direct" sheetId="3" r:id="rId27"/>
+    <sheet name="BPS_OtherLinks" sheetId="8" r:id="rId28"/>
+    <sheet name="FOD_Direct" sheetId="11" r:id="rId29"/>
+    <sheet name="FOD_Relate_Other" sheetId="12" r:id="rId30"/>
+    <sheet name="G4_Direct" sheetId="13" r:id="rId31"/>
+    <sheet name="PPMan_Direct" sheetId="25" r:id="rId32"/>
     <sheet name="ToolMan_Direct" sheetId="27" r:id="rId33"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Cleanup!$A$1:$C$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">DevTeam_Train!$A$1:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">DevTeam_Train!$A$1:$K$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Quick_Links!$A$1:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">RunTheBusiness_Train!$A$1:$K$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">Sheet1!$A$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">RunTheBusiness_Train!$A$1:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Sheet1!$A$1:$B$22</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="523">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -1774,76 +1779,208 @@
     <t>&lt;&lt;Accordion&gt;&gt;</t>
   </si>
   <si>
-    <t>Attendance Management</t>
-  </si>
-  <si>
-    <t>BCA Allegation Report Form</t>
-  </si>
-  <si>
-    <t>http://forms.web.boeing.com/detail.cfm?fnum=X37969</t>
-  </si>
-  <si>
-    <t>BDS Front Line Leader Reference Manual</t>
-  </si>
-  <si>
-    <t>http://bds.web.boeing.com/assets/74/docs/BDS_Front_Line_Leaders_2nd_Editon_Manual_Dec%202011.pdf.ashx#search=BDS%20Front%20Line%20Leaders%20Manual</t>
-  </si>
-  <si>
-    <t>Bird Farm Chart</t>
-  </si>
-  <si>
-    <t>Boeing Vision</t>
-  </si>
-  <si>
-    <t>https://ourflightplan.web.boeing.com/vision.shtml</t>
-  </si>
-  <si>
-    <t>BORIS (Boeing Opportunity, Risk, and Issue System)</t>
-  </si>
-  <si>
     <t>https://boris.web.boeing.com/newboris/</t>
   </si>
   <si>
-    <t>Chicken Tracks - Everett</t>
-  </si>
-  <si>
     <t>DMVS (Demand Management Visibility Service)</t>
   </si>
   <si>
     <t>https://dmvs6.web.boeing.com/#/Actions</t>
   </si>
   <si>
-    <t>EAC (Estimate at Completion)</t>
-  </si>
-  <si>
-    <t>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</t>
-  </si>
-  <si>
     <t>ETS (Employee Timekeeping System)</t>
   </si>
   <si>
-    <t>Finance and Budget Terminology</t>
-  </si>
-  <si>
-    <t>LRBP (Long Range Business Plan)</t>
-  </si>
-  <si>
-    <t>Stakeholder Engagement</t>
-  </si>
-  <si>
-    <t>http://hr1.web.boeing.com/documents/ltmoe/B3_Lvl5_Attachment.ppt</t>
-  </si>
-  <si>
-    <t>TMC (Total Manufacturing Cost)</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?refer=search&amp;id=PRO-7060</t>
-  </si>
-  <si>
-    <t>Chicken Tracks - Renton</t>
-  </si>
-  <si>
-    <t>http://rentonops.ca.boeing.com/737_IE/chicken_tracks.html</t>
+    <t>Policies, Procedures, Processes and Specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;span class="caret"&gt;&lt;/span&gt;&lt;/a&gt; &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>Boeing Education Network</t>
+  </si>
+  <si>
+    <t>http://lead.web.boeing.com/ben/BEN_on_demand.html</t>
+  </si>
+  <si>
+    <t>http://pims-v4.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>Risk, Issue, and Opportunity Management (PRO-5536)</t>
+  </si>
+  <si>
+    <t>Perform Risk, Issue, and Opportunity Management (BPI-3487)</t>
+  </si>
+  <si>
+    <t>Earned Value Management (EVM): Integrated Performance Management (PRO-422)</t>
+  </si>
+  <si>
+    <t>Estimate at Completion (EAC) (PRO-115)</t>
+  </si>
+  <si>
+    <t>Integrated Scheduling Standards (PRO-6483)</t>
+  </si>
+  <si>
+    <t>BCA Front Line Leader Responsibilities, Authority and Accountability (PRO-7060)</t>
+  </si>
+  <si>
+    <t>BCA Program Baseline Management Process (BPI-4780)</t>
+  </si>
+  <si>
+    <t>Delegation of Authority to Authorize Business Transactions and Agreements, and to Commit Company Resources (POL-1)</t>
+  </si>
+  <si>
+    <t>Develop and Maintain the Program Organization (BPI-6326)</t>
+  </si>
+  <si>
+    <t>Develop, Implement and Maintain Program Quality Planning (BPI-3965)</t>
+  </si>
+  <si>
+    <t>Develop, Release and Maintain a Program Execution Plan (PEP) (BPI-5033)</t>
+  </si>
+  <si>
+    <t>Establish and Manage Integrated Baselines (BPI-4473)</t>
+  </si>
+  <si>
+    <t>Independent Review (IR) (PRO-6581)</t>
+  </si>
+  <si>
+    <t>Integrated Market Strategies and Business Plans (PRO-6579)</t>
+  </si>
+  <si>
+    <t>Integrated Program Planning (BPI-3488)</t>
+  </si>
+  <si>
+    <t>Measure, Analyze, Monitor and Control Program Performance (BPI-3491)</t>
+  </si>
+  <si>
+    <t>Perform Customer Product Review (BPI-4948)</t>
+  </si>
+  <si>
+    <t>Program Communication (PRO-6582)</t>
+  </si>
+  <si>
+    <t>Program Execution Plan (PRO-5584)</t>
+  </si>
+  <si>
+    <t>Program IPT Leader (PRO-6918)</t>
+  </si>
+  <si>
+    <t>Program Management (PRO-4041)</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-5536</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3487</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-422</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-115</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6483</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-7060</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4780</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=POL-1</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-6326</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3965</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-5033</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4473</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6581</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6579</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3488</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3491</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4948</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6582</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-5584</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6918</t>
+  </si>
+  <si>
+    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-4041</t>
+  </si>
+  <si>
+    <t>Project Management Fundamentals Workshop</t>
+  </si>
+  <si>
+    <t>BORIS (Boeing Opportunities, Risks and Issues Management System)</t>
+  </si>
+  <si>
+    <t>CMES (Common Manufacturing Execution System)</t>
+  </si>
+  <si>
+    <t>https://cmesbca.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>EHD (Enterprise Help Desk)</t>
+  </si>
+  <si>
+    <t>EITMS (Employee Involvement Team Management System)</t>
+  </si>
+  <si>
+    <t>http://eitms.web.boeing.com</t>
+  </si>
+  <si>
+    <t>eTRAC- Part Shortages and Exceptions</t>
+  </si>
+  <si>
+    <t>http://etrac.web.boeing.com/etrac</t>
+  </si>
+  <si>
+    <t>InSite</t>
+  </si>
+  <si>
+    <t>MARS (My Account Request System)</t>
+  </si>
+  <si>
+    <t>https://marsprod.web.boeing.com:8084/mars/home?0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Learning </t>
+  </si>
+  <si>
+    <t>PIMS (Program Information Management System)</t>
+  </si>
+  <si>
+    <t>https://redars.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>SAT (Shipside Action Tracker)</t>
+  </si>
+  <si>
+    <t>Travel @ Boeing</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2045,6 +2182,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2362,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42396E6-F478-4B75-B1F5-C87D3BA47C18}">
   <dimension ref="A1:H396"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:H300"/>
+    <sheetView topLeftCell="A241" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2375,7 +2513,7 @@
     <col min="5" max="5" width="10" style="43" customWidth="1"/>
     <col min="6" max="6" width="3.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="17"/>
     <col min="10" max="10" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="17"/>
@@ -2415,28 +2553,29 @@
       </c>
       <c r="B4" s="28" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C4" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D4" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C1)</f>
-        <v>#collapse</v>
-      </c>
-      <c r="E4" s="44">
+        <v>http://termbank.web.boeing.com/#/</v>
+      </c>
+      <c r="E4" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",Lookup!A1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="33" t="str">
         <f>Lookup!B$1</f>
-        <v>Attendance Management</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>7</v>
+        <v>Acronym Search</v>
+      </c>
+      <c r="H4" s="29" t="str">
+        <f>IF(D4="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2552,7 +2691,7 @@
       </c>
       <c r="D16" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C2)</f>
-        <v>http://forms.web.boeing.com/detail.cfm?fnum=X37969</v>
+        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
       </c>
       <c r="E16" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;",Lookup!A2,"")</f>
@@ -2563,10 +2702,11 @@
       </c>
       <c r="G16" s="33" t="str">
         <f>Lookup!B$2</f>
-        <v>BCA Allegation Report Form</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>7</v>
+        <v>BCA Security</v>
+      </c>
+      <c r="H16" s="29" t="str">
+        <f>IF(D16="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2682,7 +2822,8 @@
       </c>
       <c r="D28" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C3)</f>
-        <v>http://onetraining.web.boeing.com/everett/index.shtml</v>
+        <v xml:space="preserve">http://sitemaps.web.boeing.com/index.asp
+</v>
       </c>
       <c r="E28" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;",Lookup!A3,"")</f>
@@ -2693,10 +2834,11 @@
       </c>
       <c r="G28" s="33" t="str">
         <f>Lookup!B$3</f>
-        <v>BCA Training and Compliance</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>7</v>
+        <v>Boeing Maps</v>
+      </c>
+      <c r="H28" s="29" t="str">
+        <f>IF(D28="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2812,7 +2954,7 @@
       </c>
       <c r="D40" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C4)</f>
-        <v>http://bds.web.boeing.com/assets/74/docs/BDS_Front_Line_Leaders_2nd_Editon_Manual_Dec%202011.pdf.ashx#search=BDS%20Front%20Line%20Leaders%20Manual</v>
+        <v>https://boris.web.boeing.com/newboris/</v>
       </c>
       <c r="E40" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;",Lookup!A4,"")</f>
@@ -2823,10 +2965,11 @@
       </c>
       <c r="G40" s="33" t="str">
         <f>Lookup!B$4</f>
-        <v>BDS Front Line Leader Reference Manual</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>7</v>
+        <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
+      </c>
+      <c r="H40" s="29" t="str">
+        <f>IF(D40="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2935,28 +3078,29 @@
       </c>
       <c r="B52" s="28" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C52" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D52" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C5)</f>
-        <v>#collapse</v>
-      </c>
-      <c r="E52" s="44">
+        <v>http://carats.ca.boeing.com/Request.asp</v>
+      </c>
+      <c r="E52" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",Lookup!A5,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F52" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="33" t="str">
         <f>Lookup!B$5</f>
-        <v>Bird Farm Chart</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>7</v>
+        <v>CARATS</v>
+      </c>
+      <c r="H52" s="29" t="str">
+        <f>IF(D52="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3072,7 +3216,7 @@
       </c>
       <c r="D64" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C6)</f>
-        <v>https://ourflightplan.web.boeing.com/vision.shtml</v>
+        <v>https://cmesbca.web.boeing.com/</v>
       </c>
       <c r="E64" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",Lookup!A6,"")</f>
@@ -3083,10 +3227,11 @@
       </c>
       <c r="G64" s="33" t="str">
         <f>Lookup!B$6</f>
-        <v>Boeing Vision</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>7</v>
+        <v>CMES (Common Manufacturing Execution System)</v>
+      </c>
+      <c r="H64" s="29" t="str">
+        <f>IF(D64="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3202,7 +3347,7 @@
       </c>
       <c r="D76" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C7)</f>
-        <v>https://boris.web.boeing.com/newboris/</v>
+        <v>https://dmvs6.web.boeing.com/#/Actions</v>
       </c>
       <c r="E76" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",Lookup!A7,"")</f>
@@ -3213,10 +3358,11 @@
       </c>
       <c r="G76" s="33" t="str">
         <f>Lookup!B$7</f>
-        <v>BORIS (Boeing Opportunity, Risk, and Issue System)</v>
-      </c>
-      <c r="H76" s="29" t="s">
-        <v>7</v>
+        <v>DMVS (Demand Management Visibility Service)</v>
+      </c>
+      <c r="H76" s="29" t="str">
+        <f>IF(D76="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3325,28 +3471,29 @@
       </c>
       <c r="B88" s="28" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C88" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D88" s="44" t="str">
         <f>Lookup!C$8</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
-      </c>
-      <c r="E88" s="44">
+        <v>http://helpdesk.web.boeing.com/</v>
+      </c>
+      <c r="E88" s="44" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",Lookup!A8,"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="F88" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G88" s="33" t="str">
         <f>Lookup!B$8</f>
-        <v>Chicken Tracks</v>
-      </c>
-      <c r="H88" s="29" t="s">
-        <v>7</v>
+        <v>EHD (Enterprise Help Desk)</v>
+      </c>
+      <c r="H88" s="29" t="str">
+        <f>IF(D88="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3462,7 +3609,7 @@
       </c>
       <c r="D100" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C9)</f>
-        <v>http://linemoves.ca.boeing.com/</v>
+        <v>http://eitms.web.boeing.com</v>
       </c>
       <c r="E100" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",Lookup!A9,"")</f>
@@ -3473,10 +3620,11 @@
       </c>
       <c r="G100" s="33" t="str">
         <f>Lookup!B$9</f>
-        <v>Chicken Tracks - Everett</v>
-      </c>
-      <c r="H100" s="29" t="s">
-        <v>7</v>
+        <v>EITMS (Employee Involvement Team Management System)</v>
+      </c>
+      <c r="H100" s="29" t="str">
+        <f>IF(D100="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3592,7 +3740,7 @@
       </c>
       <c r="D112" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C10)</f>
-        <v>http://iamboeing.web.boeing.com/index.aspx?com=1&amp;id=162</v>
+        <v>http://etrac.web.boeing.com/etrac</v>
       </c>
       <c r="E112" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",Lookup!A10,"")</f>
@@ -3603,10 +3751,11 @@
       </c>
       <c r="G112" s="33" t="str">
         <f>Lookup!B$10</f>
-        <v>Collective Bargaining Agreement</v>
-      </c>
-      <c r="H112" s="29" t="s">
-        <v>7</v>
+        <v>eTRAC- Part Shortages and Exceptions</v>
+      </c>
+      <c r="H112" s="29" t="str">
+        <f>IF(D112="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3722,7 +3871,7 @@
       </c>
       <c r="D124" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C11)</f>
-        <v>http://imh.ca.boeing.com/OHC%20website/Cranes%20Website/index.html</v>
+        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
       </c>
       <c r="E124" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",Lookup!A11,"")</f>
@@ -3733,10 +3882,11 @@
       </c>
       <c r="G124" s="33" t="str">
         <f>Lookup!B$11</f>
-        <v>Crane Schedules</v>
-      </c>
-      <c r="H124" s="29" t="s">
-        <v>7</v>
+        <v>ETS (Employee Timekeeping System)</v>
+      </c>
+      <c r="H124" s="29" t="str">
+        <f>IF(D124="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3852,7 +4002,7 @@
       </c>
       <c r="D136" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C12)</f>
-        <v>https://learning.aperianglobal.com</v>
+        <v>http://foodservices.web.boeing.com/PS/everett.asp</v>
       </c>
       <c r="E136" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",Lookup!A12,"")</f>
@@ -3863,10 +4013,11 @@
       </c>
       <c r="G136" s="33" t="str">
         <f>Lookup!B$12</f>
-        <v>Developing Your Global Mindset</v>
-      </c>
-      <c r="H136" s="29" t="s">
-        <v>7</v>
+        <v>Food Services</v>
+      </c>
+      <c r="H136" s="29" t="str">
+        <f>IF(D136="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3982,7 +4133,7 @@
       </c>
       <c r="D148" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C13)</f>
-        <v>https://dmvs6.web.boeing.com/#/Actions</v>
+        <v>https://insite.web.boeing.com/culture/index.do</v>
       </c>
       <c r="E148" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",Lookup!A13,"")</f>
@@ -3993,10 +4144,11 @@
       </c>
       <c r="G148" s="33" t="str">
         <f>Lookup!B$13</f>
-        <v>DMVS (Demand Management Visibility Service)</v>
-      </c>
-      <c r="H148" s="29" t="s">
-        <v>7</v>
+        <v>InSite</v>
+      </c>
+      <c r="H148" s="29" t="str">
+        <f>IF(D148="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4112,7 +4264,7 @@
       </c>
       <c r="D160" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C14)</f>
-        <v>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</v>
+        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
       </c>
       <c r="E160" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",Lookup!A14,"")</f>
@@ -4123,10 +4275,11 @@
       </c>
       <c r="G160" s="33" t="str">
         <f>Lookup!B$14</f>
-        <v>EAC (Estimate at Completion)</v>
-      </c>
-      <c r="H160" s="29" t="s">
-        <v>7</v>
+        <v>Library Resources</v>
+      </c>
+      <c r="H160" s="29" t="str">
+        <f>IF(D160="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -4242,7 +4395,7 @@
       </c>
       <c r="D172" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C15)</f>
-        <v>http://ethics.whq.boeing.com/report/index.html</v>
+        <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
       </c>
       <c r="E172" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",Lookup!A15,"")</f>
@@ -4253,10 +4406,11 @@
       </c>
       <c r="G172" s="33" t="str">
         <f>Lookup!B$15</f>
-        <v>Ethics Reports</v>
-      </c>
-      <c r="H172" s="29" t="s">
-        <v>7</v>
+        <v>MARS (My Account Request System)</v>
+      </c>
+      <c r="H172" s="29" t="str">
+        <f>IF(D172="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4372,7 +4526,7 @@
       </c>
       <c r="D184" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C16)</f>
-        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
+        <v>https://wp-myb-portal.web.boeing.com/myb/ta/TotalAccess</v>
       </c>
       <c r="E184" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",Lookup!A16,"")</f>
@@ -4383,10 +4537,11 @@
       </c>
       <c r="G184" s="33" t="str">
         <f>Lookup!B$16</f>
-        <v>ETS (Employee Timekeeping System)</v>
-      </c>
-      <c r="H184" s="29" t="s">
-        <v>7</v>
+        <v xml:space="preserve">My Learning </v>
+      </c>
+      <c r="H184" s="29" t="str">
+        <f>IF(D184="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -4502,7 +4657,7 @@
       </c>
       <c r="D196" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C17)</f>
-        <v>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</v>
+        <v>http://pims-v4.web.boeing.com/</v>
       </c>
       <c r="E196" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",Lookup!A17,"")</f>
@@ -4513,10 +4668,11 @@
       </c>
       <c r="G196" s="33" t="str">
         <f>Lookup!B$17</f>
-        <v>Finance and Budget Terminology</v>
-      </c>
-      <c r="H196" s="29" t="s">
-        <v>7</v>
+        <v>PIMS (Program Information Management System)</v>
+      </c>
+      <c r="H196" s="29" t="str">
+        <f>IF(D196="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -4625,28 +4781,29 @@
       </c>
       <c r="B208" s="28" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v/>
+        <v>data-toggle="collapse" data-parent="#accordion"</v>
       </c>
       <c r="C208" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D208" s="44" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C18)</f>
-        <v>http://ewh2002-nw.web.boeing.com/fireview/Fireview/WebPages/StdFiringOrders.aspx</v>
-      </c>
-      <c r="E208" s="44" t="str">
+        <v>#collapse</v>
+      </c>
+      <c r="E208" s="44">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",Lookup!A18,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="F208" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G208" s="33" t="str">
         <f>Lookup!B$18</f>
-        <v>Firing Order</v>
-      </c>
-      <c r="H208" s="29" t="s">
-        <v>7</v>
+        <v>Policies, Procedures, Processes and Specifications</v>
+      </c>
+      <c r="H208" s="29" t="str">
+        <f>IF(D208="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v xml:space="preserve">  &lt;span class="caret"&gt;&lt;/span&gt;&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -4762,7 +4919,7 @@
       </c>
       <c r="D220" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C19)</f>
-        <v>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</v>
+        <v>https://redars.web.boeing.com/</v>
       </c>
       <c r="E220" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",Lookup!A19,"")</f>
@@ -4773,10 +4930,11 @@
       </c>
       <c r="G220" s="33" t="str">
         <f>Lookup!B$19</f>
-        <v>LRBP (Long Range Business Plan)</v>
-      </c>
-      <c r="H220" s="29" t="s">
-        <v>7</v>
+        <v>REDARS/EID</v>
+      </c>
+      <c r="H220" s="29" t="str">
+        <f>IF(D220="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -4892,7 +5050,7 @@
       </c>
       <c r="D232" s="44" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C20)</f>
-        <v>http://alki.ca.boeing.com/finance/fin&amp;bus/payroll&amp;tk.html</v>
+        <v>http://satsystem.web.boeing.com/</v>
       </c>
       <c r="E232" s="44" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;",Lookup!A20,"")</f>
@@ -4903,10 +5061,11 @@
       </c>
       <c r="G232" s="33" t="str">
         <f>Lookup!B$20</f>
-        <v>Payroll</v>
-      </c>
-      <c r="H232" s="29" t="s">
-        <v>7</v>
+        <v>SAT (Shipside Action Tracker)</v>
+      </c>
+      <c r="H232" s="29" t="str">
+        <f>IF(D232="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -5022,7 +5181,7 @@
       </c>
       <c r="D244" s="44" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C21)</f>
-        <v>http://hr1.web.boeing.com/documents/ltmoe/B3_Lvl5_Attachment.ppt</v>
+        <v>http://www.boeing.com/company/tours/</v>
       </c>
       <c r="E244" s="44" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;",Lookup!A21,"")</f>
@@ -5033,10 +5192,11 @@
       </c>
       <c r="G244" s="33" t="str">
         <f>Lookup!B$21</f>
-        <v>Stakeholder Engagement</v>
-      </c>
-      <c r="H244" s="29" t="s">
-        <v>7</v>
+        <v>Site Tours</v>
+      </c>
+      <c r="H244" s="29" t="str">
+        <f>IF(D244="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -5152,7 +5312,7 @@
       </c>
       <c r="D256" s="44" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C22)</f>
-        <v>https://my.boeing.com/portal/server.pt?space=CommunityPage&amp;cached=true&amp;parentname=CommunityPage&amp;parentid=2&amp;in_hi_userid=29091&amp;control=SetCommunity&amp;CommunityID=1577&amp;PageID=0</v>
+        <v>http://boeingtravel.web.boeing.com/</v>
       </c>
       <c r="E256" s="44" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;",Lookup!A22,"")</f>
@@ -5163,10 +5323,11 @@
       </c>
       <c r="G256" s="33" t="str">
         <f>Lookup!B$22</f>
-        <v>Team Leader</v>
-      </c>
-      <c r="H256" s="29" t="s">
-        <v>7</v>
+        <v>Travel @ Boeing</v>
+      </c>
+      <c r="H256" s="29" t="str">
+        <f>IF(D256="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -5282,7 +5443,7 @@
       </c>
       <c r="D268" s="44" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C23)</f>
-        <v>http://tmcnet.web.boeing.com/</v>
+        <v>https://boeing.webex.com/mw3100/mywebex/default.do?siteurl=boeing</v>
       </c>
       <c r="E268" s="44" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;",Lookup!A23,"")</f>
@@ -5293,10 +5454,11 @@
       </c>
       <c r="G268" s="33" t="str">
         <f>Lookup!B$23</f>
-        <v>TMC (Total Manufacturing Cost)</v>
-      </c>
-      <c r="H268" s="29" t="s">
-        <v>7</v>
+        <v xml:space="preserve">Webex </v>
+      </c>
+      <c r="H268" s="29" t="str">
+        <f>IF(D268="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -5410,9 +5572,9 @@
       <c r="C280" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D280" s="44" t="str">
+      <c r="D280" s="44">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C24)</f>
-        <v>https://wsso-support.web.boeing.com:2016/redirect.html?URL=https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4331</v>
+        <v>0</v>
       </c>
       <c r="E280" s="44" t="str">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;",Lookup!A24,"")</f>
@@ -5421,12 +5583,13 @@
       <c r="F280" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G280" s="33" t="str">
+      <c r="G280" s="33">
         <f>Lookup!B$24</f>
-        <v>Unplanned Outages - Manual Process BPI-4331</v>
-      </c>
-      <c r="H280" s="29" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="H280" s="29" t="str">
+        <f>IF(D280="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -5540,9 +5703,9 @@
       <c r="C292" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D292" s="44" t="str">
+      <c r="D292" s="44">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C25)</f>
-        <v>https://onepppm.web.boeing.com/onepppm/app/documents/show?refer=search&amp;id=PRO-7060</v>
+        <v>0</v>
       </c>
       <c r="E292" s="44" t="str">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;",Lookup!A25,"")</f>
@@ -5551,12 +5714,13 @@
       <c r="F292" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G292" s="33" t="str">
+      <c r="G292" s="33">
         <f>Lookup!B$25</f>
-        <v>What are Manager's Roles and Responsibilities</v>
-      </c>
-      <c r="H292" s="29" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="H292" s="29" t="str">
+        <f>IF(D292="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -5685,8 +5849,9 @@
         <f>Lookup!B$26</f>
         <v>0</v>
       </c>
-      <c r="H304" s="29" t="s">
-        <v>7</v>
+      <c r="H304" s="29" t="str">
+        <f>IF(D304="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -5815,8 +5980,9 @@
         <f>Lookup!B$27</f>
         <v>0</v>
       </c>
-      <c r="H316" s="29" t="s">
-        <v>7</v>
+      <c r="H316" s="29" t="str">
+        <f>IF(D316="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -5945,8 +6111,9 @@
         <f>Lookup!B$28</f>
         <v>0</v>
       </c>
-      <c r="H328" s="29" t="s">
-        <v>7</v>
+      <c r="H328" s="29" t="str">
+        <f>IF(D328="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -6075,8 +6242,9 @@
         <f>Lookup!B$29</f>
         <v>0</v>
       </c>
-      <c r="H340" s="29" t="s">
-        <v>7</v>
+      <c r="H340" s="29" t="str">
+        <f>IF(D340="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -6205,8 +6373,9 @@
         <f>Lookup!B$30</f>
         <v>0</v>
       </c>
-      <c r="H352" s="29" t="s">
-        <v>7</v>
+      <c r="H352" s="29" t="str">
+        <f>IF(D352="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -6335,8 +6504,9 @@
         <f>Lookup!B$31</f>
         <v>0</v>
       </c>
-      <c r="H364" s="29" t="s">
-        <v>7</v>
+      <c r="H364" s="29" t="str">
+        <f>IF(D364="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -6465,8 +6635,9 @@
         <f>Lookup!B$32</f>
         <v>0</v>
       </c>
-      <c r="H376" s="29" t="s">
-        <v>7</v>
+      <c r="H376" s="29" t="str">
+        <f>IF(D376="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -6595,8 +6766,9 @@
         <f>Lookup!B$33</f>
         <v>0</v>
       </c>
-      <c r="H388" s="29" t="s">
-        <v>7</v>
+      <c r="H388" s="29" t="str">
+        <f>IF(D388="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
+        <v>&lt;/a&gt; &lt;/h4&gt;</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -6678,552 +6850,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF194037-FCAE-4149-A2B7-FC153B064D9E}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E0EBA3-0050-4665-953C-FBCD138694ED}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.6640625" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{13D5E944-46C4-4845-B083-8205C604858C}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{92F71CAB-528E-42F8-80DA-14992CBC7F92}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{680B759C-1A89-42FD-9667-F66C3BC90620}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{2FADBE31-C5A2-4584-9FB0-A8E161B73B57}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{26E5B6A1-56CB-45BA-8A6C-9DD2179531D3}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{52131D9D-10E0-4D3B-8463-CFA76F8093E4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EE5B24-297A-4D5A-B794-07A676657E5F}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7231,7 +6857,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8151,15 +7777,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30C4674-3DF7-47AB-ABF4-E953E826AB0C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K14"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8212,47 +7838,38 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="C2" s="36" t="s">
         <v>327</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="48">
-        <v>754722</v>
-      </c>
+      <c r="E2" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="49"/>
       <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="48">
-        <v>754722</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" s="49"/>
       <c r="K2" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>369</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>327</v>
@@ -8264,7 +7881,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="48">
-        <v>754721</v>
+        <v>754722</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>5</v>
@@ -8273,7 +7890,7 @@
         <v>73</v>
       </c>
       <c r="I3" s="48">
-        <v>754721</v>
+        <v>754722</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>28</v>
@@ -8287,7 +7904,7 @@
         <v>369</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>327</v>
@@ -8299,7 +7916,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="48">
-        <v>754723</v>
+        <v>754721</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>5</v>
@@ -8308,7 +7925,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="48">
-        <v>754723</v>
+        <v>754721</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>28</v>
@@ -8321,23 +7938,33 @@
       <c r="A5" s="17" t="s">
         <v>369</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>441</v>
+      </c>
       <c r="C5" s="36" t="s">
         <v>327</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>139</v>
+      <c r="E5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="48">
+        <v>754723</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="41" t="s">
-        <v>442</v>
-      </c>
-      <c r="J5" s="10"/>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="48">
+        <v>754723</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" s="17" t="s">
         <v>27</v>
       </c>
@@ -8352,15 +7979,15 @@
       <c r="D6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>449</v>
+      <c r="E6" s="48" t="s">
+        <v>139</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="17" t="s">
@@ -8378,14 +8005,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="17" t="s">
@@ -8403,14 +8030,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="17" t="s">
@@ -8428,14 +8055,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="17" t="s">
@@ -8453,14 +8080,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>50</v>
+        <v>452</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="17" t="s">
@@ -8478,14 +8105,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>453</v>
+        <v>50</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="17" t="s">
@@ -8503,14 +8130,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="41" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="17" t="s">
@@ -8528,14 +8155,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="17" t="s">
@@ -8546,282 +8173,70 @@
       <c r="A14" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
       <c r="C14" s="36" t="s">
         <v>327</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="41">
-        <v>755231</v>
+      <c r="E14" s="41" t="s">
+        <v>406</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="48">
-        <v>755231</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="17" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="41">
+        <v>755231</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="48">
+        <v>755231</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K14" xr:uid="{BE3801C2-FA86-400F-ABD1-896C8CE0FFB1}"/>
+  <autoFilter ref="A1:K15" xr:uid="{BE3801C2-FA86-400F-ABD1-896C8CE0FFB1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A512123-8187-401D-9BB6-B5E323D4E791}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="150.6640625" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D26185B4-C42D-41F7-80F7-D2CE028C94ED}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{2E8812A8-7C38-47FE-8701-95181F128022}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{357C608C-DA63-4EEC-B22A-BCDE1D6944E3}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{8D65FE2D-71CB-44FB-920D-B470AE1FFBBD}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{0DD8AF46-80AD-4754-AF89-AD6CFF261094}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{B08A262D-3A82-411B-BA8B-E1B6BD4FC8EF}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{E73A5B89-9896-4216-AA62-0E142543BFC6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D7100C-4DB2-47F9-B174-F848E9E26C19}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8942,659 +8357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A559FD-CCC3-4E61-81EE-2862331EDF2D}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.33203125" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{1ED18805-983B-4C1E-8BEF-2B68BB4563B3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{881EB021-742E-4480-B501-80F9119AFDA0}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E8DAC39B-14B7-4F5A-B032-4B59F5F44DEC}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{C78B9CA8-E327-48A7-9108-A047E0ADE31B}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{EF099962-83CF-4F17-9DFB-9C2E56B04640}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{31D3757D-0123-42F8-9806-4F512177C668}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{B81163B7-8704-4B55-8A01-81C8BA2E768C}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{4921272C-E809-4BB4-A328-74EEBC89E62A}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{B5794738-AAB3-4CF5-987B-D15A2E6C346F}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{254855E2-7360-49FF-B8D5-420C87149D59}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{CFA9967D-D2DB-44FA-8330-6A7C36E5E9F0}"/>
-    <hyperlink ref="B20" r:id="rId12" xr:uid="{24484CD0-E08E-497C-B899-868FAC8F045C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A742A-0FE9-466D-BF17-68046948EB13}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09D885-2A35-4A4A-96AB-2442850FCA7A}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="10">
-        <v>77519</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="10">
-        <v>77519</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="10">
-        <v>78961</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="10">
-        <v>78961</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449D9536-D7D4-4119-BF78-312DB72EE7F2}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -10348,18 +9111,1773 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4">
+        <v>80423</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>80423</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4">
+        <v>80433</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>80433</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
+        <v>80463</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>80463</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4">
+        <v>80431</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>80431</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4">
+        <v>80432</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>80432</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
+        <v>80723</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>80723</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10">
+        <v>76487</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>76487</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10">
+        <v>78961</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>78961</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="10">
+        <v>80644</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="10">
+        <v>80644</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93EDD-9701-45D0-9497-39EB7C448135}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>80879</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="17">
+        <v>80879</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DF135-25CB-409B-A853-E1F0D9C04303}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10">
+        <v>77519</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10">
+        <v>77519</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="10">
+        <v>77434</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>77434</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>76390</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>76390</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF194037-FCAE-4149-A2B7-FC153B064D9E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E0EBA3-0050-4665-953C-FBCD138694ED}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{13D5E944-46C4-4845-B083-8205C604858C}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{92F71CAB-528E-42F8-80DA-14992CBC7F92}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{680B759C-1A89-42FD-9667-F66C3BC90620}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{2FADBE31-C5A2-4584-9FB0-A8E161B73B57}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{26E5B6A1-56CB-45BA-8A6C-9DD2179531D3}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{52131D9D-10E0-4D3B-8463-CFA76F8093E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A512123-8187-401D-9BB6-B5E323D4E791}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D26185B4-C42D-41F7-80F7-D2CE028C94ED}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2E8812A8-7C38-47FE-8701-95181F128022}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{357C608C-DA63-4EEC-B22A-BCDE1D6944E3}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{8D65FE2D-71CB-44FB-920D-B470AE1FFBBD}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{0DD8AF46-80AD-4754-AF89-AD6CFF261094}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{B08A262D-3A82-411B-BA8B-E1B6BD4FC8EF}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{E73A5B89-9896-4216-AA62-0E142543BFC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F345F0-B9BD-45AA-A760-F77719206F87}">
   <dimension ref="A1:E398"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -10394,14 +10912,14 @@
       </c>
       <c r="B4" s="33" t="str">
         <f>Lookup!C$1</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>http://termbank.web.boeing.com/#/</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="33" t="str">
         <f>Lookup!B$1</f>
-        <v>Attendance Management</v>
+        <v>Acronym Search</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>7</v>
@@ -10503,14 +11021,14 @@
       </c>
       <c r="B16" s="33" t="str">
         <f>Lookup!C$2</f>
-        <v>http://forms.web.boeing.com/detail.cfm?fnum=X37969</v>
+        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="33" t="str">
         <f>Lookup!B$2</f>
-        <v>BCA Allegation Report Form</v>
+        <v>BCA Security</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>7</v>
@@ -10636,14 +11154,15 @@
       </c>
       <c r="B28" s="33" t="str">
         <f>Lookup!C$3</f>
-        <v>http://onetraining.web.boeing.com/everett/index.shtml</v>
+        <v xml:space="preserve">http://sitemaps.web.boeing.com/index.asp
+</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="33" t="str">
         <f>Lookup!B$3</f>
-        <v>BCA Training and Compliance</v>
+        <v>Boeing Maps</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>7</v>
@@ -10769,14 +11288,14 @@
       </c>
       <c r="B40" s="33" t="str">
         <f>Lookup!C$4</f>
-        <v>http://bds.web.boeing.com/assets/74/docs/BDS_Front_Line_Leaders_2nd_Editon_Manual_Dec%202011.pdf.ashx#search=BDS%20Front%20Line%20Leaders%20Manual</v>
+        <v>https://boris.web.boeing.com/newboris/</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="33" t="str">
         <f>Lookup!B$4</f>
-        <v>BDS Front Line Leader Reference Manual</v>
+        <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>7</v>
@@ -10902,14 +11421,14 @@
       </c>
       <c r="B52" s="33" t="str">
         <f>Lookup!C$5</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>http://carats.ca.boeing.com/Request.asp</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="33" t="str">
         <f>Lookup!B$5</f>
-        <v>Bird Farm Chart</v>
+        <v>CARATS</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>7</v>
@@ -11035,14 +11554,14 @@
       </c>
       <c r="B64" s="33" t="str">
         <f>Lookup!C$6</f>
-        <v>https://ourflightplan.web.boeing.com/vision.shtml</v>
+        <v>https://cmesbca.web.boeing.com/</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="33" t="str">
         <f>Lookup!B$6</f>
-        <v>Boeing Vision</v>
+        <v>CMES (Common Manufacturing Execution System)</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>7</v>
@@ -11168,14 +11687,14 @@
       </c>
       <c r="B76" s="33" t="str">
         <f>Lookup!C$7</f>
-        <v>https://boris.web.boeing.com/newboris/</v>
+        <v>https://dmvs6.web.boeing.com/#/Actions</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="33" t="str">
         <f>Lookup!B$7</f>
-        <v>BORIS (Boeing Opportunity, Risk, and Issue System)</v>
+        <v>DMVS (Demand Management Visibility Service)</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>7</v>
@@ -11301,14 +11820,14 @@
       </c>
       <c r="B88" s="33" t="str">
         <f>Lookup!C$8</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>http://helpdesk.web.boeing.com/</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="33" t="str">
         <f>Lookup!B$8</f>
-        <v>Chicken Tracks</v>
+        <v>EHD (Enterprise Help Desk)</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>7</v>
@@ -11434,14 +11953,14 @@
       </c>
       <c r="B100" s="33" t="str">
         <f>Lookup!C$9</f>
-        <v>http://linemoves.ca.boeing.com/</v>
+        <v>http://eitms.web.boeing.com</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="33" t="str">
         <f>Lookup!B$9</f>
-        <v>Chicken Tracks - Everett</v>
+        <v>EITMS (Employee Involvement Team Management System)</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>7</v>
@@ -11567,14 +12086,14 @@
       </c>
       <c r="B112" s="33" t="str">
         <f>Lookup!C$10</f>
-        <v>http://iamboeing.web.boeing.com/index.aspx?com=1&amp;id=162</v>
+        <v>http://etrac.web.boeing.com/etrac</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="33" t="str">
         <f>Lookup!B$10</f>
-        <v>Collective Bargaining Agreement</v>
+        <v>eTRAC- Part Shortages and Exceptions</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>7</v>
@@ -11700,14 +12219,14 @@
       </c>
       <c r="B124" s="33" t="str">
         <f>Lookup!C$11</f>
-        <v>http://imh.ca.boeing.com/OHC%20website/Cranes%20Website/index.html</v>
+        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
       </c>
       <c r="C124" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="33" t="str">
         <f>Lookup!B$11</f>
-        <v>Crane Schedules</v>
+        <v>ETS (Employee Timekeeping System)</v>
       </c>
       <c r="E124" s="29" t="s">
         <v>7</v>
@@ -11833,14 +12352,14 @@
       </c>
       <c r="B136" s="33" t="str">
         <f>Lookup!C$12</f>
-        <v>https://learning.aperianglobal.com</v>
+        <v>http://foodservices.web.boeing.com/PS/everett.asp</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="33" t="str">
         <f>Lookup!B$12</f>
-        <v>Developing Your Global Mindset</v>
+        <v>Food Services</v>
       </c>
       <c r="E136" s="29" t="s">
         <v>7</v>
@@ -11966,14 +12485,14 @@
       </c>
       <c r="B148" s="33" t="str">
         <f>Lookup!C$13</f>
-        <v>https://dmvs6.web.boeing.com/#/Actions</v>
+        <v>https://insite.web.boeing.com/culture/index.do</v>
       </c>
       <c r="C148" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="33" t="str">
         <f>Lookup!B$13</f>
-        <v>DMVS (Demand Management Visibility Service)</v>
+        <v>InSite</v>
       </c>
       <c r="E148" s="29" t="s">
         <v>7</v>
@@ -12099,14 +12618,14 @@
       </c>
       <c r="B160" s="33" t="str">
         <f>Lookup!C$14</f>
-        <v>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</v>
+        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
       </c>
       <c r="C160" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D160" s="33" t="str">
         <f>Lookup!B$14</f>
-        <v>EAC (Estimate at Completion)</v>
+        <v>Library Resources</v>
       </c>
       <c r="E160" s="29" t="s">
         <v>7</v>
@@ -12232,14 +12751,14 @@
       </c>
       <c r="B172" s="33" t="str">
         <f>Lookup!C$15</f>
-        <v>http://ethics.whq.boeing.com/report/index.html</v>
+        <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
       </c>
       <c r="C172" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D172" s="33" t="str">
         <f>Lookup!B$15</f>
-        <v>Ethics Reports</v>
+        <v>MARS (My Account Request System)</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>7</v>
@@ -12365,14 +12884,14 @@
       </c>
       <c r="B184" s="33" t="str">
         <f>Lookup!C$16</f>
-        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
+        <v>https://wp-myb-portal.web.boeing.com/myb/ta/TotalAccess</v>
       </c>
       <c r="C184" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D184" s="33" t="str">
         <f>Lookup!B$16</f>
-        <v>ETS (Employee Timekeeping System)</v>
+        <v xml:space="preserve">My Learning </v>
       </c>
       <c r="E184" s="29" t="s">
         <v>7</v>
@@ -12498,14 +13017,14 @@
       </c>
       <c r="B196" s="33" t="str">
         <f>Lookup!C$17</f>
-        <v>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</v>
+        <v>http://pims-v4.web.boeing.com/</v>
       </c>
       <c r="C196" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D196" s="33" t="str">
         <f>Lookup!B$17</f>
-        <v>Finance and Budget Terminology</v>
+        <v>PIMS (Program Information Management System)</v>
       </c>
       <c r="E196" s="29" t="s">
         <v>7</v>
@@ -12631,14 +13150,14 @@
       </c>
       <c r="B208" s="33" t="str">
         <f>Lookup!C$18</f>
-        <v>http://ewh2002-nw.web.boeing.com/fireview/Fireview/WebPages/StdFiringOrders.aspx</v>
+        <v>&lt;&lt;Accordion&gt;&gt;</v>
       </c>
       <c r="C208" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D208" s="33" t="str">
         <f>Lookup!B$18</f>
-        <v>Firing Order</v>
+        <v>Policies, Procedures, Processes and Specifications</v>
       </c>
       <c r="E208" s="29" t="s">
         <v>7</v>
@@ -12764,14 +13283,14 @@
       </c>
       <c r="B220" s="33" t="str">
         <f>Lookup!C$19</f>
-        <v>http://ltd.web.boeing.com/ltd_careerdev/strengthenskills/budget/Budget_index.html#</v>
+        <v>https://redars.web.boeing.com/</v>
       </c>
       <c r="C220" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D220" s="33" t="str">
         <f>Lookup!B$19</f>
-        <v>LRBP (Long Range Business Plan)</v>
+        <v>REDARS/EID</v>
       </c>
       <c r="E220" s="29" t="s">
         <v>7</v>
@@ -12897,14 +13416,14 @@
       </c>
       <c r="B232" s="33" t="str">
         <f>Lookup!C$20</f>
-        <v>http://alki.ca.boeing.com/finance/fin&amp;bus/payroll&amp;tk.html</v>
+        <v>http://satsystem.web.boeing.com/</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D232" s="33" t="str">
         <f>Lookup!B$20</f>
-        <v>Payroll</v>
+        <v>SAT (Shipside Action Tracker)</v>
       </c>
       <c r="E232" s="29" t="s">
         <v>7</v>
@@ -13030,14 +13549,14 @@
       </c>
       <c r="B244" s="33" t="str">
         <f>Lookup!C$21</f>
-        <v>http://hr1.web.boeing.com/documents/ltmoe/B3_Lvl5_Attachment.ppt</v>
+        <v>http://www.boeing.com/company/tours/</v>
       </c>
       <c r="C244" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D244" s="33" t="str">
         <f>Lookup!B$21</f>
-        <v>Stakeholder Engagement</v>
+        <v>Site Tours</v>
       </c>
       <c r="E244" s="29" t="s">
         <v>7</v>
@@ -13163,14 +13682,14 @@
       </c>
       <c r="B256" s="33" t="str">
         <f>Lookup!C$22</f>
-        <v>https://my.boeing.com/portal/server.pt?space=CommunityPage&amp;cached=true&amp;parentname=CommunityPage&amp;parentid=2&amp;in_hi_userid=29091&amp;control=SetCommunity&amp;CommunityID=1577&amp;PageID=0</v>
+        <v>http://boeingtravel.web.boeing.com/</v>
       </c>
       <c r="C256" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D256" s="33" t="str">
         <f>Lookup!B$22</f>
-        <v>Team Leader</v>
+        <v>Travel @ Boeing</v>
       </c>
       <c r="E256" s="29" t="s">
         <v>7</v>
@@ -13296,14 +13815,14 @@
       </c>
       <c r="B268" s="33" t="str">
         <f>Lookup!C$23</f>
-        <v>http://tmcnet.web.boeing.com/</v>
+        <v>https://boeing.webex.com/mw3100/mywebex/default.do?siteurl=boeing</v>
       </c>
       <c r="C268" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D268" s="33" t="str">
         <f>Lookup!B$23</f>
-        <v>TMC (Total Manufacturing Cost)</v>
+        <v xml:space="preserve">Webex </v>
       </c>
       <c r="E268" s="29" t="s">
         <v>7</v>
@@ -13427,16 +13946,16 @@
       <c r="A280" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B280" s="33" t="str">
+      <c r="B280" s="33">
         <f>Lookup!C$24</f>
-        <v>https://wsso-support.web.boeing.com:2016/redirect.html?URL=https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4331</v>
+        <v>0</v>
       </c>
       <c r="C280" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D280" s="33" t="str">
+      <c r="D280" s="33">
         <f>Lookup!B$24</f>
-        <v>Unplanned Outages - Manual Process BPI-4331</v>
+        <v>0</v>
       </c>
       <c r="E280" s="29" t="s">
         <v>7</v>
@@ -13560,16 +14079,16 @@
       <c r="A292" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B292" s="33" t="str">
+      <c r="B292" s="33">
         <f>Lookup!C$25</f>
-        <v>https://onepppm.web.boeing.com/onepppm/app/documents/show?refer=search&amp;id=PRO-7060</v>
+        <v>0</v>
       </c>
       <c r="C292" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D292" s="33" t="str">
+      <c r="D292" s="33">
         <f>Lookup!B$25</f>
-        <v>What are Manager's Roles and Responsibilities</v>
+        <v>0</v>
       </c>
       <c r="E292" s="29" t="s">
         <v>7</v>
@@ -14734,6 +15253,658 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A559FD-CCC3-4E61-81EE-2862331EDF2D}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.33203125" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1ED18805-983B-4C1E-8BEF-2B68BB4563B3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{881EB021-742E-4480-B501-80F9119AFDA0}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E8DAC39B-14B7-4F5A-B032-4B59F5F44DEC}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{C78B9CA8-E327-48A7-9108-A047E0ADE31B}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{EF099962-83CF-4F17-9DFB-9C2E56B04640}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{31D3757D-0123-42F8-9806-4F512177C668}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{B81163B7-8704-4B55-8A01-81C8BA2E768C}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{4921272C-E809-4BB4-A328-74EEBC89E62A}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{B5794738-AAB3-4CF5-987B-D15A2E6C346F}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{254855E2-7360-49FF-B8D5-420C87149D59}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{CFA9967D-D2DB-44FA-8330-6A7C36E5E9F0}"/>
+    <hyperlink ref="B20" r:id="rId12" xr:uid="{24484CD0-E08E-497C-B899-868FAC8F045C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95A742A-0FE9-466D-BF17-68046948EB13}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09D885-2A35-4A4A-96AB-2442850FCA7A}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="10">
+        <v>77519</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="10">
+        <v>77519</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10">
+        <v>78961</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="10">
+        <v>78961</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DCEF17-5155-4641-93F3-38E2C989DB33}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -14934,7 +16105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D183A9F-9016-4D73-9CB0-8CEB1EDD60A5}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -15061,7 +16232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443FEA50-AD07-4FAC-B5D8-A536423DFC1D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -15305,7 +16476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69448B4-7CF2-487A-99A0-7584E7F873C5}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -15512,7 +16683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADC9A1A-EF0A-4450-926F-583116914AE8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -15900,489 +17071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AAB4CD-CACD-45E4-9C41-27987E5B41AB}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4">
-        <v>80423</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>80423</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
-        <v>80433</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>80433</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4">
-        <v>80463</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>80463</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4">
-        <v>80431</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>80431</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4">
-        <v>80432</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="10">
-        <v>80432</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4">
-        <v>80723</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10">
-        <v>80723</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="10">
-        <v>76487</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="10">
-        <v>76487</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10">
-        <v>78961</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="10">
-        <v>78961</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="10">
-        <v>80644</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="10">
-        <v>80644</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC2A872-A16A-4323-B464-27EB94CEE53C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -16584,360 +17273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93EDD-9701-45D0-9497-39EB7C448135}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.44140625" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>80879</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="17">
-        <v>80879</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="1"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="1"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E26E63-8109-4DE4-A022-D115E987BDFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -17096,7 +17432,332 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A4122-4BF1-41FB-BBB0-91C4AEC4AE3F}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="17"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="17">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>24</v>
+      </c>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697E298D-E3B6-4BA9-AF20-BC32A4D16B77}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -17351,343 +18012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A4122-4BF1-41FB-BBB0-91C4AEC4AE3F}">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="17"/>
-    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>2</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>3</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>4</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>6</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>8</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>9</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>11</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>13</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>14</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>15</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>16</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>475</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8E9432-44DE-4E30-95C9-2B82A00E63DA}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -17885,7 +18210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AF3FC1-706E-4539-B51F-A7DE3171945B}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -17925,98 +18250,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3DF135-25CB-409B-A853-E1F0D9C04303}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="10">
-        <v>77519</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="10">
-        <v>77519</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="10">
-        <v>77434</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="10">
-        <v>77434</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18083,9 +18316,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA28EF41-5B92-4AB1-A30B-942CD043FD15}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18095,6 +18330,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -18295,8 +18535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6128076B-D58D-4E98-BC8B-AFEDE8054AD0}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18317,13 +18557,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>27</v>
@@ -18337,13 +18577,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>27</v>
@@ -18356,8 +18596,14 @@
       <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
       <c r="D3" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>466</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>27</v>
@@ -18370,8 +18616,14 @@
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
       <c r="D4" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>467</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>27</v>
@@ -18384,8 +18636,14 @@
       <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>489</v>
+      </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>468</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>27</v>
@@ -18398,8 +18656,14 @@
       <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>490</v>
+      </c>
       <c r="D6" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>469</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>27</v>
@@ -18412,8 +18676,14 @@
       <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>491</v>
+      </c>
       <c r="D7" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>470</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>27</v>
@@ -18426,8 +18696,14 @@
       <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>492</v>
+      </c>
       <c r="D8" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>471</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>27</v>
@@ -18440,8 +18716,14 @@
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>493</v>
+      </c>
       <c r="D9" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>472</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>27</v>
@@ -18454,8 +18736,14 @@
       <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>494</v>
+      </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>473</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>27</v>
@@ -18468,8 +18756,14 @@
       <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>495</v>
+      </c>
       <c r="D11" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>474</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>27</v>
@@ -18482,8 +18776,14 @@
       <c r="B12" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>496</v>
+      </c>
       <c r="D12" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>475</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>27</v>
@@ -18496,8 +18796,14 @@
       <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>497</v>
+      </c>
       <c r="D13" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>476</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>27</v>
@@ -18510,8 +18816,14 @@
       <c r="B14" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>498</v>
+      </c>
       <c r="D14" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>477</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>27</v>
@@ -18524,8 +18836,14 @@
       <c r="B15" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>499</v>
+      </c>
       <c r="D15" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>478</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>27</v>
@@ -18538,8 +18856,14 @@
       <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C16" t="s">
+        <v>500</v>
+      </c>
       <c r="D16" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>479</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>27</v>
@@ -18552,8 +18876,14 @@
       <c r="B17" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>501</v>
+      </c>
       <c r="D17" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>480</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>27</v>
@@ -18566,8 +18896,14 @@
       <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C18" t="s">
+        <v>502</v>
+      </c>
       <c r="D18" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>481</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>27</v>
@@ -18580,8 +18916,14 @@
       <c r="B19" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>503</v>
+      </c>
       <c r="D19" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>482</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>27</v>
@@ -18594,8 +18936,14 @@
       <c r="B20" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>504</v>
+      </c>
       <c r="D20" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>483</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>27</v>
@@ -18608,8 +18956,14 @@
       <c r="B21" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>505</v>
+      </c>
       <c r="D21" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>484</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>27</v>
@@ -19316,7 +19670,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conra\Documents\GitHub\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92DAB0D-9BB6-470B-BBBD-C77E5A34CBA4}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE5DD8-38A0-4E91-AFF8-0E177EA1166B}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6312" windowWidth="10296" windowHeight="0" tabRatio="850" activeTab="2" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="6768" windowWidth="10296" windowHeight="0" tabRatio="850" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accordion_New" sheetId="35" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <sheet name="ToolMan_Direct" sheetId="27" r:id="rId33"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Accordion_New!$A$1:$H$397</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Cleanup!$A$1:$C$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">DevTeam_Train!$A$1:$K$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Quick_Links!$A$1:$H$10</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="524">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -1981,6 +1982,9 @@
   </si>
   <si>
     <t>Travel @ Boeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2065,6 +2069,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2079,7 +2089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2183,6 +2193,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2498,11 +2514,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42396E6-F478-4B75-B1F5-C87D3BA47C18}">
-  <dimension ref="A1:H396"/>
+  <dimension ref="A1:H397"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:H276"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2511,7 +2525,7 @@
     <col min="3" max="3" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="43" customWidth="1"/>
     <col min="5" max="5" width="10" style="43" customWidth="1"/>
-    <col min="6" max="6" width="3.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="17"/>
@@ -2520,4330 +2534,4357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="42">
+      <c r="D2" s="42">
         <f>Lookup!A$1</f>
         <v>1</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B4" s="28" t="str">
+      <c r="B5" s="28" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="44" t="str">
+      <c r="D5" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C1)</f>
         <v>http://termbank.web.boeing.com/#/</v>
       </c>
-      <c r="E4" s="44" t="str">
+      <c r="E5" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",Lookup!A1,"")</f>
         <v/>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="33" t="str">
+      <c r="F5" s="28" t="str">
+        <f>IF(D5="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G5" s="33" t="str">
         <f>Lookup!B$1</f>
         <v>Acronym Search</v>
       </c>
-      <c r="H4" s="29" t="str">
-        <f>IF(D4="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="42">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="42">
         <f>Lookup!A$1</f>
         <v>1</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="G6" s="1" t="s">
+      <c r="E7" s="42"/>
+      <c r="G7" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D12" s="42">
         <f>Lookup!A$1</f>
         <v>1</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="1" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D14" s="42">
         <f>Lookup!A$2</f>
         <v>2</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="28" t="str">
+      <c r="B17" s="28" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D16" s="44" t="str">
+      <c r="D17" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C2)</f>
         <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
       </c>
-      <c r="E16" s="44" t="str">
+      <c r="E17" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;",Lookup!A2,"")</f>
         <v/>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="33" t="str">
+      <c r="F17" s="28" t="str">
+        <f>IF(D17="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G17" s="33" t="str">
         <f>Lookup!B$2</f>
         <v>BCA Security</v>
       </c>
-      <c r="H16" s="29" t="str">
-        <f>IF(D16="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="H17" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="42">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="42">
         <f>Lookup!A$2</f>
         <v>2</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="G18" s="1" t="s">
+      <c r="E19" s="42"/>
+      <c r="G19" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D24" s="42">
         <f>Lookup!A$2</f>
         <v>2</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="1" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D26" s="42">
         <f>Lookup!A$3</f>
         <v>3</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="1" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B28" s="28" t="str">
+      <c r="B29" s="28" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D28" s="44" t="str">
+      <c r="D29" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C3)</f>
         <v xml:space="preserve">http://sitemaps.web.boeing.com/index.asp
 </v>
       </c>
-      <c r="E28" s="44" t="str">
+      <c r="E29" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;",Lookup!A3,"")</f>
         <v/>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="33" t="str">
+      <c r="F29" s="28" t="str">
+        <f>IF(D29="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G29" s="33" t="str">
         <f>Lookup!B$3</f>
         <v>Boeing Maps</v>
       </c>
-      <c r="H28" s="29" t="str">
-        <f>IF(D28="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="H29" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="42">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="42">
         <f>Lookup!A$3</f>
         <v>3</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="G30" s="1" t="s">
+      <c r="E31" s="42"/>
+      <c r="G31" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A34" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D36" s="42">
         <f>Lookup!A$3</f>
         <v>3</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="1" t="s">
+      <c r="E36" s="42"/>
+      <c r="F36" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D38" s="42">
         <f>Lookup!A$4</f>
         <v>4</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="1" t="s">
+      <c r="E38" s="42"/>
+      <c r="F38" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B40" s="28" t="str">
+      <c r="B41" s="28" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D40" s="44" t="str">
+      <c r="D41" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C4)</f>
         <v>https://boris.web.boeing.com/newboris/</v>
       </c>
-      <c r="E40" s="44" t="str">
+      <c r="E41" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;",Lookup!A4,"")</f>
         <v/>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="33" t="str">
+      <c r="F41" s="28" t="str">
+        <f>IF(D41="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G41" s="33" t="str">
         <f>Lookup!B$4</f>
         <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
       </c>
-      <c r="H40" s="29" t="str">
-        <f>IF(D40="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="H41" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="42">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="42">
         <f>Lookup!A$4</f>
         <v>4</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="G42" s="1" t="s">
+      <c r="E43" s="42"/>
+      <c r="G43" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D48" s="42">
         <f>Lookup!A$4</f>
         <v>4</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="1" t="s">
+      <c r="E48" s="42"/>
+      <c r="F48" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D50" s="42">
         <f>Lookup!A$5</f>
         <v>5</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="1" t="s">
+      <c r="E50" s="42"/>
+      <c r="F50" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B52" s="28" t="str">
+      <c r="B53" s="28" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D52" s="44" t="str">
+      <c r="D53" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C5)</f>
         <v>http://carats.ca.boeing.com/Request.asp</v>
       </c>
-      <c r="E52" s="44" t="str">
+      <c r="E53" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",Lookup!A5,"")</f>
         <v/>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="33" t="str">
+      <c r="F53" s="28" t="str">
+        <f>IF(D53="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G53" s="33" t="str">
         <f>Lookup!B$5</f>
         <v>CARATS</v>
       </c>
-      <c r="H52" s="29" t="str">
-        <f>IF(D52="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="H53" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="42">
-        <f>Lookup!A$5</f>
-        <v>5</v>
-      </c>
-      <c r="E54" s="42"/>
-      <c r="G54" s="1" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
+      <c r="D55" s="42">
+        <f>Lookup!A$5</f>
+        <v>5</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="G55" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D59" s="42">
+      <c r="D60" s="42">
         <f>Lookup!A$5</f>
         <v>5</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="1" t="s">
+      <c r="E60" s="42"/>
+      <c r="F60" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D62" s="42">
         <f>Lookup!A$6</f>
         <v>6</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="1" t="s">
+      <c r="E62" s="42"/>
+      <c r="F62" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B64" s="28" t="str">
+      <c r="B65" s="28" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C65" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D64" s="44" t="str">
+      <c r="D65" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C6)</f>
         <v>https://cmesbca.web.boeing.com/</v>
       </c>
-      <c r="E64" s="44" t="str">
+      <c r="E65" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",Lookup!A6,"")</f>
         <v/>
       </c>
-      <c r="F64" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="33" t="str">
+      <c r="F65" s="28" t="str">
+        <f>IF(D65="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G65" s="33" t="str">
         <f>Lookup!B$6</f>
         <v>CMES (Common Manufacturing Execution System)</v>
       </c>
-      <c r="H64" s="29" t="str">
-        <f>IF(D64="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="H65" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="42">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="42">
         <f>Lookup!A$6</f>
         <v>6</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="G66" s="1" t="s">
+      <c r="E67" s="42"/>
+      <c r="G67" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D71" s="42">
+      <c r="D72" s="42">
         <f>Lookup!A$6</f>
         <v>6</v>
       </c>
-      <c r="E71" s="42"/>
-      <c r="F71" s="1" t="s">
+      <c r="E72" s="42"/>
+      <c r="F72" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="17" t="s">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D73" s="42">
+      <c r="D74" s="42">
         <f>Lookup!A$7</f>
         <v>7</v>
       </c>
-      <c r="E73" s="42"/>
-      <c r="F73" s="1" t="s">
+      <c r="E74" s="42"/>
+      <c r="F74" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B76" s="28" t="str">
+      <c r="B77" s="28" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C77" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D76" s="44" t="str">
+      <c r="D77" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C7)</f>
         <v>https://dmvs6.web.boeing.com/#/Actions</v>
       </c>
-      <c r="E76" s="44" t="str">
+      <c r="E77" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",Lookup!A7,"")</f>
         <v/>
       </c>
-      <c r="F76" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="33" t="str">
+      <c r="F77" s="28" t="str">
+        <f>IF(D77="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G77" s="33" t="str">
         <f>Lookup!B$7</f>
         <v>DMVS (Demand Management Visibility Service)</v>
       </c>
-      <c r="H76" s="29" t="str">
-        <f>IF(D76="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="H77" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="42">
-        <f>Lookup!A$7</f>
-        <v>7</v>
-      </c>
-      <c r="E78" s="42"/>
-      <c r="G78" s="1" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
+      <c r="D79" s="42">
+        <f>Lookup!A$7</f>
+        <v>7</v>
+      </c>
+      <c r="E79" s="42"/>
+      <c r="G79" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D84" s="42">
         <f>Lookup!A$7</f>
         <v>7</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="1" t="s">
+      <c r="E84" s="42"/>
+      <c r="F84" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D85" s="42">
+      <c r="D86" s="42">
         <f>Lookup!A$8</f>
         <v>8</v>
       </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="1" t="s">
+      <c r="E86" s="42"/>
+      <c r="F86" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B88" s="28" t="str">
+      <c r="B89" s="28" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C89" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D88" s="44" t="str">
+      <c r="D89" s="44" t="str">
         <f>Lookup!C$8</f>
         <v>http://helpdesk.web.boeing.com/</v>
       </c>
-      <c r="E88" s="44" t="str">
+      <c r="E89" s="44" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",Lookup!A8,"")</f>
         <v/>
       </c>
-      <c r="F88" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="33" t="str">
+      <c r="F89" s="28" t="str">
+        <f>IF(D89="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G89" s="33" t="str">
         <f>Lookup!B$8</f>
         <v>EHD (Enterprise Help Desk)</v>
       </c>
-      <c r="H88" s="29" t="str">
-        <f>IF(D88="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="H89" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="42">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="42">
         <f>Lookup!A$8</f>
         <v>8</v>
       </c>
-      <c r="E90" s="42"/>
-      <c r="G90" s="1" t="s">
+      <c r="E91" s="42"/>
+      <c r="G91" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A94" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D95" s="42">
+      <c r="D96" s="42">
         <f>Lookup!A$8</f>
         <v>8</v>
       </c>
-      <c r="E95" s="42"/>
-      <c r="F95" s="1" t="s">
+      <c r="E96" s="42"/>
+      <c r="F96" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="30" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D97" s="42">
+      <c r="D98" s="42">
         <f>Lookup!A$9</f>
         <v>9</v>
       </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="1" t="s">
+      <c r="E98" s="42"/>
+      <c r="F98" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B100" s="28" t="str">
+      <c r="B101" s="28" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="C101" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D100" s="44" t="str">
+      <c r="D101" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C9)</f>
         <v>http://eitms.web.boeing.com</v>
       </c>
-      <c r="E100" s="44" t="str">
+      <c r="E101" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",Lookup!A9,"")</f>
         <v/>
       </c>
-      <c r="F100" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="33" t="str">
+      <c r="F101" s="28" t="str">
+        <f>IF(D101="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G101" s="33" t="str">
         <f>Lookup!B$9</f>
         <v>EITMS (Employee Involvement Team Management System)</v>
       </c>
-      <c r="H100" s="29" t="str">
-        <f>IF(D100="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="H101" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="42">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="42">
         <f>Lookup!A$9</f>
         <v>9</v>
       </c>
-      <c r="E102" s="42"/>
-      <c r="G102" s="1" t="s">
+      <c r="E103" s="42"/>
+      <c r="G103" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A106" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D107" s="42">
+      <c r="D108" s="42">
         <f>Lookup!A$9</f>
         <v>9</v>
       </c>
-      <c r="E107" s="42"/>
-      <c r="F107" s="1" t="s">
+      <c r="E108" s="42"/>
+      <c r="F108" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="30" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="17" t="s">
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D109" s="42">
+      <c r="D110" s="42">
         <f>Lookup!A$10</f>
         <v>10</v>
       </c>
-      <c r="E109" s="42"/>
-      <c r="F109" s="1" t="s">
+      <c r="E110" s="42"/>
+      <c r="F110" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B112" s="28" t="str">
+      <c r="B113" s="28" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C113" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D112" s="44" t="str">
+      <c r="D113" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C10)</f>
         <v>http://etrac.web.boeing.com/etrac</v>
       </c>
-      <c r="E112" s="44" t="str">
+      <c r="E113" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",Lookup!A10,"")</f>
         <v/>
       </c>
-      <c r="F112" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="33" t="str">
+      <c r="F113" s="28" t="str">
+        <f>IF(D113="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G113" s="33" t="str">
         <f>Lookup!B$10</f>
         <v>eTRAC- Part Shortages and Exceptions</v>
       </c>
-      <c r="H112" s="29" t="str">
-        <f>IF(D112="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="H113" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="42">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="42">
         <f>Lookup!A$10</f>
         <v>10</v>
       </c>
-      <c r="E114" s="42"/>
-      <c r="G114" s="1" t="s">
+      <c r="E115" s="42"/>
+      <c r="G115" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A118" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D119" s="42">
+      <c r="D120" s="42">
         <f>Lookup!A$10</f>
         <v>10</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="F119" s="1" t="s">
+      <c r="E120" s="42"/>
+      <c r="F120" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="30" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="17" t="s">
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D121" s="42">
+      <c r="D122" s="42">
         <f>Lookup!A$11</f>
         <v>11</v>
       </c>
-      <c r="E121" s="42"/>
-      <c r="F121" s="1" t="s">
+      <c r="E122" s="42"/>
+      <c r="F122" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B124" s="28" t="str">
+      <c r="B125" s="28" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C125" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D124" s="44" t="str">
+      <c r="D125" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C11)</f>
         <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
       </c>
-      <c r="E124" s="44" t="str">
+      <c r="E125" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",Lookup!A11,"")</f>
         <v/>
       </c>
-      <c r="F124" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="33" t="str">
+      <c r="F125" s="28" t="str">
+        <f>IF(D125="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G125" s="33" t="str">
         <f>Lookup!B$11</f>
         <v>ETS (Employee Timekeeping System)</v>
       </c>
-      <c r="H124" s="29" t="str">
-        <f>IF(D124="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="H125" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="42">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="42">
         <f>Lookup!A$11</f>
         <v>11</v>
       </c>
-      <c r="E126" s="42"/>
-      <c r="G126" s="1" t="s">
+      <c r="E127" s="42"/>
+      <c r="G127" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A130" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D131" s="42">
+      <c r="D132" s="42">
         <f>Lookup!A$11</f>
         <v>11</v>
       </c>
-      <c r="E131" s="42"/>
-      <c r="F131" s="1" t="s">
+      <c r="E132" s="42"/>
+      <c r="F132" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="30" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="17" t="s">
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D133" s="42">
+      <c r="D134" s="42">
         <f>Lookup!A$12</f>
         <v>12</v>
       </c>
-      <c r="E133" s="42"/>
-      <c r="F133" s="1" t="s">
+      <c r="E134" s="42"/>
+      <c r="F134" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B136" s="28" t="str">
+      <c r="B137" s="28" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C136" s="28" t="s">
+      <c r="C137" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D136" s="44" t="str">
+      <c r="D137" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C12)</f>
         <v>http://foodservices.web.boeing.com/PS/everett.asp</v>
       </c>
-      <c r="E136" s="44" t="str">
+      <c r="E137" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",Lookup!A12,"")</f>
         <v/>
       </c>
-      <c r="F136" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" s="33" t="str">
+      <c r="F137" s="28" t="str">
+        <f>IF(D137="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G137" s="33" t="str">
         <f>Lookup!B$12</f>
         <v>Food Services</v>
       </c>
-      <c r="H136" s="29" t="str">
-        <f>IF(D136="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="H137" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="42">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="42">
         <f>Lookup!A$12</f>
         <v>12</v>
       </c>
-      <c r="E138" s="42"/>
-      <c r="G138" s="1" t="s">
+      <c r="E139" s="42"/>
+      <c r="G139" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A142" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D143" s="42">
+      <c r="D144" s="42">
         <f>Lookup!A$12</f>
         <v>12</v>
       </c>
-      <c r="E143" s="42"/>
-      <c r="F143" s="1" t="s">
+      <c r="E144" s="42"/>
+      <c r="F144" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="30" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="31"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D145" s="42">
+      <c r="D146" s="42">
         <f>Lookup!A$13</f>
         <v>13</v>
       </c>
-      <c r="E145" s="42"/>
-      <c r="F145" s="1" t="s">
+      <c r="E146" s="42"/>
+      <c r="F146" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B148" s="28" t="str">
+      <c r="B149" s="28" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C148" s="28" t="s">
+      <c r="C149" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D148" s="44" t="str">
+      <c r="D149" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C13)</f>
         <v>https://insite.web.boeing.com/culture/index.do</v>
       </c>
-      <c r="E148" s="44" t="str">
+      <c r="E149" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",Lookup!A13,"")</f>
         <v/>
       </c>
-      <c r="F148" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="33" t="str">
+      <c r="F149" s="28" t="str">
+        <f>IF(D149="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G149" s="33" t="str">
         <f>Lookup!B$13</f>
         <v>InSite</v>
       </c>
-      <c r="H148" s="29" t="str">
-        <f>IF(D148="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="H149" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="42">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="42">
         <f>Lookup!A$13</f>
         <v>13</v>
       </c>
-      <c r="E150" s="42"/>
-      <c r="G150" s="1" t="s">
+      <c r="E151" s="42"/>
+      <c r="G151" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A154" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D155" s="42">
+      <c r="D156" s="42">
         <f>Lookup!A$13</f>
         <v>13</v>
       </c>
-      <c r="E155" s="42"/>
-      <c r="F155" s="1" t="s">
+      <c r="E156" s="42"/>
+      <c r="F156" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="30" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="45"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="31"/>
-      <c r="H156" s="31"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D157" s="42">
+      <c r="D158" s="42">
         <f>Lookup!A$14</f>
         <v>14</v>
       </c>
-      <c r="E157" s="42"/>
-      <c r="F157" s="1" t="s">
+      <c r="E158" s="42"/>
+      <c r="F158" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B160" s="28" t="str">
+      <c r="B161" s="28" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C161" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D160" s="44" t="str">
+      <c r="D161" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C14)</f>
         <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
       </c>
-      <c r="E160" s="44" t="str">
+      <c r="E161" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",Lookup!A14,"")</f>
         <v/>
       </c>
-      <c r="F160" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G160" s="33" t="str">
+      <c r="F161" s="28" t="str">
+        <f>IF(D161="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G161" s="33" t="str">
         <f>Lookup!B$14</f>
         <v>Library Resources</v>
       </c>
-      <c r="H160" s="29" t="str">
-        <f>IF(D160="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="H161" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="42">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="42">
         <f>Lookup!A$14</f>
         <v>14</v>
       </c>
-      <c r="E162" s="42"/>
-      <c r="G162" s="1" t="s">
+      <c r="E163" s="42"/>
+      <c r="G163" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A166" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D167" s="42">
+      <c r="D168" s="42">
         <f>Lookup!A$14</f>
         <v>14</v>
       </c>
-      <c r="E167" s="42"/>
-      <c r="F167" s="1" t="s">
+      <c r="E168" s="42"/>
+      <c r="F168" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="30" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
+      <c r="H169" s="31"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D169" s="42">
+      <c r="D170" s="42">
         <f>Lookup!A$15</f>
         <v>15</v>
       </c>
-      <c r="E169" s="42"/>
-      <c r="F169" s="1" t="s">
+      <c r="E170" s="42"/>
+      <c r="F170" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="28" t="s">
+      <c r="A172" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B172" s="28" t="str">
+      <c r="B173" s="28" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C172" s="28" t="s">
+      <c r="C173" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D172" s="44" t="str">
+      <c r="D173" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C15)</f>
         <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
       </c>
-      <c r="E172" s="44" t="str">
+      <c r="E173" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",Lookup!A15,"")</f>
         <v/>
       </c>
-      <c r="F172" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="33" t="str">
+      <c r="F173" s="28" t="str">
+        <f>IF(D173="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G173" s="33" t="str">
         <f>Lookup!B$15</f>
         <v>MARS (My Account Request System)</v>
       </c>
-      <c r="H172" s="29" t="str">
-        <f>IF(D172="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="H173" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="42">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="42">
         <f>Lookup!A$15</f>
         <v>15</v>
       </c>
-      <c r="E174" s="42"/>
-      <c r="G174" s="1" t="s">
+      <c r="E175" s="42"/>
+      <c r="G175" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A178" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D179" s="42">
+      <c r="D180" s="42">
         <f>Lookup!A$15</f>
         <v>15</v>
       </c>
-      <c r="E179" s="42"/>
-      <c r="F179" s="1" t="s">
+      <c r="E180" s="42"/>
+      <c r="F180" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="30" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B180" s="30"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="45"/>
-      <c r="E180" s="45"/>
-      <c r="F180" s="31"/>
-      <c r="G180" s="31"/>
-      <c r="H180" s="31"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="17" t="s">
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D181" s="42">
+      <c r="D182" s="42">
         <f>Lookup!A$16</f>
         <v>16</v>
       </c>
-      <c r="E181" s="42"/>
-      <c r="F181" s="1" t="s">
+      <c r="E182" s="42"/>
+      <c r="F182" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="28" t="s">
+      <c r="A184" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B184" s="28" t="str">
+      <c r="B185" s="28" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C184" s="28" t="s">
+      <c r="C185" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D184" s="44" t="str">
+      <c r="D185" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C16)</f>
         <v>https://wp-myb-portal.web.boeing.com/myb/ta/TotalAccess</v>
       </c>
-      <c r="E184" s="44" t="str">
+      <c r="E185" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",Lookup!A16,"")</f>
         <v/>
       </c>
-      <c r="F184" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G184" s="33" t="str">
+      <c r="F185" s="28" t="str">
+        <f>IF(D185="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G185" s="33" t="str">
         <f>Lookup!B$16</f>
         <v xml:space="preserve">My Learning </v>
       </c>
-      <c r="H184" s="29" t="str">
-        <f>IF(D184="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="H185" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="42">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="42">
         <f>Lookup!A$16</f>
         <v>16</v>
       </c>
-      <c r="E186" s="42"/>
-      <c r="G186" s="1" t="s">
+      <c r="E187" s="42"/>
+      <c r="G187" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A190" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="42">
+      <c r="D192" s="42">
         <f>Lookup!A$16</f>
         <v>16</v>
       </c>
-      <c r="E191" s="42"/>
-      <c r="F191" s="1" t="s">
+      <c r="E192" s="42"/>
+      <c r="F192" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="30" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B192" s="30"/>
-      <c r="C192" s="30"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="45"/>
-      <c r="F192" s="31"/>
-      <c r="G192" s="31"/>
-      <c r="H192" s="31"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D193" s="42">
+      <c r="D194" s="42">
         <f>Lookup!A$17</f>
         <v>17</v>
       </c>
-      <c r="E193" s="42"/>
-      <c r="F193" s="1" t="s">
+      <c r="E194" s="42"/>
+      <c r="F194" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="28" t="s">
+      <c r="A196" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B196" s="28" t="str">
+      <c r="B197" s="28" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C196" s="28" t="s">
+      <c r="C197" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D196" s="44" t="str">
+      <c r="D197" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C17)</f>
         <v>http://pims-v4.web.boeing.com/</v>
       </c>
-      <c r="E196" s="44" t="str">
+      <c r="E197" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",Lookup!A17,"")</f>
         <v/>
       </c>
-      <c r="F196" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G196" s="33" t="str">
+      <c r="F197" s="28" t="str">
+        <f>IF(D197="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G197" s="33" t="str">
         <f>Lookup!B$17</f>
         <v>PIMS (Program Information Management System)</v>
       </c>
-      <c r="H196" s="29" t="str">
-        <f>IF(D196="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="H197" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="42">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="42">
         <f>Lookup!A$17</f>
         <v>17</v>
       </c>
-      <c r="E198" s="42"/>
-      <c r="G198" s="1" t="s">
+      <c r="E199" s="42"/>
+      <c r="G199" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A202" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D203" s="42">
+      <c r="D204" s="42">
         <f>Lookup!A$17</f>
         <v>17</v>
       </c>
-      <c r="E203" s="42"/>
-      <c r="F203" s="1" t="s">
+      <c r="E204" s="42"/>
+      <c r="F204" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="30" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B204" s="30"/>
-      <c r="C204" s="30"/>
-      <c r="D204" s="45"/>
-      <c r="E204" s="45"/>
-      <c r="F204" s="31"/>
-      <c r="G204" s="31"/>
-      <c r="H204" s="31"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="17" t="s">
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="45"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="31"/>
+      <c r="H205" s="31"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D205" s="42">
+      <c r="D206" s="42">
         <f>Lookup!A$18</f>
         <v>18</v>
       </c>
-      <c r="E205" s="42"/>
-      <c r="F205" s="1" t="s">
+      <c r="E206" s="42"/>
+      <c r="F206" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B208" s="28" t="str">
+      <c r="B209" s="28" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v>data-toggle="collapse" data-parent="#accordion"</v>
       </c>
-      <c r="C208" s="28" t="s">
+      <c r="C209" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D208" s="44" t="str">
+      <c r="D209" s="44" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C18)</f>
         <v>#collapse</v>
       </c>
-      <c r="E208" s="44">
+      <c r="E209" s="44">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",Lookup!A18,"")</f>
         <v>18</v>
       </c>
-      <c r="F208" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G208" s="33" t="str">
+      <c r="F209" s="28" t="str">
+        <f>IF(D209="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </v>
+      </c>
+      <c r="G209" s="33" t="str">
         <f>Lookup!B$18</f>
         <v>Policies, Procedures, Processes and Specifications</v>
       </c>
-      <c r="H208" s="29" t="str">
-        <f>IF(D208="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v xml:space="preserve">  &lt;span class="caret"&gt;&lt;/span&gt;&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="H209" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="42">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="42">
         <f>Lookup!A$18</f>
         <v>18</v>
       </c>
-      <c r="E210" s="42"/>
-      <c r="G210" s="1" t="s">
+      <c r="E211" s="42"/>
+      <c r="G211" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A214" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D215" s="42">
+      <c r="D216" s="42">
         <f>Lookup!A$18</f>
         <v>18</v>
       </c>
-      <c r="E215" s="42"/>
-      <c r="F215" s="1" t="s">
+      <c r="E216" s="42"/>
+      <c r="F216" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="30" t="s">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B216" s="30"/>
-      <c r="C216" s="30"/>
-      <c r="D216" s="45"/>
-      <c r="E216" s="45"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="31"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="17" t="s">
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D217" s="42">
+      <c r="D218" s="42">
         <f>Lookup!A$19</f>
         <v>19</v>
       </c>
-      <c r="E217" s="42"/>
-      <c r="F217" s="1" t="s">
+      <c r="E218" s="42"/>
+      <c r="F218" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="28" t="s">
+      <c r="A220" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B220" s="28" t="str">
+      <c r="B221" s="28" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C220" s="28" t="s">
+      <c r="C221" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D220" s="44" t="str">
+      <c r="D221" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C19)</f>
         <v>https://redars.web.boeing.com/</v>
       </c>
-      <c r="E220" s="44" t="str">
+      <c r="E221" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",Lookup!A19,"")</f>
         <v/>
       </c>
-      <c r="F220" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G220" s="33" t="str">
+      <c r="F221" s="28" t="str">
+        <f>IF(D221="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G221" s="33" t="str">
         <f>Lookup!B$19</f>
         <v>REDARS/EID</v>
       </c>
-      <c r="H220" s="29" t="str">
-        <f>IF(D220="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="H221" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="42">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="42">
         <f>Lookup!A$19</f>
         <v>19</v>
       </c>
-      <c r="E222" s="42"/>
-      <c r="G222" s="1" t="s">
+      <c r="E223" s="42"/>
+      <c r="G223" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A226" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D227" s="42">
+      <c r="D228" s="42">
         <f>Lookup!A$19</f>
         <v>19</v>
       </c>
-      <c r="E227" s="42"/>
-      <c r="F227" s="1" t="s">
+      <c r="E228" s="42"/>
+      <c r="F228" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="30" t="s">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B228" s="30"/>
-      <c r="C228" s="30"/>
-      <c r="D228" s="45"/>
-      <c r="E228" s="45"/>
-      <c r="F228" s="31"/>
-      <c r="G228" s="31"/>
-      <c r="H228" s="31"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="17" t="s">
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="31"/>
+      <c r="G229" s="31"/>
+      <c r="H229" s="31"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D229" s="42">
+      <c r="D230" s="42">
         <f>Lookup!A$20</f>
         <v>20</v>
       </c>
-      <c r="E229" s="42"/>
-      <c r="F229" s="1" t="s">
+      <c r="E230" s="42"/>
+      <c r="F230" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="28" t="s">
+      <c r="A232" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B232" s="28" t="str">
+      <c r="B233" s="28" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C232" s="28" t="s">
+      <c r="C233" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D232" s="44" t="str">
+      <c r="D233" s="44" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C20)</f>
         <v>http://satsystem.web.boeing.com/</v>
       </c>
-      <c r="E232" s="44" t="str">
+      <c r="E233" s="44" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;",Lookup!A20,"")</f>
         <v/>
       </c>
-      <c r="F232" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" s="33" t="str">
+      <c r="F233" s="28" t="str">
+        <f>IF(D233="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G233" s="33" t="str">
         <f>Lookup!B$20</f>
         <v>SAT (Shipside Action Tracker)</v>
       </c>
-      <c r="H232" s="29" t="str">
-        <f>IF(D232="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="H233" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="42">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="42">
         <f>Lookup!A$20</f>
         <v>20</v>
       </c>
-      <c r="E234" s="42"/>
-      <c r="G234" s="1" t="s">
+      <c r="E235" s="42"/>
+      <c r="G235" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A238" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D239" s="42">
+      <c r="D240" s="42">
         <f>Lookup!A$20</f>
         <v>20</v>
       </c>
-      <c r="E239" s="42"/>
-      <c r="F239" s="1" t="s">
+      <c r="E240" s="42"/>
+      <c r="F240" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="30" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B240" s="30"/>
-      <c r="C240" s="30"/>
-      <c r="D240" s="45"/>
-      <c r="E240" s="45"/>
-      <c r="F240" s="31"/>
-      <c r="G240" s="31"/>
-      <c r="H240" s="31"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="17" t="s">
+      <c r="B241" s="30"/>
+      <c r="C241" s="30"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="31"/>
+      <c r="G241" s="31"/>
+      <c r="H241" s="31"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D241" s="42">
+      <c r="D242" s="42">
         <f>Lookup!A$21</f>
         <v>21</v>
       </c>
-      <c r="E241" s="42"/>
-      <c r="F241" s="1" t="s">
+      <c r="E242" s="42"/>
+      <c r="F242" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="28" t="s">
+      <c r="A244" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B244" s="28" t="str">
+      <c r="B245" s="28" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C244" s="28" t="s">
+      <c r="C245" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D244" s="44" t="str">
+      <c r="D245" s="44" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C21)</f>
         <v>http://www.boeing.com/company/tours/</v>
       </c>
-      <c r="E244" s="44" t="str">
+      <c r="E245" s="44" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;",Lookup!A21,"")</f>
         <v/>
       </c>
-      <c r="F244" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G244" s="33" t="str">
+      <c r="F245" s="28" t="str">
+        <f>IF(D245="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G245" s="33" t="str">
         <f>Lookup!B$21</f>
         <v>Site Tours</v>
       </c>
-      <c r="H244" s="29" t="str">
-        <f>IF(D244="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
+      <c r="H245" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
-      <c r="D246" s="42">
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="42">
         <f>Lookup!A$21</f>
         <v>21</v>
       </c>
-      <c r="E246" s="42"/>
-      <c r="G246" s="1" t="s">
+      <c r="E247" s="42"/>
+      <c r="G247" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A250" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D251" s="42">
+      <c r="D252" s="42">
         <f>Lookup!A$21</f>
         <v>21</v>
       </c>
-      <c r="E251" s="42"/>
-      <c r="F251" s="1" t="s">
+      <c r="E252" s="42"/>
+      <c r="F252" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="30" t="s">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B252" s="30"/>
-      <c r="C252" s="30"/>
-      <c r="D252" s="45"/>
-      <c r="E252" s="45"/>
-      <c r="F252" s="31"/>
-      <c r="G252" s="31"/>
-      <c r="H252" s="31"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="17" t="s">
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
+      <c r="D253" s="45"/>
+      <c r="E253" s="45"/>
+      <c r="F253" s="31"/>
+      <c r="G253" s="31"/>
+      <c r="H253" s="31"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D253" s="42">
+      <c r="D254" s="42">
         <f>Lookup!A$22</f>
         <v>22</v>
       </c>
-      <c r="E253" s="42"/>
-      <c r="F253" s="1" t="s">
+      <c r="E254" s="42"/>
+      <c r="F254" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A256" s="28" t="s">
+      <c r="A256" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B256" s="28" t="str">
+      <c r="B257" s="28" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C256" s="28" t="s">
+      <c r="C257" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D256" s="44" t="str">
+      <c r="D257" s="44" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C22)</f>
         <v>http://boeingtravel.web.boeing.com/</v>
       </c>
-      <c r="E256" s="44" t="str">
+      <c r="E257" s="44" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;",Lookup!A22,"")</f>
         <v/>
       </c>
-      <c r="F256" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G256" s="33" t="str">
+      <c r="F257" s="28" t="str">
+        <f>IF(D257="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G257" s="33" t="str">
         <f>Lookup!B$22</f>
         <v>Travel @ Boeing</v>
       </c>
-      <c r="H256" s="29" t="str">
-        <f>IF(D256="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="H257" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="42">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="42">
         <f>Lookup!A$22</f>
         <v>22</v>
       </c>
-      <c r="E258" s="42"/>
-      <c r="G258" s="1" t="s">
+      <c r="E259" s="42"/>
+      <c r="G259" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A262" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D263" s="42">
+      <c r="D264" s="42">
         <f>Lookup!A$22</f>
         <v>22</v>
       </c>
-      <c r="E263" s="42"/>
-      <c r="F263" s="1" t="s">
+      <c r="E264" s="42"/>
+      <c r="F264" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" s="30" t="s">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B264" s="30"/>
-      <c r="C264" s="30"/>
-      <c r="D264" s="45"/>
-      <c r="E264" s="45"/>
-      <c r="F264" s="31"/>
-      <c r="G264" s="31"/>
-      <c r="H264" s="31"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" s="17" t="s">
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="45"/>
+      <c r="E265" s="45"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="31"/>
+      <c r="H265" s="31"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D265" s="42">
+      <c r="D266" s="42">
         <f>Lookup!A$23</f>
         <v>23</v>
       </c>
-      <c r="E265" s="42"/>
-      <c r="F265" s="1" t="s">
+      <c r="E266" s="42"/>
+      <c r="F266" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="28" t="s">
+      <c r="A268" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B268" s="28" t="str">
+      <c r="B269" s="28" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C268" s="28" t="s">
+      <c r="C269" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D268" s="44" t="str">
+      <c r="D269" s="44" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C23)</f>
         <v>https://boeing.webex.com/mw3100/mywebex/default.do?siteurl=boeing</v>
       </c>
-      <c r="E268" s="44" t="str">
+      <c r="E269" s="44" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;",Lookup!A23,"")</f>
         <v/>
       </c>
-      <c r="F268" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G268" s="33" t="str">
+      <c r="F269" s="28" t="str">
+        <f>IF(D269="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G269" s="33" t="str">
         <f>Lookup!B$23</f>
         <v xml:space="preserve">Webex </v>
       </c>
-      <c r="H268" s="29" t="str">
-        <f>IF(D268="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="H269" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
-      <c r="D270" s="42">
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="42">
         <f>Lookup!A$23</f>
         <v>23</v>
       </c>
-      <c r="E270" s="42"/>
-      <c r="G270" s="1" t="s">
+      <c r="E271" s="42"/>
+      <c r="G271" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A274" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D275" s="42">
+      <c r="D276" s="42">
         <f>Lookup!A$23</f>
         <v>23</v>
       </c>
-      <c r="E275" s="42"/>
-      <c r="F275" s="1" t="s">
+      <c r="E276" s="42"/>
+      <c r="F276" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="30" t="s">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B276" s="30"/>
-      <c r="C276" s="30"/>
-      <c r="D276" s="45"/>
-      <c r="E276" s="45"/>
-      <c r="F276" s="31"/>
-      <c r="G276" s="31"/>
-      <c r="H276" s="31"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="17" t="s">
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="45"/>
+      <c r="E277" s="45"/>
+      <c r="F277" s="31"/>
+      <c r="G277" s="31"/>
+      <c r="H277" s="31"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D277" s="42">
+      <c r="D278" s="42">
         <f>Lookup!A$24</f>
         <v>24</v>
       </c>
-      <c r="E277" s="42"/>
-      <c r="F277" s="1" t="s">
+      <c r="E278" s="42"/>
+      <c r="F278" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="28" t="s">
+      <c r="A280" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B280" s="28" t="str">
+      <c r="B281" s="28" t="str">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C280" s="28" t="s">
+      <c r="C281" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D280" s="44">
+      <c r="D281" s="44">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C24)</f>
         <v>0</v>
       </c>
-      <c r="E280" s="44" t="str">
+      <c r="E281" s="44" t="str">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;",Lookup!A24,"")</f>
         <v/>
       </c>
-      <c r="F280" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G280" s="33">
+      <c r="F281" s="28" t="str">
+        <f>IF(D281="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G281" s="33">
         <f>Lookup!B$24</f>
         <v>0</v>
       </c>
-      <c r="H280" s="29" t="str">
-        <f>IF(D280="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
+      <c r="H281" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
-      <c r="D282" s="42">
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="42">
         <f>Lookup!A$24</f>
         <v>24</v>
       </c>
-      <c r="E282" s="42"/>
-      <c r="G282" s="1" t="s">
+      <c r="E283" s="42"/>
+      <c r="G283" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A286" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D287" s="42">
+      <c r="D288" s="42">
         <f>Lookup!A$24</f>
         <v>24</v>
       </c>
-      <c r="E287" s="42"/>
-      <c r="F287" s="1" t="s">
+      <c r="E288" s="42"/>
+      <c r="F288" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="30" t="s">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B288" s="30"/>
-      <c r="C288" s="30"/>
-      <c r="D288" s="45"/>
-      <c r="E288" s="45"/>
-      <c r="F288" s="31"/>
-      <c r="G288" s="31"/>
-      <c r="H288" s="31"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="17" t="s">
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="45"/>
+      <c r="E289" s="45"/>
+      <c r="F289" s="31"/>
+      <c r="G289" s="31"/>
+      <c r="H289" s="31"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D289" s="42">
+      <c r="D290" s="42">
         <f>Lookup!A$25</f>
         <v>25</v>
       </c>
-      <c r="E289" s="42"/>
-      <c r="F289" s="1" t="s">
+      <c r="E290" s="42"/>
+      <c r="F290" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A292" s="28" t="s">
+      <c r="A292" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B292" s="28" t="str">
+      <c r="B293" s="28" t="str">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C292" s="28" t="s">
+      <c r="C293" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D292" s="44">
+      <c r="D293" s="44">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C25)</f>
         <v>0</v>
       </c>
-      <c r="E292" s="44" t="str">
+      <c r="E293" s="44" t="str">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;",Lookup!A25,"")</f>
         <v/>
       </c>
-      <c r="F292" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G292" s="33">
+      <c r="F293" s="28" t="str">
+        <f>IF(D293="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G293" s="33">
         <f>Lookup!B$25</f>
         <v>0</v>
       </c>
-      <c r="H292" s="29" t="str">
-        <f>IF(D292="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="H293" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="42">
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="42">
         <f>Lookup!A$25</f>
         <v>25</v>
       </c>
-      <c r="E294" s="42"/>
-      <c r="G294" s="1" t="s">
+      <c r="E295" s="42"/>
+      <c r="G295" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A298" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A298" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D299" s="42">
+      <c r="D300" s="42">
         <f>Lookup!A$25</f>
         <v>25</v>
       </c>
-      <c r="E299" s="42"/>
-      <c r="F299" s="1" t="s">
+      <c r="E300" s="42"/>
+      <c r="F300" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A300" s="30" t="s">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B300" s="30"/>
-      <c r="C300" s="30"/>
-      <c r="D300" s="45"/>
-      <c r="E300" s="45"/>
-      <c r="F300" s="31"/>
-      <c r="G300" s="31"/>
-      <c r="H300" s="31"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A301" s="17" t="s">
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
+      <c r="D301" s="45"/>
+      <c r="E301" s="45"/>
+      <c r="F301" s="31"/>
+      <c r="G301" s="31"/>
+      <c r="H301" s="31"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D301" s="42">
+      <c r="D302" s="42">
         <f>Lookup!A$26</f>
         <v>26</v>
       </c>
-      <c r="E301" s="42"/>
-      <c r="F301" s="1" t="s">
+      <c r="E302" s="42"/>
+      <c r="F302" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A304" s="28" t="s">
+      <c r="A304" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B304" s="28" t="str">
+      <c r="B305" s="28" t="str">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C304" s="28" t="s">
+      <c r="C305" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D304" s="44">
+      <c r="D305" s="44">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C26)</f>
         <v>0</v>
       </c>
-      <c r="E304" s="44" t="str">
+      <c r="E305" s="44" t="str">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;",Lookup!A26,"")</f>
         <v/>
       </c>
-      <c r="F304" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G304" s="33">
+      <c r="F305" s="28" t="str">
+        <f>IF(D305="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G305" s="33">
         <f>Lookup!B$26</f>
         <v>0</v>
       </c>
-      <c r="H304" s="29" t="str">
-        <f>IF(D304="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
+      <c r="H305" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
-      <c r="D306" s="42">
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="42">
         <f>Lookup!A$26</f>
         <v>26</v>
       </c>
-      <c r="E306" s="42"/>
-      <c r="G306" s="1" t="s">
+      <c r="E307" s="42"/>
+      <c r="G307" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A310" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A310" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D311" s="42">
+      <c r="D312" s="42">
         <f>Lookup!A$26</f>
         <v>26</v>
       </c>
-      <c r="E311" s="42"/>
-      <c r="F311" s="1" t="s">
+      <c r="E312" s="42"/>
+      <c r="F312" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A312" s="30" t="s">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B312" s="30"/>
-      <c r="C312" s="30"/>
-      <c r="D312" s="45"/>
-      <c r="E312" s="45"/>
-      <c r="F312" s="31"/>
-      <c r="G312" s="31"/>
-      <c r="H312" s="31"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A313" s="17" t="s">
+      <c r="B313" s="30"/>
+      <c r="C313" s="30"/>
+      <c r="D313" s="45"/>
+      <c r="E313" s="45"/>
+      <c r="F313" s="31"/>
+      <c r="G313" s="31"/>
+      <c r="H313" s="31"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D313" s="42">
+      <c r="D314" s="42">
         <f>Lookup!A$27</f>
         <v>27</v>
       </c>
-      <c r="E313" s="42"/>
-      <c r="F313" s="1" t="s">
+      <c r="E314" s="42"/>
+      <c r="F314" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A316" s="28" t="s">
+      <c r="A316" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B316" s="28" t="str">
+      <c r="B317" s="28" t="str">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C316" s="28" t="s">
+      <c r="C317" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D316" s="44">
+      <c r="D317" s="44">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C27)</f>
         <v>0</v>
       </c>
-      <c r="E316" s="44" t="str">
+      <c r="E317" s="44" t="str">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;",Lookup!A27,"")</f>
         <v/>
       </c>
-      <c r="F316" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G316" s="33">
+      <c r="F317" s="28" t="str">
+        <f>IF(D317="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G317" s="33">
         <f>Lookup!B$27</f>
         <v>0</v>
       </c>
-      <c r="H316" s="29" t="str">
-        <f>IF(D316="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
+      <c r="H317" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="42">
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="42">
         <f>Lookup!A$27</f>
         <v>27</v>
       </c>
-      <c r="E318" s="42"/>
-      <c r="G318" s="1" t="s">
+      <c r="E319" s="42"/>
+      <c r="G319" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A322" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A322" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D323" s="42">
+      <c r="D324" s="42">
         <f>Lookup!A$27</f>
         <v>27</v>
       </c>
-      <c r="E323" s="42"/>
-      <c r="F323" s="1" t="s">
+      <c r="E324" s="42"/>
+      <c r="F324" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A324" s="30" t="s">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B324" s="30"/>
-      <c r="C324" s="30"/>
-      <c r="D324" s="45"/>
-      <c r="E324" s="45"/>
-      <c r="F324" s="31"/>
-      <c r="G324" s="31"/>
-      <c r="H324" s="31"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A325" s="17" t="s">
+      <c r="B325" s="30"/>
+      <c r="C325" s="30"/>
+      <c r="D325" s="45"/>
+      <c r="E325" s="45"/>
+      <c r="F325" s="31"/>
+      <c r="G325" s="31"/>
+      <c r="H325" s="31"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D325" s="42">
+      <c r="D326" s="42">
         <f>Lookup!A$28</f>
         <v>28</v>
       </c>
-      <c r="E325" s="42"/>
-      <c r="F325" s="1" t="s">
+      <c r="E326" s="42"/>
+      <c r="F326" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A328" s="28" t="s">
+      <c r="A328" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B328" s="28" t="str">
+      <c r="B329" s="28" t="str">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C328" s="28" t="s">
+      <c r="C329" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D328" s="44">
+      <c r="D329" s="44">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C28)</f>
         <v>0</v>
       </c>
-      <c r="E328" s="44" t="str">
+      <c r="E329" s="44" t="str">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;",Lookup!A28,"")</f>
         <v/>
       </c>
-      <c r="F328" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G328" s="33">
+      <c r="F329" s="28" t="str">
+        <f>IF(D329="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G329" s="33">
         <f>Lookup!B$28</f>
         <v>0</v>
       </c>
-      <c r="H328" s="29" t="str">
-        <f>IF(D328="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="H329" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
-      <c r="D330" s="42">
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="42">
         <f>Lookup!A$28</f>
         <v>28</v>
       </c>
-      <c r="E330" s="42"/>
-      <c r="G330" s="1" t="s">
+      <c r="E331" s="42"/>
+      <c r="G331" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A334" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A334" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D335" s="42">
+      <c r="D336" s="42">
         <f>Lookup!A$28</f>
         <v>28</v>
       </c>
-      <c r="E335" s="42"/>
-      <c r="F335" s="1" t="s">
+      <c r="E336" s="42"/>
+      <c r="F336" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A336" s="30" t="s">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B336" s="30"/>
-      <c r="C336" s="30"/>
-      <c r="D336" s="45"/>
-      <c r="E336" s="45"/>
-      <c r="F336" s="31"/>
-      <c r="G336" s="31"/>
-      <c r="H336" s="31"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A337" s="17" t="s">
+      <c r="B337" s="30"/>
+      <c r="C337" s="30"/>
+      <c r="D337" s="45"/>
+      <c r="E337" s="45"/>
+      <c r="F337" s="31"/>
+      <c r="G337" s="31"/>
+      <c r="H337" s="31"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D337" s="42">
+      <c r="D338" s="42">
         <f>Lookup!A$29</f>
         <v>29</v>
       </c>
-      <c r="E337" s="42"/>
-      <c r="F337" s="1" t="s">
+      <c r="E338" s="42"/>
+      <c r="F338" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A340" s="28" t="s">
+      <c r="A340" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B340" s="28" t="str">
+      <c r="B341" s="28" t="str">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C340" s="28" t="s">
+      <c r="C341" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D340" s="44">
+      <c r="D341" s="44">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C29)</f>
         <v>0</v>
       </c>
-      <c r="E340" s="44" t="str">
+      <c r="E341" s="44" t="str">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;",Lookup!A29,"")</f>
         <v/>
       </c>
-      <c r="F340" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G340" s="33">
+      <c r="F341" s="28" t="str">
+        <f>IF(D341="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G341" s="33">
         <f>Lookup!B$29</f>
         <v>0</v>
       </c>
-      <c r="H340" s="29" t="str">
-        <f>IF(D340="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="H341" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
-      <c r="D342" s="42">
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="42">
         <f>Lookup!A$29</f>
         <v>29</v>
       </c>
-      <c r="E342" s="42"/>
-      <c r="G342" s="1" t="s">
+      <c r="E343" s="42"/>
+      <c r="G343" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A346" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A346" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D347" s="42">
+      <c r="D348" s="42">
         <f>Lookup!A$29</f>
         <v>29</v>
       </c>
-      <c r="E347" s="42"/>
-      <c r="F347" s="1" t="s">
+      <c r="E348" s="42"/>
+      <c r="F348" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A348" s="30" t="s">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B348" s="30"/>
-      <c r="C348" s="30"/>
-      <c r="D348" s="45"/>
-      <c r="E348" s="45"/>
-      <c r="F348" s="31"/>
-      <c r="G348" s="31"/>
-      <c r="H348" s="31"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A349" s="17" t="s">
+      <c r="B349" s="30"/>
+      <c r="C349" s="30"/>
+      <c r="D349" s="45"/>
+      <c r="E349" s="45"/>
+      <c r="F349" s="31"/>
+      <c r="G349" s="31"/>
+      <c r="H349" s="31"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D349" s="42">
+      <c r="D350" s="42">
         <f>Lookup!A$30</f>
         <v>30</v>
       </c>
-      <c r="E349" s="42"/>
-      <c r="F349" s="1" t="s">
+      <c r="E350" s="42"/>
+      <c r="F350" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A352" s="28" t="s">
+      <c r="A352" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B352" s="28" t="str">
+      <c r="B353" s="28" t="str">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C352" s="28" t="s">
+      <c r="C353" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D352" s="44">
+      <c r="D353" s="44">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C30)</f>
         <v>0</v>
       </c>
-      <c r="E352" s="44" t="str">
+      <c r="E353" s="44" t="str">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;",Lookup!A30,"")</f>
         <v/>
       </c>
-      <c r="F352" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G352" s="33">
+      <c r="F353" s="28" t="str">
+        <f>IF(D353="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G353" s="33">
         <f>Lookup!B$30</f>
         <v>0</v>
       </c>
-      <c r="H352" s="29" t="str">
-        <f>IF(D352="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
+      <c r="H353" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
-      <c r="D354" s="42">
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="42">
         <f>Lookup!A$30</f>
         <v>30</v>
       </c>
-      <c r="E354" s="42"/>
-      <c r="G354" s="1" t="s">
+      <c r="E355" s="42"/>
+      <c r="G355" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A358" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A358" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D359" s="42">
+      <c r="D360" s="42">
         <f>Lookup!A$30</f>
         <v>30</v>
       </c>
-      <c r="E359" s="42"/>
-      <c r="F359" s="1" t="s">
+      <c r="E360" s="42"/>
+      <c r="F360" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A360" s="30" t="s">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B360" s="30"/>
-      <c r="C360" s="30"/>
-      <c r="D360" s="45"/>
-      <c r="E360" s="45"/>
-      <c r="F360" s="31"/>
-      <c r="G360" s="31"/>
-      <c r="H360" s="31"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A361" s="17" t="s">
+      <c r="B361" s="30"/>
+      <c r="C361" s="30"/>
+      <c r="D361" s="45"/>
+      <c r="E361" s="45"/>
+      <c r="F361" s="31"/>
+      <c r="G361" s="31"/>
+      <c r="H361" s="31"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D361" s="42">
+      <c r="D362" s="42">
         <f>Lookup!A$31</f>
         <v>31</v>
       </c>
-      <c r="E361" s="42"/>
-      <c r="F361" s="1" t="s">
+      <c r="E362" s="42"/>
+      <c r="F362" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A364" s="28" t="s">
+      <c r="A364" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B364" s="28" t="str">
+      <c r="B365" s="28" t="str">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C364" s="28" t="s">
+      <c r="C365" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D364" s="44">
+      <c r="D365" s="44">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C31)</f>
         <v>0</v>
       </c>
-      <c r="E364" s="44" t="str">
+      <c r="E365" s="44" t="str">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;",Lookup!A31,"")</f>
         <v/>
       </c>
-      <c r="F364" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G364" s="33">
+      <c r="F365" s="28" t="str">
+        <f>IF(D365="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G365" s="33">
         <f>Lookup!B$31</f>
         <v>0</v>
       </c>
-      <c r="H364" s="29" t="str">
-        <f>IF(D364="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
+      <c r="H365" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
-      <c r="D366" s="42">
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="42">
         <f>Lookup!A$31</f>
         <v>31</v>
       </c>
-      <c r="E366" s="42"/>
-      <c r="G366" s="1" t="s">
+      <c r="E367" s="42"/>
+      <c r="G367" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A370" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A370" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D371" s="42">
+      <c r="D372" s="42">
         <f>Lookup!A$31</f>
         <v>31</v>
       </c>
-      <c r="E371" s="42"/>
-      <c r="F371" s="1" t="s">
+      <c r="E372" s="42"/>
+      <c r="F372" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372" s="30" t="s">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B372" s="30"/>
-      <c r="C372" s="30"/>
-      <c r="D372" s="45"/>
-      <c r="E372" s="45"/>
-      <c r="F372" s="31"/>
-      <c r="G372" s="31"/>
-      <c r="H372" s="31"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A373" s="17" t="s">
+      <c r="B373" s="30"/>
+      <c r="C373" s="30"/>
+      <c r="D373" s="45"/>
+      <c r="E373" s="45"/>
+      <c r="F373" s="31"/>
+      <c r="G373" s="31"/>
+      <c r="H373" s="31"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D373" s="42">
+      <c r="D374" s="42">
         <f>Lookup!A$32</f>
         <v>32</v>
       </c>
-      <c r="E373" s="42"/>
-      <c r="F373" s="1" t="s">
+      <c r="E374" s="42"/>
+      <c r="F374" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A376" s="28" t="s">
+      <c r="A376" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B376" s="28" t="str">
+      <c r="B377" s="28" t="str">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C376" s="28" t="s">
+      <c r="C377" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D376" s="44">
+      <c r="D377" s="44">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C32)</f>
         <v>0</v>
       </c>
-      <c r="E376" s="44" t="str">
+      <c r="E377" s="44" t="str">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;",Lookup!A32,"")</f>
         <v/>
       </c>
-      <c r="F376" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G376" s="33">
+      <c r="F377" s="28" t="str">
+        <f>IF(D377="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G377" s="33">
         <f>Lookup!B$32</f>
         <v>0</v>
       </c>
-      <c r="H376" s="29" t="str">
-        <f>IF(D376="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
+      <c r="H377" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
-      <c r="D378" s="42">
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="42">
         <f>Lookup!A$32</f>
         <v>32</v>
       </c>
-      <c r="E378" s="42"/>
-      <c r="G378" s="1" t="s">
+      <c r="E379" s="42"/>
+      <c r="G379" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A382" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A382" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D383" s="42">
+      <c r="D384" s="42">
         <f>Lookup!A$32</f>
         <v>32</v>
       </c>
-      <c r="E383" s="42"/>
-      <c r="F383" s="1" t="s">
+      <c r="E384" s="42"/>
+      <c r="F384" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A384" s="30" t="s">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B384" s="30"/>
-      <c r="C384" s="30"/>
-      <c r="D384" s="45"/>
-      <c r="E384" s="45"/>
-      <c r="F384" s="31"/>
-      <c r="G384" s="31"/>
-      <c r="H384" s="31"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A385" s="17" t="s">
+      <c r="B385" s="30"/>
+      <c r="C385" s="30"/>
+      <c r="D385" s="45"/>
+      <c r="E385" s="45"/>
+      <c r="F385" s="31"/>
+      <c r="G385" s="31"/>
+      <c r="H385" s="31"/>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D385" s="42">
+      <c r="D386" s="42">
         <f>Lookup!A$33</f>
         <v>33</v>
       </c>
-      <c r="E385" s="42"/>
-      <c r="F385" s="1" t="s">
+      <c r="E386" s="42"/>
+      <c r="F386" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A388" s="28" t="s">
+      <c r="A388" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="B388" s="28" t="str">
+      <c r="B389" s="28" t="str">
         <f>IF(Lookup!C33="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
         <v/>
       </c>
-      <c r="C388" s="28" t="s">
+      <c r="C389" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D388" s="44">
+      <c r="D389" s="44">
         <f>IF(Lookup!C33="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C33)</f>
         <v>0</v>
       </c>
-      <c r="E388" s="44" t="str">
+      <c r="E389" s="44" t="str">
         <f>IF(Lookup!C33="&lt;&lt;Accordion&gt;&gt;",Lookup!A33,"")</f>
         <v/>
       </c>
-      <c r="F388" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G388" s="33">
+      <c r="F389" s="28" t="str">
+        <f>IF(D389="#collapse",REF!$A$3,REF!$A$4)</f>
+        <v>"&gt;</v>
+      </c>
+      <c r="G389" s="33">
         <f>Lookup!B$33</f>
         <v>0</v>
       </c>
-      <c r="H388" s="29" t="str">
-        <f>IF(D388="#collapse",REF!$A$2,"&lt;/a&gt; &lt;/h4&gt;")</f>
-        <v>&lt;/a&gt; &lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
+      <c r="H389" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
-      <c r="D390" s="42">
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="42">
         <f>Lookup!A$33</f>
         <v>33</v>
       </c>
-      <c r="E390" s="42"/>
-      <c r="G390" s="1" t="s">
+      <c r="E391" s="42"/>
+      <c r="G391" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A394" s="17" t="s">
-        <v>320</v>
-      </c>
+      <c r="A394" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D395" s="42">
+      <c r="D396" s="42">
         <f>Lookup!A$33</f>
         <v>33</v>
       </c>
-      <c r="E395" s="42"/>
-      <c r="F395" s="1" t="s">
+      <c r="E396" s="42"/>
+      <c r="F396" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A396" s="30" t="s">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B396" s="30"/>
-      <c r="C396" s="30"/>
-      <c r="D396" s="45"/>
-      <c r="E396" s="45"/>
-      <c r="F396" s="31"/>
-      <c r="G396" s="31"/>
+      <c r="B397" s="30"/>
+      <c r="C397" s="30"/>
+      <c r="D397" s="45"/>
+      <c r="E397" s="45"/>
+      <c r="F397" s="31"/>
+      <c r="G397" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H397" xr:uid="{106BA279-75E2-4E84-AFFE-D2E4018256DA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10871,7 +10912,7 @@
   <dimension ref="A1:E398"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17436,7 +17477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A4122-4BF1-41FB-BBB0-91C4AEC4AE3F}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -18316,10 +18357,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA28EF41-5B92-4AB1-A30B-942CD043FD15}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18335,6 +18376,16 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conra\Documents\GitHub\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE5DD8-38A0-4E91-AFF8-0E177EA1166B}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD1CAE-6390-451A-A748-A5A29F967060}" xr6:coauthVersionLast="29" xr6:coauthVersionMax="29" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6768" windowWidth="10296" windowHeight="0" tabRatio="850" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="7224" windowWidth="10296" windowHeight="0" tabRatio="850" activeTab="7" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accordion_New" sheetId="35" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="483">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -1780,18 +1780,6 @@
     <t>&lt;&lt;Accordion&gt;&gt;</t>
   </si>
   <si>
-    <t>https://boris.web.boeing.com/newboris/</t>
-  </si>
-  <si>
-    <t>DMVS (Demand Management Visibility Service)</t>
-  </si>
-  <si>
-    <t>https://dmvs6.web.boeing.com/#/Actions</t>
-  </si>
-  <si>
-    <t>ETS (Employee Timekeeping System)</t>
-  </si>
-  <si>
     <t>Policies, Procedures, Processes and Specifications</t>
   </si>
   <si>
@@ -1804,187 +1792,76 @@
     <t>http://lead.web.boeing.com/ben/BEN_on_demand.html</t>
   </si>
   <si>
-    <t>http://pims-v4.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>Risk, Issue, and Opportunity Management (PRO-5536)</t>
-  </si>
-  <si>
-    <t>Perform Risk, Issue, and Opportunity Management (BPI-3487)</t>
-  </si>
-  <si>
-    <t>Earned Value Management (EVM): Integrated Performance Management (PRO-422)</t>
-  </si>
-  <si>
-    <t>Estimate at Completion (EAC) (PRO-115)</t>
-  </si>
-  <si>
-    <t>Integrated Scheduling Standards (PRO-6483)</t>
-  </si>
-  <si>
-    <t>BCA Front Line Leader Responsibilities, Authority and Accountability (PRO-7060)</t>
-  </si>
-  <si>
-    <t>BCA Program Baseline Management Process (BPI-4780)</t>
-  </si>
-  <si>
-    <t>Delegation of Authority to Authorize Business Transactions and Agreements, and to Commit Company Resources (POL-1)</t>
-  </si>
-  <si>
-    <t>Develop and Maintain the Program Organization (BPI-6326)</t>
-  </si>
-  <si>
-    <t>Develop, Implement and Maintain Program Quality Planning (BPI-3965)</t>
-  </si>
-  <si>
-    <t>Develop, Release and Maintain a Program Execution Plan (PEP) (BPI-5033)</t>
-  </si>
-  <si>
-    <t>Establish and Manage Integrated Baselines (BPI-4473)</t>
-  </si>
-  <si>
-    <t>Independent Review (IR) (PRO-6581)</t>
-  </si>
-  <si>
-    <t>Integrated Market Strategies and Business Plans (PRO-6579)</t>
-  </si>
-  <si>
-    <t>Integrated Program Planning (BPI-3488)</t>
-  </si>
-  <si>
-    <t>Measure, Analyze, Monitor and Control Program Performance (BPI-3491)</t>
-  </si>
-  <si>
-    <t>Perform Customer Product Review (BPI-4948)</t>
-  </si>
-  <si>
-    <t>Program Communication (PRO-6582)</t>
-  </si>
-  <si>
-    <t>Program Execution Plan (PRO-5584)</t>
-  </si>
-  <si>
-    <t>Program IPT Leader (PRO-6918)</t>
-  </si>
-  <si>
-    <t>Program Management (PRO-4041)</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-5536</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3487</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-422</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-115</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6483</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-7060</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4780</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=POL-1</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-6326</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3965</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-5033</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4473</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6581</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6579</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3488</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-3491</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=BPI-4948</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6582</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-5584</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-6918</t>
-  </si>
-  <si>
-    <t>https://onepppm.web.boeing.com/onepppm/app/documents/show?id=PRO-4041</t>
-  </si>
-  <si>
     <t>Project Management Fundamentals Workshop</t>
   </si>
   <si>
-    <t>BORIS (Boeing Opportunities, Risks and Issues Management System)</t>
-  </si>
-  <si>
-    <t>CMES (Common Manufacturing Execution System)</t>
-  </si>
-  <si>
-    <t>https://cmesbca.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>EHD (Enterprise Help Desk)</t>
-  </si>
-  <si>
-    <t>EITMS (Employee Involvement Team Management System)</t>
-  </si>
-  <si>
-    <t>http://eitms.web.boeing.com</t>
-  </si>
-  <si>
-    <t>eTRAC- Part Shortages and Exceptions</t>
-  </si>
-  <si>
-    <t>http://etrac.web.boeing.com/etrac</t>
-  </si>
-  <si>
-    <t>InSite</t>
-  </si>
-  <si>
-    <t>MARS (My Account Request System)</t>
-  </si>
-  <si>
-    <t>https://marsprod.web.boeing.com:8084/mars/home?0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Learning </t>
-  </si>
-  <si>
-    <t>PIMS (Program Information Management System)</t>
-  </si>
-  <si>
-    <t>https://redars.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>SAT (Shipside Action Tracker)</t>
-  </si>
-  <si>
-    <t>Travel @ Boeing</t>
-  </si>
-  <si>
     <t xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </t>
+  </si>
+  <si>
+    <t>https://boeing.skillport.com/skillportfe/custom/login/boeing/login.action</t>
+  </si>
+  <si>
+    <t>My Safety Dashboard</t>
+  </si>
+  <si>
+    <t>https://wp-myb-portal.web.boeing.com/myb/myportal/SC/MySafety/Dashboard/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizTwMTDwNnA18LbxMTAwc3YKN_Vy8PQzdg031w9EUBHiaGjj6BBgEBoS6Ghu4m-pHEaPfAAdwNCBOPx4FUfiND9ePwmuFvzGGAkwvErKkIDc0NMIg0xMA0s2Vkw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Badging</t>
+  </si>
+  <si>
+    <t>Clearances</t>
+  </si>
+  <si>
+    <t>Data Destruction</t>
+  </si>
+  <si>
+    <t>Emergency Preparedness</t>
+  </si>
+  <si>
+    <t>Lobbies</t>
+  </si>
+  <si>
+    <t>Lock and Key</t>
+  </si>
+  <si>
+    <t>Security and Fire Protection (HomePage)</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/badges/</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/govtsec/Clearances.htm</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/datadestruct/</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/ep/</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/badges/index.htm#lobbies</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/techops/LockandKey.htm</t>
+  </si>
+  <si>
+    <t>https://securityandfire.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>FOD Captured at the Source / Containment &amp;amp; Control</t>
+  </si>
+  <si>
+    <t>FOD Resources - FAA</t>
+  </si>
+  <si>
+    <t>FOD Sweep</t>
+  </si>
+  <si>
+    <t>NAFPI FOD Prevention</t>
+  </si>
+  <si>
+    <t>http://fodprevention.com/nafpi/</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42396E6-F478-4B75-B1F5-C87D3BA47C18}">
   <dimension ref="A1:H397"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2525,7 +2404,7 @@
     <col min="3" max="3" width="6.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="43" customWidth="1"/>
     <col min="5" max="5" width="10" style="43" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5546875" style="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.44140625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" style="17"/>
@@ -2600,7 +2479,7 @@
       </c>
       <c r="D5" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C1)</f>
-        <v>http://termbank.web.boeing.com/#/</v>
+        <v>http://enterprisefod.web.boeing.com/</v>
       </c>
       <c r="E5" s="44" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",Lookup!A1,"")</f>
@@ -2612,7 +2491,7 @@
       </c>
       <c r="G5" s="33" t="str">
         <f>Lookup!B$1</f>
-        <v>Acronym Search</v>
+        <v>Enterprise FOD</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>7</v>
@@ -2731,7 +2610,7 @@
       </c>
       <c r="D17" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C2)</f>
-        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
+        <v>http://enterprisefod.web.boeing.com/fodreps.html</v>
       </c>
       <c r="E17" s="44" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;",Lookup!A2,"")</f>
@@ -2743,7 +2622,7 @@
       </c>
       <c r="G17" s="33" t="str">
         <f>Lookup!B$2</f>
-        <v>BCA Security</v>
+        <v>Find Your FOD Focal</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>7</v>
@@ -2862,8 +2741,7 @@
       </c>
       <c r="D29" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C3)</f>
-        <v xml:space="preserve">http://sitemaps.web.boeing.com/index.asp
-</v>
+        <v>http://enterprisefod.web.boeing.com/containment_and_control.html</v>
       </c>
       <c r="E29" s="44" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;",Lookup!A3,"")</f>
@@ -2875,7 +2753,7 @@
       </c>
       <c r="G29" s="33" t="str">
         <f>Lookup!B$3</f>
-        <v>Boeing Maps</v>
+        <v>FOD Captured at the Source / Containment &amp;amp; Control</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>7</v>
@@ -2994,7 +2872,7 @@
       </c>
       <c r="D41" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C4)</f>
-        <v>https://boris.web.boeing.com/newboris/</v>
+        <v>https://www.faa.gov/airports/airport_safety/fod/resources/</v>
       </c>
       <c r="E41" s="44" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;",Lookup!A4,"")</f>
@@ -3006,7 +2884,7 @@
       </c>
       <c r="G41" s="33" t="str">
         <f>Lookup!B$4</f>
-        <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
+        <v>FOD Resources - FAA</v>
       </c>
       <c r="H41" s="28" t="s">
         <v>7</v>
@@ -3118,26 +2996,26 @@
       </c>
       <c r="B53" s="28" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v/>
+        <v>data-toggle="collapse" data-parent="#accordion"</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D53" s="44" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C5)</f>
-        <v>http://carats.ca.boeing.com/Request.asp</v>
-      </c>
-      <c r="E53" s="44" t="str">
+        <v>#collapse</v>
+      </c>
+      <c r="E53" s="44">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",Lookup!A5,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F53" s="28" t="str">
         <f>IF(D53="#collapse",REF!$A$3,REF!$A$4)</f>
-        <v>"&gt;</v>
+        <v xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </v>
       </c>
       <c r="G53" s="33" t="str">
         <f>Lookup!B$5</f>
-        <v>CARATS</v>
+        <v>FOD Sweep</v>
       </c>
       <c r="H53" s="28" t="s">
         <v>7</v>
@@ -3256,7 +3134,7 @@
       </c>
       <c r="D65" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C6)</f>
-        <v>https://cmesbca.web.boeing.com/</v>
+        <v>http://fodprevention.com/nafpi/</v>
       </c>
       <c r="E65" s="44" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",Lookup!A6,"")</f>
@@ -3268,7 +3146,7 @@
       </c>
       <c r="G65" s="33" t="str">
         <f>Lookup!B$6</f>
-        <v>CMES (Common Manufacturing Execution System)</v>
+        <v>NAFPI FOD Prevention</v>
       </c>
       <c r="H65" s="28" t="s">
         <v>7</v>
@@ -3387,7 +3265,7 @@
       </c>
       <c r="D77" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C7)</f>
-        <v>https://dmvs6.web.boeing.com/#/Actions</v>
+        <v>http://enterprisefod.web.boeing.com/signage.html</v>
       </c>
       <c r="E77" s="44" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",Lookup!A7,"")</f>
@@ -3399,7 +3277,7 @@
       </c>
       <c r="G77" s="33" t="str">
         <f>Lookup!B$7</f>
-        <v>DMVS (Demand Management Visibility Service)</v>
+        <v>Order Designated FOD Signage</v>
       </c>
       <c r="H77" s="28" t="s">
         <v>7</v>
@@ -3511,18 +3389,18 @@
       </c>
       <c r="B89" s="28" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v/>
+        <v>data-toggle="collapse" data-parent="#accordion"</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D89" s="44" t="str">
         <f>Lookup!C$8</f>
-        <v>http://helpdesk.web.boeing.com/</v>
-      </c>
-      <c r="E89" s="44" t="str">
+        <v>&lt;&lt;Accordion&gt;&gt;</v>
+      </c>
+      <c r="E89" s="44">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",Lookup!A8,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="F89" s="28" t="str">
         <f>IF(D89="#collapse",REF!$A$3,REF!$A$4)</f>
@@ -3530,7 +3408,7 @@
       </c>
       <c r="G89" s="33" t="str">
         <f>Lookup!B$8</f>
-        <v>EHD (Enterprise Help Desk)</v>
+        <v>Policies, Procedures, Processes and Specifications</v>
       </c>
       <c r="H89" s="28" t="s">
         <v>7</v>
@@ -3647,9 +3525,9 @@
       <c r="C101" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D101" s="44" t="str">
+      <c r="D101" s="44">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C9)</f>
-        <v>http://eitms.web.boeing.com</v>
+        <v>0</v>
       </c>
       <c r="E101" s="44" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",Lookup!A9,"")</f>
@@ -3659,9 +3537,9 @@
         <f>IF(D101="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G101" s="33" t="str">
+      <c r="G101" s="33">
         <f>Lookup!B$9</f>
-        <v>EITMS (Employee Involvement Team Management System)</v>
+        <v>0</v>
       </c>
       <c r="H101" s="28" t="s">
         <v>7</v>
@@ -3778,9 +3656,9 @@
       <c r="C113" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D113" s="44" t="str">
+      <c r="D113" s="44">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C10)</f>
-        <v>http://etrac.web.boeing.com/etrac</v>
+        <v>0</v>
       </c>
       <c r="E113" s="44" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",Lookup!A10,"")</f>
@@ -3790,9 +3668,9 @@
         <f>IF(D113="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G113" s="33" t="str">
+      <c r="G113" s="33">
         <f>Lookup!B$10</f>
-        <v>eTRAC- Part Shortages and Exceptions</v>
+        <v>0</v>
       </c>
       <c r="H113" s="28" t="s">
         <v>7</v>
@@ -3909,9 +3787,9 @@
       <c r="C125" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D125" s="44" t="str">
+      <c r="D125" s="44">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C11)</f>
-        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
+        <v>0</v>
       </c>
       <c r="E125" s="44" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",Lookup!A11,"")</f>
@@ -3921,9 +3799,9 @@
         <f>IF(D125="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G125" s="33" t="str">
+      <c r="G125" s="33">
         <f>Lookup!B$11</f>
-        <v>ETS (Employee Timekeeping System)</v>
+        <v>0</v>
       </c>
       <c r="H125" s="28" t="s">
         <v>7</v>
@@ -4040,9 +3918,9 @@
       <c r="C137" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D137" s="44" t="str">
+      <c r="D137" s="44">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C12)</f>
-        <v>http://foodservices.web.boeing.com/PS/everett.asp</v>
+        <v>0</v>
       </c>
       <c r="E137" s="44" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",Lookup!A12,"")</f>
@@ -4052,9 +3930,9 @@
         <f>IF(D137="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G137" s="33" t="str">
+      <c r="G137" s="33">
         <f>Lookup!B$12</f>
-        <v>Food Services</v>
+        <v>0</v>
       </c>
       <c r="H137" s="28" t="s">
         <v>7</v>
@@ -4171,9 +4049,9 @@
       <c r="C149" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D149" s="44" t="str">
+      <c r="D149" s="44">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C13)</f>
-        <v>https://insite.web.boeing.com/culture/index.do</v>
+        <v>0</v>
       </c>
       <c r="E149" s="44" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",Lookup!A13,"")</f>
@@ -4183,9 +4061,9 @@
         <f>IF(D149="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G149" s="33" t="str">
+      <c r="G149" s="33">
         <f>Lookup!B$13</f>
-        <v>InSite</v>
+        <v>0</v>
       </c>
       <c r="H149" s="28" t="s">
         <v>7</v>
@@ -4302,9 +4180,9 @@
       <c r="C161" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D161" s="44" t="str">
+      <c r="D161" s="44">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C14)</f>
-        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
+        <v>0</v>
       </c>
       <c r="E161" s="44" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",Lookup!A14,"")</f>
@@ -4314,9 +4192,9 @@
         <f>IF(D161="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G161" s="33" t="str">
+      <c r="G161" s="33">
         <f>Lookup!B$14</f>
-        <v>Library Resources</v>
+        <v>0</v>
       </c>
       <c r="H161" s="28" t="s">
         <v>7</v>
@@ -4433,9 +4311,9 @@
       <c r="C173" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D173" s="44" t="str">
+      <c r="D173" s="44">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C15)</f>
-        <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
+        <v>0</v>
       </c>
       <c r="E173" s="44" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",Lookup!A15,"")</f>
@@ -4445,9 +4323,9 @@
         <f>IF(D173="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G173" s="33" t="str">
+      <c r="G173" s="33">
         <f>Lookup!B$15</f>
-        <v>MARS (My Account Request System)</v>
+        <v>0</v>
       </c>
       <c r="H173" s="28" t="s">
         <v>7</v>
@@ -4564,9 +4442,9 @@
       <c r="C185" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D185" s="44" t="str">
+      <c r="D185" s="44">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C16)</f>
-        <v>https://wp-myb-portal.web.boeing.com/myb/ta/TotalAccess</v>
+        <v>0</v>
       </c>
       <c r="E185" s="44" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",Lookup!A16,"")</f>
@@ -4576,9 +4454,9 @@
         <f>IF(D185="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G185" s="33" t="str">
+      <c r="G185" s="33">
         <f>Lookup!B$16</f>
-        <v xml:space="preserve">My Learning </v>
+        <v>0</v>
       </c>
       <c r="H185" s="28" t="s">
         <v>7</v>
@@ -4695,9 +4573,9 @@
       <c r="C197" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D197" s="44" t="str">
+      <c r="D197" s="44">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C17)</f>
-        <v>http://pims-v4.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E197" s="44" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",Lookup!A17,"")</f>
@@ -4707,9 +4585,9 @@
         <f>IF(D197="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G197" s="33" t="str">
+      <c r="G197" s="33">
         <f>Lookup!B$17</f>
-        <v>PIMS (Program Information Management System)</v>
+        <v>0</v>
       </c>
       <c r="H197" s="28" t="s">
         <v>7</v>
@@ -4821,26 +4699,26 @@
       </c>
       <c r="B209" s="28" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C209" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D209" s="44" t="str">
+      <c r="D209" s="44">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C18)</f>
-        <v>#collapse</v>
-      </c>
-      <c r="E209" s="44">
+        <v>0</v>
+      </c>
+      <c r="E209" s="44" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",Lookup!A18,"")</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="F209" s="28" t="str">
         <f>IF(D209="#collapse",REF!$A$3,REF!$A$4)</f>
-        <v xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </v>
-      </c>
-      <c r="G209" s="33" t="str">
+        <v>"&gt;</v>
+      </c>
+      <c r="G209" s="33">
         <f>Lookup!B$18</f>
-        <v>Policies, Procedures, Processes and Specifications</v>
+        <v>0</v>
       </c>
       <c r="H209" s="28" t="s">
         <v>7</v>
@@ -4957,9 +4835,9 @@
       <c r="C221" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D221" s="44" t="str">
+      <c r="D221" s="44">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C19)</f>
-        <v>https://redars.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E221" s="44" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",Lookup!A19,"")</f>
@@ -4969,9 +4847,9 @@
         <f>IF(D221="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G221" s="33" t="str">
+      <c r="G221" s="33">
         <f>Lookup!B$19</f>
-        <v>REDARS/EID</v>
+        <v>0</v>
       </c>
       <c r="H221" s="28" t="s">
         <v>7</v>
@@ -5088,9 +4966,9 @@
       <c r="C233" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D233" s="44" t="str">
+      <c r="D233" s="44">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C20)</f>
-        <v>http://satsystem.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E233" s="44" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;",Lookup!A20,"")</f>
@@ -5100,9 +4978,9 @@
         <f>IF(D233="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G233" s="33" t="str">
+      <c r="G233" s="33">
         <f>Lookup!B$20</f>
-        <v>SAT (Shipside Action Tracker)</v>
+        <v>0</v>
       </c>
       <c r="H233" s="28" t="s">
         <v>7</v>
@@ -5219,9 +5097,9 @@
       <c r="C245" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D245" s="44" t="str">
+      <c r="D245" s="44">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C21)</f>
-        <v>http://www.boeing.com/company/tours/</v>
+        <v>0</v>
       </c>
       <c r="E245" s="44" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;",Lookup!A21,"")</f>
@@ -5231,9 +5109,9 @@
         <f>IF(D245="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G245" s="33" t="str">
+      <c r="G245" s="33">
         <f>Lookup!B$21</f>
-        <v>Site Tours</v>
+        <v>0</v>
       </c>
       <c r="H245" s="28" t="s">
         <v>7</v>
@@ -5350,9 +5228,9 @@
       <c r="C257" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D257" s="44" t="str">
+      <c r="D257" s="44">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C22)</f>
-        <v>http://boeingtravel.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E257" s="44" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;",Lookup!A22,"")</f>
@@ -5362,9 +5240,9 @@
         <f>IF(D257="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G257" s="33" t="str">
+      <c r="G257" s="33">
         <f>Lookup!B$22</f>
-        <v>Travel @ Boeing</v>
+        <v>0</v>
       </c>
       <c r="H257" s="28" t="s">
         <v>7</v>
@@ -5481,9 +5359,9 @@
       <c r="C269" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D269" s="44" t="str">
+      <c r="D269" s="44">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C23)</f>
-        <v>https://boeing.webex.com/mw3100/mywebex/default.do?siteurl=boeing</v>
+        <v>0</v>
       </c>
       <c r="E269" s="44" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;",Lookup!A23,"")</f>
@@ -5493,9 +5371,9 @@
         <f>IF(D269="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G269" s="33" t="str">
+      <c r="G269" s="33">
         <f>Lookup!B$23</f>
-        <v xml:space="preserve">Webex </v>
+        <v>0</v>
       </c>
       <c r="H269" s="28" t="s">
         <v>7</v>
@@ -7890,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="17" t="s">
@@ -7898,7 +7776,7 @@
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="50" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J2" s="49"/>
       <c r="K2" s="17" t="s">
@@ -10088,7 +9966,7 @@
         <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
         <v>327</v>
@@ -10911,7 +10789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F345F0-B9BD-45AA-A760-F77719206F87}">
   <dimension ref="A1:E398"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -10953,14 +10831,14 @@
       </c>
       <c r="B4" s="33" t="str">
         <f>Lookup!C$1</f>
-        <v>http://termbank.web.boeing.com/#/</v>
+        <v>http://enterprisefod.web.boeing.com/</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="33" t="str">
         <f>Lookup!B$1</f>
-        <v>Acronym Search</v>
+        <v>Enterprise FOD</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>7</v>
@@ -11062,14 +10940,14 @@
       </c>
       <c r="B16" s="33" t="str">
         <f>Lookup!C$2</f>
-        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
+        <v>http://enterprisefod.web.boeing.com/fodreps.html</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="33" t="str">
         <f>Lookup!B$2</f>
-        <v>BCA Security</v>
+        <v>Find Your FOD Focal</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>7</v>
@@ -11195,15 +11073,14 @@
       </c>
       <c r="B28" s="33" t="str">
         <f>Lookup!C$3</f>
-        <v xml:space="preserve">http://sitemaps.web.boeing.com/index.asp
-</v>
+        <v>http://enterprisefod.web.boeing.com/containment_and_control.html</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="33" t="str">
         <f>Lookup!B$3</f>
-        <v>Boeing Maps</v>
+        <v>FOD Captured at the Source / Containment &amp;amp; Control</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>7</v>
@@ -11329,14 +11206,14 @@
       </c>
       <c r="B40" s="33" t="str">
         <f>Lookup!C$4</f>
-        <v>https://boris.web.boeing.com/newboris/</v>
+        <v>https://www.faa.gov/airports/airport_safety/fod/resources/</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="33" t="str">
         <f>Lookup!B$4</f>
-        <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
+        <v>FOD Resources - FAA</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>7</v>
@@ -11462,14 +11339,14 @@
       </c>
       <c r="B52" s="33" t="str">
         <f>Lookup!C$5</f>
-        <v>http://carats.ca.boeing.com/Request.asp</v>
+        <v>&lt;&lt;Accordion&gt;&gt;</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="33" t="str">
         <f>Lookup!B$5</f>
-        <v>CARATS</v>
+        <v>FOD Sweep</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>7</v>
@@ -11595,14 +11472,14 @@
       </c>
       <c r="B64" s="33" t="str">
         <f>Lookup!C$6</f>
-        <v>https://cmesbca.web.boeing.com/</v>
+        <v>http://fodprevention.com/nafpi/</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="33" t="str">
         <f>Lookup!B$6</f>
-        <v>CMES (Common Manufacturing Execution System)</v>
+        <v>NAFPI FOD Prevention</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>7</v>
@@ -11728,14 +11605,14 @@
       </c>
       <c r="B76" s="33" t="str">
         <f>Lookup!C$7</f>
-        <v>https://dmvs6.web.boeing.com/#/Actions</v>
+        <v>http://enterprisefod.web.boeing.com/signage.html</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="33" t="str">
         <f>Lookup!B$7</f>
-        <v>DMVS (Demand Management Visibility Service)</v>
+        <v>Order Designated FOD Signage</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>7</v>
@@ -11861,14 +11738,14 @@
       </c>
       <c r="B88" s="33" t="str">
         <f>Lookup!C$8</f>
-        <v>http://helpdesk.web.boeing.com/</v>
+        <v>&lt;&lt;Accordion&gt;&gt;</v>
       </c>
       <c r="C88" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="33" t="str">
         <f>Lookup!B$8</f>
-        <v>EHD (Enterprise Help Desk)</v>
+        <v>Policies, Procedures, Processes and Specifications</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>7</v>
@@ -11992,16 +11869,16 @@
       <c r="A100" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B100" s="33" t="str">
+      <c r="B100" s="33">
         <f>Lookup!C$9</f>
-        <v>http://eitms.web.boeing.com</v>
+        <v>0</v>
       </c>
       <c r="C100" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="33" t="str">
+      <c r="D100" s="33">
         <f>Lookup!B$9</f>
-        <v>EITMS (Employee Involvement Team Management System)</v>
+        <v>0</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>7</v>
@@ -12125,16 +12002,16 @@
       <c r="A112" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B112" s="33" t="str">
+      <c r="B112" s="33">
         <f>Lookup!C$10</f>
-        <v>http://etrac.web.boeing.com/etrac</v>
+        <v>0</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="33" t="str">
+      <c r="D112" s="33">
         <f>Lookup!B$10</f>
-        <v>eTRAC- Part Shortages and Exceptions</v>
+        <v>0</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>7</v>
@@ -12258,16 +12135,16 @@
       <c r="A124" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B124" s="33" t="str">
+      <c r="B124" s="33">
         <f>Lookup!C$11</f>
-        <v>https://ets-prd.web.boeing.com/no_wsso/ETSMain.htm</v>
+        <v>0</v>
       </c>
       <c r="C124" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="33" t="str">
+      <c r="D124" s="33">
         <f>Lookup!B$11</f>
-        <v>ETS (Employee Timekeeping System)</v>
+        <v>0</v>
       </c>
       <c r="E124" s="29" t="s">
         <v>7</v>
@@ -12391,16 +12268,16 @@
       <c r="A136" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B136" s="33" t="str">
+      <c r="B136" s="33">
         <f>Lookup!C$12</f>
-        <v>http://foodservices.web.boeing.com/PS/everett.asp</v>
+        <v>0</v>
       </c>
       <c r="C136" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="33" t="str">
+      <c r="D136" s="33">
         <f>Lookup!B$12</f>
-        <v>Food Services</v>
+        <v>0</v>
       </c>
       <c r="E136" s="29" t="s">
         <v>7</v>
@@ -12524,16 +12401,16 @@
       <c r="A148" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B148" s="33" t="str">
+      <c r="B148" s="33">
         <f>Lookup!C$13</f>
-        <v>https://insite.web.boeing.com/culture/index.do</v>
+        <v>0</v>
       </c>
       <c r="C148" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="33" t="str">
+      <c r="D148" s="33">
         <f>Lookup!B$13</f>
-        <v>InSite</v>
+        <v>0</v>
       </c>
       <c r="E148" s="29" t="s">
         <v>7</v>
@@ -12657,16 +12534,16 @@
       <c r="A160" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B160" s="33" t="str">
+      <c r="B160" s="33">
         <f>Lookup!C$14</f>
-        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
+        <v>0</v>
       </c>
       <c r="C160" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="33" t="str">
+      <c r="D160" s="33">
         <f>Lookup!B$14</f>
-        <v>Library Resources</v>
+        <v>0</v>
       </c>
       <c r="E160" s="29" t="s">
         <v>7</v>
@@ -12790,16 +12667,16 @@
       <c r="A172" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B172" s="33" t="str">
+      <c r="B172" s="33">
         <f>Lookup!C$15</f>
-        <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
+        <v>0</v>
       </c>
       <c r="C172" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="33" t="str">
+      <c r="D172" s="33">
         <f>Lookup!B$15</f>
-        <v>MARS (My Account Request System)</v>
+        <v>0</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>7</v>
@@ -12923,16 +12800,16 @@
       <c r="A184" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B184" s="33" t="str">
+      <c r="B184" s="33">
         <f>Lookup!C$16</f>
-        <v>https://wp-myb-portal.web.boeing.com/myb/ta/TotalAccess</v>
+        <v>0</v>
       </c>
       <c r="C184" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="33" t="str">
+      <c r="D184" s="33">
         <f>Lookup!B$16</f>
-        <v xml:space="preserve">My Learning </v>
+        <v>0</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>7</v>
@@ -13056,16 +12933,16 @@
       <c r="A196" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B196" s="33" t="str">
+      <c r="B196" s="33">
         <f>Lookup!C$17</f>
-        <v>http://pims-v4.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C196" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="33" t="str">
+      <c r="D196" s="33">
         <f>Lookup!B$17</f>
-        <v>PIMS (Program Information Management System)</v>
+        <v>0</v>
       </c>
       <c r="E196" s="29" t="s">
         <v>7</v>
@@ -13189,16 +13066,16 @@
       <c r="A208" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B208" s="33" t="str">
+      <c r="B208" s="33">
         <f>Lookup!C$18</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>0</v>
       </c>
       <c r="C208" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="33" t="str">
+      <c r="D208" s="33">
         <f>Lookup!B$18</f>
-        <v>Policies, Procedures, Processes and Specifications</v>
+        <v>0</v>
       </c>
       <c r="E208" s="29" t="s">
         <v>7</v>
@@ -13322,16 +13199,16 @@
       <c r="A220" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B220" s="33" t="str">
+      <c r="B220" s="33">
         <f>Lookup!C$19</f>
-        <v>https://redars.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C220" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="33" t="str">
+      <c r="D220" s="33">
         <f>Lookup!B$19</f>
-        <v>REDARS/EID</v>
+        <v>0</v>
       </c>
       <c r="E220" s="29" t="s">
         <v>7</v>
@@ -13455,16 +13332,16 @@
       <c r="A232" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B232" s="33" t="str">
+      <c r="B232" s="33">
         <f>Lookup!C$20</f>
-        <v>http://satsystem.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C232" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="33" t="str">
+      <c r="D232" s="33">
         <f>Lookup!B$20</f>
-        <v>SAT (Shipside Action Tracker)</v>
+        <v>0</v>
       </c>
       <c r="E232" s="29" t="s">
         <v>7</v>
@@ -13588,16 +13465,16 @@
       <c r="A244" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B244" s="33" t="str">
+      <c r="B244" s="33">
         <f>Lookup!C$21</f>
-        <v>http://www.boeing.com/company/tours/</v>
+        <v>0</v>
       </c>
       <c r="C244" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D244" s="33" t="str">
+      <c r="D244" s="33">
         <f>Lookup!B$21</f>
-        <v>Site Tours</v>
+        <v>0</v>
       </c>
       <c r="E244" s="29" t="s">
         <v>7</v>
@@ -13721,16 +13598,16 @@
       <c r="A256" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B256" s="33" t="str">
+      <c r="B256" s="33">
         <f>Lookup!C$22</f>
-        <v>http://boeingtravel.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C256" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D256" s="33" t="str">
+      <c r="D256" s="33">
         <f>Lookup!B$22</f>
-        <v>Travel @ Boeing</v>
+        <v>0</v>
       </c>
       <c r="E256" s="29" t="s">
         <v>7</v>
@@ -13854,16 +13731,16 @@
       <c r="A268" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B268" s="33" t="str">
+      <c r="B268" s="33">
         <f>Lookup!C$23</f>
-        <v>https://boeing.webex.com/mw3100/mywebex/default.do?siteurl=boeing</v>
+        <v>0</v>
       </c>
       <c r="C268" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D268" s="33" t="str">
+      <c r="D268" s="33">
         <f>Lookup!B$23</f>
-        <v xml:space="preserve">Webex </v>
+        <v>0</v>
       </c>
       <c r="E268" s="29" t="s">
         <v>7</v>
@@ -17478,7 +17355,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17493,10 +17370,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -17504,10 +17381,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -17515,10 +17392,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>239</v>
+        <v>478</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -17526,10 +17403,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>455</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -17537,10 +17414,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>236</v>
+        <v>480</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>249</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -17548,10 +17425,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -17559,10 +17436,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>456</v>
+        <v>293</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>457</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -17570,176 +17447,110 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>255</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>512</v>
-      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>514</v>
-      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>11</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>254</v>
-      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>256</v>
-      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>13</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>251</v>
-      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>14</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>253</v>
-      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>517</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>16</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>258</v>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>17</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>463</v>
-      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>459</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>454</v>
-      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>520</v>
-      </c>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>521</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>257</v>
-      </c>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>522</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>259</v>
-      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>250</v>
-      </c>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
@@ -18375,12 +18186,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
-        <v>523</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -18587,14 +18398,14 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
@@ -18608,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>5</v>
@@ -18628,7 +18439,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>5</v>
@@ -18648,7 +18459,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>5</v>
@@ -18668,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>5</v>
@@ -18688,7 +18499,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>5</v>
@@ -18708,7 +18519,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>5</v>
@@ -18728,7 +18539,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>5</v>
@@ -18747,14 +18558,8 @@
       <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>492</v>
-      </c>
       <c r="D8" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>471</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>27</v>
@@ -18767,14 +18572,8 @@
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>493</v>
-      </c>
       <c r="D9" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>472</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>27</v>
@@ -18787,14 +18586,8 @@
       <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>494</v>
-      </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>473</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>27</v>
@@ -18807,14 +18600,8 @@
       <c r="B11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>495</v>
-      </c>
       <c r="D11" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>474</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>27</v>
@@ -18827,14 +18614,8 @@
       <c r="B12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>496</v>
-      </c>
       <c r="D12" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>475</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>27</v>
@@ -18847,14 +18628,8 @@
       <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>497</v>
-      </c>
       <c r="D13" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>476</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>27</v>
@@ -18867,14 +18642,8 @@
       <c r="B14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>498</v>
-      </c>
       <c r="D14" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>477</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>27</v>
@@ -18887,14 +18656,8 @@
       <c r="B15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>499</v>
-      </c>
       <c r="D15" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>478</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>27</v>
@@ -18907,14 +18670,8 @@
       <c r="B16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>500</v>
-      </c>
       <c r="D16" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>479</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>27</v>
@@ -18927,14 +18684,8 @@
       <c r="B17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>501</v>
-      </c>
       <c r="D17" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>480</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>27</v>
@@ -18947,14 +18698,8 @@
       <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>502</v>
-      </c>
       <c r="D18" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>481</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>27</v>
@@ -18967,14 +18712,8 @@
       <c r="B19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>503</v>
-      </c>
       <c r="D19" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>482</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>27</v>
@@ -18987,14 +18726,8 @@
       <c r="B20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>504</v>
-      </c>
       <c r="D20" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>483</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>27</v>
@@ -19007,14 +18740,8 @@
       <c r="B21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>505</v>
-      </c>
       <c r="D21" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>484</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>27</v>
@@ -19420,10 +19147,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19623,8 +19350,8 @@
       <c r="A8" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>413</v>
+      <c r="B8" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>58</v>
@@ -19639,7 +19366,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>6</v>
@@ -19649,8 +19376,8 @@
       <c r="A9" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>86</v>
+      <c r="B9" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>58</v>
@@ -19665,7 +19392,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>6</v>
@@ -19676,7 +19403,7 @@
         <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>58</v>
@@ -19691,25 +19418,52 @@
         <v>59</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H10" xr:uid="{3C7E8B05-31A7-47B0-9713-7F563776BC56}">
-    <sortState ref="A2:H10">
+    <sortState ref="A2:H11">
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{8F2F402A-D78B-4DE0-863C-0AC24BA35BA4}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{5249C981-BAE8-45CD-B93F-443746330F84}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{A4D03459-5BBA-4708-A12E-BBA980FBCC13}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{5249C981-BAE8-45CD-B93F-443746330F84}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{A4D03459-5BBA-4708-A12E-BBA980FBCC13}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{A776A2B3-6537-4098-A179-68BB335C5981}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/A.Template/Build.xlsx
+++ b/A.Template/Build.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19201"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\FFLSupport\A.Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3126A0B-2E32-4DF9-9B6C-51D55AF67CDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B40E7B-2B0D-4AB0-AAF5-D92AD0BE4F2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13248" windowWidth="10296" windowHeight="0" tabRatio="850" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
+    <workbookView xWindow="0" yWindow="14064" windowWidth="10296" windowHeight="0" tabRatio="850" activeTab="5" xr2:uid="{C7F9185A-61A5-40AD-8404-3CD7B823B7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accordion_New" sheetId="35" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="632">
   <si>
     <t>&lt;li&gt;</t>
   </si>
@@ -2247,151 +2247,76 @@
     <t>http://videowm.boeing.com/autopost/ssg/TV33198.asx</t>
   </si>
   <si>
-    <t>&lt;&lt;Accordion&gt;&gt;</t>
-  </si>
-  <si>
-    <t>BESSy (Boeing Enterprise Shipping System)</t>
-  </si>
-  <si>
-    <t>https://bessy.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>Boeing Management System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://finance.whq.boeing.com/organizations/bms.shtml </t>
-  </si>
-  <si>
-    <t>https://boris.web.boeing.com/newboris/</t>
-  </si>
-  <si>
-    <t>CLAS (Charge Line Authorization and Set UP)</t>
-  </si>
-  <si>
-    <t>http://financesystemseus.web.boeing.com/sys_CLAS.html</t>
-  </si>
-  <si>
-    <t>https://dmvs6.web.boeing.com/#/Actions</t>
-  </si>
-  <si>
-    <t>MAXIMO (Facilities Requests)</t>
-  </si>
-  <si>
-    <t>http://mxesprod.web.boeing.com/maximo/webclient/login/login.jsp</t>
-  </si>
-  <si>
-    <t>TMC (Total Manufacturing Cost)</t>
-  </si>
-  <si>
-    <t>ETS (Employee Timekeeping System)</t>
-  </si>
-  <si>
-    <t>http://ethics.whq.boeing.com/lm/</t>
-  </si>
-  <si>
-    <t>Acronym Search / Term Bank</t>
-  </si>
-  <si>
-    <t>Boeing Now</t>
-  </si>
-  <si>
-    <t>http://www.boeing.com/nosearch/boeing-now/index.html</t>
-  </si>
-  <si>
-    <t>Boeing Store</t>
-  </si>
-  <si>
-    <t>https://www.boeingstore.com/</t>
-  </si>
-  <si>
-    <t>BORIS (Boeing Opportunities, Risks and Issues Management System)</t>
-  </si>
-  <si>
-    <t>CARATS (Computing Account Request and Tracking System)</t>
-  </si>
-  <si>
-    <t>CMES (Common Manufacturing Execution System)</t>
-  </si>
-  <si>
-    <t>https://cmesbca.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>Conference Room Search</t>
-  </si>
-  <si>
-    <t>http://rooms.web.boeing.com/CRSS_Search.ASPX</t>
-  </si>
-  <si>
-    <t>DCAC CAR Form</t>
-  </si>
-  <si>
-    <t>https://infosecnew.web.boeing.com/RelatedDocuments/BCAProtect/DCAC_CAR.docm</t>
-  </si>
-  <si>
-    <t>DMVS (Demand Management Visibility Service)</t>
-  </si>
-  <si>
-    <t>EHD (Enterprise Help Desk)</t>
-  </si>
-  <si>
-    <t>EITMS (Employee Involvement Team Management System)</t>
-  </si>
-  <si>
-    <t>http://eitms.web.boeing.com</t>
-  </si>
-  <si>
-    <t>eTRAC- Part Shortages and Exceptions</t>
-  </si>
-  <si>
-    <t>http://etrac.web.boeing.com/etrac</t>
-  </si>
-  <si>
-    <t>Frontiers</t>
-  </si>
-  <si>
-    <t>http://www.boeing.com/features/frontiers/index.page</t>
-  </si>
-  <si>
-    <t>MARS (My Account Request System)</t>
-  </si>
-  <si>
-    <t>https://marsprod.web.boeing.com:8084/mars/home?0</t>
-  </si>
-  <si>
-    <t>MESci (Manufacturing Execution Systems Common Image)</t>
-  </si>
-  <si>
-    <t>https://my.boeing.com/portal/server.pt/community/mes/2394</t>
-  </si>
-  <si>
-    <t>PIMS (Program Information Management System)</t>
-  </si>
-  <si>
-    <t>http://pims-v4.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>Popular Links (Maps, Insite, Site Tours, Food Services, My Learning, Travel @ Boeing, WebEx)</t>
-  </si>
-  <si>
-    <t>REDARS (Reference Engineering Drawing Automated Retrieval System) / EID (Engineering Information Delivery)</t>
-  </si>
-  <si>
-    <t>https://redars.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>SAT (Shipside Action Tracker)</t>
-  </si>
-  <si>
-    <t>Velocity</t>
-  </si>
-  <si>
-    <t>https://velocity.web.boeing.com/</t>
-  </si>
-  <si>
-    <t>Well Being Resources</t>
-  </si>
-  <si>
-    <t>http://wellbeingresources.web.boeing.com/</t>
+    <t>Boeing Behaviors</t>
+  </si>
+  <si>
+    <t>https://ourflightplan.web.boeing.com/culture.shtml</t>
+  </si>
+  <si>
+    <t>Boeing Leadership Center</t>
+  </si>
+  <si>
+    <t>http://hr1.web.boeing.com/ltmoe/ltmoe_boeing_leadership_center.cfm</t>
+  </si>
+  <si>
+    <t>Career Development Framework</t>
+  </si>
+  <si>
+    <t>http://ltd.web.boeing.com/careerDev/index.html</t>
+  </si>
+  <si>
+    <t>Careers @ Boeing</t>
+  </si>
+  <si>
+    <t>https://my.boeing.com/portal/server.pt/community/totalaccess/399#CareerOpportunities</t>
+  </si>
+  <si>
+    <t>Decision Making</t>
+  </si>
+  <si>
+    <t>http://hr1.web.boeing.com/ltmoe/ltmoe_decision_making_intro_info.cfm</t>
+  </si>
+  <si>
+    <t>Mentoring</t>
+  </si>
+  <si>
+    <t>http://mentoring.web.boeing.com/</t>
+  </si>
+  <si>
+    <t>Salaried Job Classification (SJC)</t>
+  </si>
+  <si>
+    <t>http://sjcs.web.boeing.com/cfm/occ_list.cfm?sort=code</t>
+  </si>
+  <si>
+    <t>Developing SMART Priorities</t>
+  </si>
+  <si>
+    <t>Enhancing Performance Conversations</t>
+  </si>
+  <si>
+    <t>Performance and Development Partnership</t>
+  </si>
+  <si>
+    <t>Performance and Development Partnership Align Invest Motivate</t>
+  </si>
+  <si>
+    <t>Performance Management Overview</t>
+  </si>
+  <si>
+    <t>Performance Management Playbook for Managers &amp;amp; Employees</t>
+  </si>
+  <si>
+    <t>http://hr1.web.boeing.com/documents/ltmoe/Developing_SMART_Goals.pdf</t>
+  </si>
+  <si>
+    <t>http://hr1.web.boeing.com/documents/ltmoe/LetsTalkResource.pdf</t>
+  </si>
+  <si>
+    <t>http://tma.web.boeing.com/authoria/cgi-bin/athcgi.exe?EmployeeID=wss_session_id=tI-oTb2n5sH12yJtjpLptBw|1517869687496&amp;command=showpage&amp;page=BoeePerf_Home</t>
+  </si>
+  <si>
+    <t>http://hr1.web.boeing.com/documents/ltmoe/PM_Playbook.pptx</t>
   </si>
 </sst>
 </file>
@@ -2957,9 +2882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42396E6-F478-4B75-B1F5-C87D3BA47C18}">
   <dimension ref="A1:H541"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H385"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3044,7 +2969,7 @@
       </c>
       <c r="D5" s="43" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C1)</f>
-        <v>http://termbank.web.boeing.com/#/</v>
+        <v>https://ourflightplan.web.boeing.com/culture.shtml</v>
       </c>
       <c r="E5" s="43" t="str">
         <f>IF(Lookup!C1="&lt;&lt;Accordion&gt;&gt;",Lookup!A1,"")</f>
@@ -3056,7 +2981,7 @@
       </c>
       <c r="G5" s="32" t="str">
         <f>Lookup!B$1</f>
-        <v>Acronym Search / Term Bank</v>
+        <v>Boeing Behaviors</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>7</v>
@@ -3175,7 +3100,7 @@
       </c>
       <c r="D17" s="43" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C2)</f>
-        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
+        <v>http://lead.web.boeing.com/ben/BEN_on_demand.html</v>
       </c>
       <c r="E17" s="43" t="str">
         <f>IF(Lookup!C2="&lt;&lt;Accordion&gt;&gt;",Lookup!A2,"")</f>
@@ -3187,7 +3112,7 @@
       </c>
       <c r="G17" s="32" t="str">
         <f>Lookup!B$2</f>
-        <v>BCA Security</v>
+        <v>Boeing Education Network</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>7</v>
@@ -3306,7 +3231,7 @@
       </c>
       <c r="D29" s="43" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C3)</f>
-        <v>https://bessy.web.boeing.com/</v>
+        <v>http://hr1.web.boeing.com/ltmoe/ltmoe_boeing_leadership_center.cfm</v>
       </c>
       <c r="E29" s="43" t="str">
         <f>IF(Lookup!C3="&lt;&lt;Accordion&gt;&gt;",Lookup!A3,"")</f>
@@ -3318,7 +3243,7 @@
       </c>
       <c r="G29" s="32" t="str">
         <f>Lookup!B$3</f>
-        <v>BESSy (Boeing Enterprise Shipping System)</v>
+        <v>Boeing Leadership Center</v>
       </c>
       <c r="H29" s="27" t="s">
         <v>7</v>
@@ -3437,7 +3362,7 @@
       </c>
       <c r="D41" s="43" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C4)</f>
-        <v>http://forms.web.boeing.com/index_enterprise.cfm</v>
+        <v>http://ltd.web.boeing.com/careerDev/index.html</v>
       </c>
       <c r="E41" s="43" t="str">
         <f>IF(Lookup!C4="&lt;&lt;Accordion&gt;&gt;",Lookup!A4,"")</f>
@@ -3449,7 +3374,7 @@
       </c>
       <c r="G41" s="32" t="str">
         <f>Lookup!B$4</f>
-        <v>Boeing Forms Library</v>
+        <v>Career Development Framework</v>
       </c>
       <c r="H41" s="27" t="s">
         <v>7</v>
@@ -3568,7 +3493,7 @@
       </c>
       <c r="D53" s="43" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C5)</f>
-        <v xml:space="preserve">http://finance.whq.boeing.com/organizations/bms.shtml </v>
+        <v>https://my.boeing.com/portal/server.pt/community/totalaccess/399#CareerOpportunities</v>
       </c>
       <c r="E53" s="43" t="str">
         <f>IF(Lookup!C5="&lt;&lt;Accordion&gt;&gt;",Lookup!A5,"")</f>
@@ -3580,7 +3505,7 @@
       </c>
       <c r="G53" s="32" t="str">
         <f>Lookup!B$5</f>
-        <v>Boeing Management System</v>
+        <v>Careers @ Boeing</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>7</v>
@@ -3699,7 +3624,7 @@
       </c>
       <c r="D65" s="43" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C6)</f>
-        <v>http://www.boeing.com/nosearch/boeing-now/index.html</v>
+        <v>http://hr1.web.boeing.com/documents/ltmoe/Connectplan.pdf</v>
       </c>
       <c r="E65" s="43" t="str">
         <f>IF(Lookup!C6="&lt;&lt;Accordion&gt;&gt;",Lookup!A6,"")</f>
@@ -3711,7 +3636,7 @@
       </c>
       <c r="G65" s="32" t="str">
         <f>Lookup!B$6</f>
-        <v>Boeing Now</v>
+        <v>Connect Plan</v>
       </c>
       <c r="H65" s="27" t="s">
         <v>7</v>
@@ -3830,7 +3755,7 @@
       </c>
       <c r="D77" s="43" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C7)</f>
-        <v>https://www.boeingstore.com/</v>
+        <v>http://hr1.web.boeing.com/ltmoe/ltmoe_decision_making_intro_info.cfm</v>
       </c>
       <c r="E77" s="43" t="str">
         <f>IF(Lookup!C7="&lt;&lt;Accordion&gt;&gt;",Lookup!A7,"")</f>
@@ -3842,7 +3767,7 @@
       </c>
       <c r="G77" s="32" t="str">
         <f>Lookup!B$7</f>
-        <v>Boeing Store</v>
+        <v>Decision Making</v>
       </c>
       <c r="H77" s="27" t="s">
         <v>7</v>
@@ -3961,7 +3886,7 @@
       </c>
       <c r="D89" s="43" t="str">
         <f>Lookup!C$8</f>
-        <v>https://boris.web.boeing.com/newboris/</v>
+        <v>http://mentoring.web.boeing.com/</v>
       </c>
       <c r="E89" s="43" t="str">
         <f>IF(Lookup!C8="&lt;&lt;Accordion&gt;&gt;",Lookup!A8,"")</f>
@@ -3973,7 +3898,7 @@
       </c>
       <c r="G89" s="32" t="str">
         <f>Lookup!B$8</f>
-        <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
+        <v>Mentoring</v>
       </c>
       <c r="H89" s="27" t="s">
         <v>7</v>
@@ -4092,7 +4017,7 @@
       </c>
       <c r="D101" s="43" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C9)</f>
-        <v>http://carats.ca.boeing.com/Request.asp</v>
+        <v>http://sjcs.web.boeing.com/cfm/occ_list.cfm?sort=code</v>
       </c>
       <c r="E101" s="43" t="str">
         <f>IF(Lookup!C9="&lt;&lt;Accordion&gt;&gt;",Lookup!A9,"")</f>
@@ -4104,7 +4029,7 @@
       </c>
       <c r="G101" s="32" t="str">
         <f>Lookup!B$9</f>
-        <v>CARATS (Computing Account Request and Tracking System)</v>
+        <v>Salaried Job Classification (SJC)</v>
       </c>
       <c r="H101" s="27" t="s">
         <v>7</v>
@@ -4223,7 +4148,7 @@
       </c>
       <c r="D113" s="43" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C10)</f>
-        <v>http://financesystemseus.web.boeing.com/sys_CLAS.html</v>
+        <v>https://boeing.skillport.com/</v>
       </c>
       <c r="E113" s="43" t="str">
         <f>IF(Lookup!C10="&lt;&lt;Accordion&gt;&gt;",Lookup!A10,"")</f>
@@ -4235,7 +4160,7 @@
       </c>
       <c r="G113" s="32" t="str">
         <f>Lookup!B$10</f>
-        <v>CLAS (Charge Line Authorization and Set UP)</v>
+        <v>Skillport</v>
       </c>
       <c r="H113" s="27" t="s">
         <v>7</v>
@@ -4354,7 +4279,7 @@
       </c>
       <c r="D125" s="43" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C11)</f>
-        <v>https://cmesbca.web.boeing.com/</v>
+        <v>https://hbr.org/2014/09/a-framework-for-understanding-vuca</v>
       </c>
       <c r="E125" s="43" t="str">
         <f>IF(Lookup!C11="&lt;&lt;Accordion&gt;&gt;",Lookup!A11,"")</f>
@@ -4366,7 +4291,7 @@
       </c>
       <c r="G125" s="32" t="str">
         <f>Lookup!B$11</f>
-        <v>CMES (Common Manufacturing Execution System)</v>
+        <v>VUCA Concepts (Volatility, Uncertainty, Complexity, Ambiguity)</v>
       </c>
       <c r="H125" s="27" t="s">
         <v>7</v>
@@ -4483,9 +4408,9 @@
       <c r="C137" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D137" s="43" t="str">
+      <c r="D137" s="43">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C12)</f>
-        <v>http://rooms.web.boeing.com/CRSS_Search.ASPX</v>
+        <v>0</v>
       </c>
       <c r="E137" s="43" t="str">
         <f>IF(Lookup!C12="&lt;&lt;Accordion&gt;&gt;",Lookup!A12,"")</f>
@@ -4495,9 +4420,9 @@
         <f>IF(D137="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G137" s="32" t="str">
+      <c r="G137" s="32">
         <f>Lookup!B$12</f>
-        <v>Conference Room Search</v>
+        <v>0</v>
       </c>
       <c r="H137" s="27" t="s">
         <v>7</v>
@@ -4614,9 +4539,9 @@
       <c r="C149" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D149" s="43" t="str">
+      <c r="D149" s="43">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C13)</f>
-        <v>https://infosecnew.web.boeing.com/RelatedDocuments/BCAProtect/DCAC_CAR.docm</v>
+        <v>0</v>
       </c>
       <c r="E149" s="43" t="str">
         <f>IF(Lookup!C13="&lt;&lt;Accordion&gt;&gt;",Lookup!A13,"")</f>
@@ -4626,9 +4551,9 @@
         <f>IF(D149="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G149" s="32" t="str">
+      <c r="G149" s="32">
         <f>Lookup!B$13</f>
-        <v>DCAC CAR Form</v>
+        <v>0</v>
       </c>
       <c r="H149" s="27" t="s">
         <v>7</v>
@@ -4745,9 +4670,9 @@
       <c r="C161" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D161" s="43" t="str">
+      <c r="D161" s="43">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C14)</f>
-        <v>https://dmvs6.web.boeing.com/#/Actions</v>
+        <v>0</v>
       </c>
       <c r="E161" s="43" t="str">
         <f>IF(Lookup!C14="&lt;&lt;Accordion&gt;&gt;",Lookup!A14,"")</f>
@@ -4757,9 +4682,9 @@
         <f>IF(D161="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G161" s="32" t="str">
+      <c r="G161" s="32">
         <f>Lookup!B$14</f>
-        <v>DMVS (Demand Management Visibility Service)</v>
+        <v>0</v>
       </c>
       <c r="H161" s="27" t="s">
         <v>7</v>
@@ -4876,9 +4801,9 @@
       <c r="C173" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D173" s="43" t="str">
+      <c r="D173" s="43">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C15)</f>
-        <v>http://helpdesk.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E173" s="43" t="str">
         <f>IF(Lookup!C15="&lt;&lt;Accordion&gt;&gt;",Lookup!A15,"")</f>
@@ -4888,9 +4813,9 @@
         <f>IF(D173="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G173" s="32" t="str">
+      <c r="G173" s="32">
         <f>Lookup!B$15</f>
-        <v>EHD (Enterprise Help Desk)</v>
+        <v>0</v>
       </c>
       <c r="H173" s="27" t="s">
         <v>7</v>
@@ -5007,9 +4932,9 @@
       <c r="C185" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D185" s="43" t="str">
+      <c r="D185" s="43">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C16)</f>
-        <v>http://eitms.web.boeing.com</v>
+        <v>0</v>
       </c>
       <c r="E185" s="43" t="str">
         <f>IF(Lookup!C16="&lt;&lt;Accordion&gt;&gt;",Lookup!A16,"")</f>
@@ -5019,9 +4944,9 @@
         <f>IF(D185="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G185" s="32" t="str">
+      <c r="G185" s="32">
         <f>Lookup!B$16</f>
-        <v>EITMS (Employee Involvement Team Management System)</v>
+        <v>0</v>
       </c>
       <c r="H185" s="27" t="s">
         <v>7</v>
@@ -5138,9 +5063,9 @@
       <c r="C197" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D197" s="43" t="str">
+      <c r="D197" s="43">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C17)</f>
-        <v>http://etrac.web.boeing.com/etrac</v>
+        <v>0</v>
       </c>
       <c r="E197" s="43" t="str">
         <f>IF(Lookup!C17="&lt;&lt;Accordion&gt;&gt;",Lookup!A17,"")</f>
@@ -5150,9 +5075,9 @@
         <f>IF(D197="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G197" s="32" t="str">
+      <c r="G197" s="32">
         <f>Lookup!B$17</f>
-        <v>eTRAC- Part Shortages and Exceptions</v>
+        <v>0</v>
       </c>
       <c r="H197" s="27" t="s">
         <v>7</v>
@@ -5264,26 +5189,26 @@
       </c>
       <c r="B209" s="27" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C209" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D209" s="43" t="str">
+      <c r="D209" s="43">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C18)</f>
-        <v>#collapse</v>
-      </c>
-      <c r="E209" s="43">
+        <v>0</v>
+      </c>
+      <c r="E209" s="43" t="str">
         <f>IF(Lookup!C18="&lt;&lt;Accordion&gt;&gt;",Lookup!A18,"")</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="F209" s="27" t="str">
         <f>IF(D209="#collapse",REF!$A$3,REF!$A$4)</f>
-        <v xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </v>
-      </c>
-      <c r="G209" s="32" t="str">
+        <v>"&gt;</v>
+      </c>
+      <c r="G209" s="32">
         <f>Lookup!B$18</f>
-        <v>ETS (Employee Timekeeping System)</v>
+        <v>0</v>
       </c>
       <c r="H209" s="27" t="s">
         <v>7</v>
@@ -5400,9 +5325,9 @@
       <c r="C221" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D221" s="43" t="str">
+      <c r="D221" s="43">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C19)</f>
-        <v>http://www.boeing.com/features/frontiers/index.page</v>
+        <v>0</v>
       </c>
       <c r="E221" s="43" t="str">
         <f>IF(Lookup!C19="&lt;&lt;Accordion&gt;&gt;",Lookup!A19,"")</f>
@@ -5412,9 +5337,9 @@
         <f>IF(D221="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G221" s="32" t="str">
+      <c r="G221" s="32">
         <f>Lookup!B$19</f>
-        <v>Frontiers</v>
+        <v>0</v>
       </c>
       <c r="H221" s="27" t="s">
         <v>7</v>
@@ -5531,9 +5456,9 @@
       <c r="C233" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D233" s="43" t="str">
+      <c r="D233" s="43">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C20)</f>
-        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
+        <v>0</v>
       </c>
       <c r="E233" s="43" t="str">
         <f>IF(Lookup!C20="&lt;&lt;Accordion&gt;&gt;",Lookup!A20,"")</f>
@@ -5543,9 +5468,9 @@
         <f>IF(D233="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G233" s="32" t="str">
+      <c r="G233" s="32">
         <f>Lookup!B$20</f>
-        <v>Library Resources</v>
+        <v>0</v>
       </c>
       <c r="H233" s="27" t="s">
         <v>7</v>
@@ -5662,9 +5587,9 @@
       <c r="C245" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D245" s="43" t="str">
+      <c r="D245" s="43">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C21)</f>
-        <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
+        <v>0</v>
       </c>
       <c r="E245" s="43" t="str">
         <f>IF(Lookup!C21="&lt;&lt;Accordion&gt;&gt;",Lookup!A21,"")</f>
@@ -5674,9 +5599,9 @@
         <f>IF(D245="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G245" s="32" t="str">
+      <c r="G245" s="32">
         <f>Lookup!B$21</f>
-        <v>MARS (My Account Request System)</v>
+        <v>0</v>
       </c>
       <c r="H245" s="27" t="s">
         <v>7</v>
@@ -5793,9 +5718,9 @@
       <c r="C257" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D257" s="43" t="str">
+      <c r="D257" s="43">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C22)</f>
-        <v>http://mxesprod.web.boeing.com/maximo/webclient/login/login.jsp</v>
+        <v>0</v>
       </c>
       <c r="E257" s="43" t="str">
         <f>IF(Lookup!C22="&lt;&lt;Accordion&gt;&gt;",Lookup!A22,"")</f>
@@ -5805,9 +5730,9 @@
         <f>IF(D257="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G257" s="32" t="str">
+      <c r="G257" s="32">
         <f>Lookup!B$22</f>
-        <v>MAXIMO (Facilities Requests)</v>
+        <v>0</v>
       </c>
       <c r="H257" s="27" t="s">
         <v>7</v>
@@ -5924,9 +5849,9 @@
       <c r="C269" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D269" s="43" t="str">
+      <c r="D269" s="43">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C23)</f>
-        <v>https://my.boeing.com/portal/server.pt/community/mes/2394</v>
+        <v>0</v>
       </c>
       <c r="E269" s="43" t="str">
         <f>IF(Lookup!C23="&lt;&lt;Accordion&gt;&gt;",Lookup!A23,"")</f>
@@ -5936,9 +5861,9 @@
         <f>IF(D269="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G269" s="32" t="str">
+      <c r="G269" s="32">
         <f>Lookup!B$23</f>
-        <v>MESci (Manufacturing Execution Systems Common Image)</v>
+        <v>0</v>
       </c>
       <c r="H269" s="27" t="s">
         <v>7</v>
@@ -6055,9 +5980,9 @@
       <c r="C281" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D281" s="43" t="str">
+      <c r="D281" s="43">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C24)</f>
-        <v>https://wp-myb-portal.web.boeing.com/myb/myportal/SC/MySafety/Dashboard/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizTwMTDwNnA18LbxMTAwc3YKN_Vy8PQzdg031w9EUBHiaGjj6BBgEBoS6Ghu4m-pHEaPfAAdwNCBOPx4FUfiND9ePwmuFvzGGAkwvErKkIDc0NMIg0xMA0s2Vkw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</v>
+        <v>0</v>
       </c>
       <c r="E281" s="43" t="str">
         <f>IF(Lookup!C24="&lt;&lt;Accordion&gt;&gt;",Lookup!A24,"")</f>
@@ -6067,9 +5992,9 @@
         <f>IF(D281="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G281" s="32" t="str">
+      <c r="G281" s="32">
         <f>Lookup!B$24</f>
-        <v>My Safety Dashboard</v>
+        <v>0</v>
       </c>
       <c r="H281" s="27" t="s">
         <v>7</v>
@@ -6186,9 +6111,9 @@
       <c r="C293" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D293" s="43" t="str">
+      <c r="D293" s="43">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C25)</f>
-        <v>http://pims-v4.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E293" s="43" t="str">
         <f>IF(Lookup!C25="&lt;&lt;Accordion&gt;&gt;",Lookup!A25,"")</f>
@@ -6198,9 +6123,9 @@
         <f>IF(D293="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G293" s="32" t="str">
+      <c r="G293" s="32">
         <f>Lookup!B$25</f>
-        <v>PIMS (Program Information Management System)</v>
+        <v>0</v>
       </c>
       <c r="H293" s="27" t="s">
         <v>7</v>
@@ -6312,26 +6237,26 @@
       </c>
       <c r="B305" s="27" t="str">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;",REF!$A$1,"")</f>
-        <v>data-toggle="collapse" data-parent="#accordion"</v>
+        <v/>
       </c>
       <c r="C305" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D305" s="43" t="str">
+      <c r="D305" s="43">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C26)</f>
-        <v>#collapse</v>
-      </c>
-      <c r="E305" s="43">
+        <v>0</v>
+      </c>
+      <c r="E305" s="43" t="str">
         <f>IF(Lookup!C26="&lt;&lt;Accordion&gt;&gt;",Lookup!A26,"")</f>
-        <v>26</v>
+        <v/>
       </c>
       <c r="F305" s="27" t="str">
         <f>IF(D305="#collapse",REF!$A$3,REF!$A$4)</f>
-        <v xml:space="preserve">"&gt;&lt;i class="zmdi zmdi-caret-down-circle"&gt;&lt;/i&gt;  </v>
-      </c>
-      <c r="G305" s="32" t="str">
+        <v>"&gt;</v>
+      </c>
+      <c r="G305" s="32">
         <f>Lookup!B$26</f>
-        <v>Popular Links (Maps, Insite, Site Tours, Food Services, My Learning, Travel @ Boeing, WebEx)</v>
+        <v>0</v>
       </c>
       <c r="H305" s="27" t="s">
         <v>7</v>
@@ -6448,9 +6373,9 @@
       <c r="C317" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D317" s="43" t="str">
+      <c r="D317" s="43">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C27)</f>
-        <v>https://redars.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E317" s="43" t="str">
         <f>IF(Lookup!C27="&lt;&lt;Accordion&gt;&gt;",Lookup!A27,"")</f>
@@ -6460,9 +6385,9 @@
         <f>IF(D317="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G317" s="32" t="str">
+      <c r="G317" s="32">
         <f>Lookup!B$27</f>
-        <v>REDARS (Reference Engineering Drawing Automated Retrieval System) / EID (Engineering Information Delivery)</v>
+        <v>0</v>
       </c>
       <c r="H317" s="27" t="s">
         <v>7</v>
@@ -6579,9 +6504,9 @@
       <c r="C329" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D329" s="43" t="str">
+      <c r="D329" s="43">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C28)</f>
-        <v>http://satsystem.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E329" s="43" t="str">
         <f>IF(Lookup!C28="&lt;&lt;Accordion&gt;&gt;",Lookup!A28,"")</f>
@@ -6591,9 +6516,9 @@
         <f>IF(D329="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G329" s="32" t="str">
+      <c r="G329" s="32">
         <f>Lookup!B$28</f>
-        <v>SAT (Shipside Action Tracker)</v>
+        <v>0</v>
       </c>
       <c r="H329" s="27" t="s">
         <v>7</v>
@@ -6710,9 +6635,9 @@
       <c r="C341" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D341" s="43" t="str">
+      <c r="D341" s="43">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C29)</f>
-        <v>http://www.boeing.com/company/tours/</v>
+        <v>0</v>
       </c>
       <c r="E341" s="43" t="str">
         <f>IF(Lookup!C29="&lt;&lt;Accordion&gt;&gt;",Lookup!A29,"")</f>
@@ -6722,9 +6647,9 @@
         <f>IF(D341="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G341" s="32" t="str">
+      <c r="G341" s="32">
         <f>Lookup!B$29</f>
-        <v>Site Tours</v>
+        <v>0</v>
       </c>
       <c r="H341" s="27" t="s">
         <v>7</v>
@@ -6841,9 +6766,9 @@
       <c r="C353" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D353" s="43" t="str">
+      <c r="D353" s="43">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C30)</f>
-        <v>http://tmcnet.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E353" s="43" t="str">
         <f>IF(Lookup!C30="&lt;&lt;Accordion&gt;&gt;",Lookup!A30,"")</f>
@@ -6853,9 +6778,9 @@
         <f>IF(D353="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G353" s="32" t="str">
+      <c r="G353" s="32">
         <f>Lookup!B$30</f>
-        <v>TMC (Total Manufacturing Cost)</v>
+        <v>0</v>
       </c>
       <c r="H353" s="27" t="s">
         <v>7</v>
@@ -6972,9 +6897,9 @@
       <c r="C365" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D365" s="43" t="str">
+      <c r="D365" s="43">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C31)</f>
-        <v>https://velocity.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E365" s="43" t="str">
         <f>IF(Lookup!C31="&lt;&lt;Accordion&gt;&gt;",Lookup!A31,"")</f>
@@ -6984,9 +6909,9 @@
         <f>IF(D365="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G365" s="32" t="str">
+      <c r="G365" s="32">
         <f>Lookup!B$31</f>
-        <v>Velocity</v>
+        <v>0</v>
       </c>
       <c r="H365" s="27" t="s">
         <v>7</v>
@@ -7103,9 +7028,9 @@
       <c r="C377" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D377" s="43" t="str">
+      <c r="D377" s="43">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;","#collapse",Lookup!C32)</f>
-        <v>http://wellbeingresources.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="E377" s="43" t="str">
         <f>IF(Lookup!C32="&lt;&lt;Accordion&gt;&gt;",Lookup!A32,"")</f>
@@ -7115,9 +7040,9 @@
         <f>IF(D377="#collapse",REF!$A$3,REF!$A$4)</f>
         <v>"&gt;</v>
       </c>
-      <c r="G377" s="32" t="str">
+      <c r="G377" s="32">
         <f>Lookup!B$32</f>
-        <v>Well Being Resources</v>
+        <v>0</v>
       </c>
       <c r="H377" s="27" t="s">
         <v>7</v>
@@ -13742,14 +13667,14 @@
       </c>
       <c r="B4" s="32" t="str">
         <f>Lookup!C$1</f>
-        <v>http://termbank.web.boeing.com/#/</v>
+        <v>https://ourflightplan.web.boeing.com/culture.shtml</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>Lookup!B$1</f>
-        <v>Acronym Search / Term Bank</v>
+        <v>Boeing Behaviors</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>7</v>
@@ -13851,14 +13776,14 @@
       </c>
       <c r="B16" s="32" t="str">
         <f>Lookup!C$2</f>
-        <v>https://securityandfire.web.boeing.com/bcasecurity/</v>
+        <v>http://lead.web.boeing.com/ben/BEN_on_demand.html</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>Lookup!B$2</f>
-        <v>BCA Security</v>
+        <v>Boeing Education Network</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>7</v>
@@ -13984,14 +13909,14 @@
       </c>
       <c r="B28" s="32" t="str">
         <f>Lookup!C$3</f>
-        <v>https://bessy.web.boeing.com/</v>
+        <v>http://hr1.web.boeing.com/ltmoe/ltmoe_boeing_leadership_center.cfm</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="32" t="str">
         <f>Lookup!B$3</f>
-        <v>BESSy (Boeing Enterprise Shipping System)</v>
+        <v>Boeing Leadership Center</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>7</v>
@@ -14117,14 +14042,14 @@
       </c>
       <c r="B40" s="32" t="str">
         <f>Lookup!C$4</f>
-        <v>http://forms.web.boeing.com/index_enterprise.cfm</v>
+        <v>http://ltd.web.boeing.com/careerDev/index.html</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="32" t="str">
         <f>Lookup!B$4</f>
-        <v>Boeing Forms Library</v>
+        <v>Career Development Framework</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>7</v>
@@ -14250,14 +14175,14 @@
       </c>
       <c r="B52" s="32" t="str">
         <f>Lookup!C$5</f>
-        <v xml:space="preserve">http://finance.whq.boeing.com/organizations/bms.shtml </v>
+        <v>https://my.boeing.com/portal/server.pt/community/totalaccess/399#CareerOpportunities</v>
       </c>
       <c r="C52" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="32" t="str">
         <f>Lookup!B$5</f>
-        <v>Boeing Management System</v>
+        <v>Careers @ Boeing</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>7</v>
@@ -14383,14 +14308,14 @@
       </c>
       <c r="B64" s="32" t="str">
         <f>Lookup!C$6</f>
-        <v>http://www.boeing.com/nosearch/boeing-now/index.html</v>
+        <v>http://hr1.web.boeing.com/documents/ltmoe/Connectplan.pdf</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="32" t="str">
         <f>Lookup!B$6</f>
-        <v>Boeing Now</v>
+        <v>Connect Plan</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>7</v>
@@ -14516,14 +14441,14 @@
       </c>
       <c r="B76" s="32" t="str">
         <f>Lookup!C$7</f>
-        <v>https://www.boeingstore.com/</v>
+        <v>http://hr1.web.boeing.com/ltmoe/ltmoe_decision_making_intro_info.cfm</v>
       </c>
       <c r="C76" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="32" t="str">
         <f>Lookup!B$7</f>
-        <v>Boeing Store</v>
+        <v>Decision Making</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>7</v>
@@ -14649,14 +14574,14 @@
       </c>
       <c r="B88" s="32" t="str">
         <f>Lookup!C$8</f>
-        <v>https://boris.web.boeing.com/newboris/</v>
+        <v>http://mentoring.web.boeing.com/</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="32" t="str">
         <f>Lookup!B$8</f>
-        <v>BORIS (Boeing Opportunities, Risks and Issues Management System)</v>
+        <v>Mentoring</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>7</v>
@@ -14782,14 +14707,14 @@
       </c>
       <c r="B100" s="32" t="str">
         <f>Lookup!C$9</f>
-        <v>http://carats.ca.boeing.com/Request.asp</v>
+        <v>http://sjcs.web.boeing.com/cfm/occ_list.cfm?sort=code</v>
       </c>
       <c r="C100" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="32" t="str">
         <f>Lookup!B$9</f>
-        <v>CARATS (Computing Account Request and Tracking System)</v>
+        <v>Salaried Job Classification (SJC)</v>
       </c>
       <c r="E100" s="28" t="s">
         <v>7</v>
@@ -14915,14 +14840,14 @@
       </c>
       <c r="B112" s="32" t="str">
         <f>Lookup!C$10</f>
-        <v>http://financesystemseus.web.boeing.com/sys_CLAS.html</v>
+        <v>https://boeing.skillport.com/</v>
       </c>
       <c r="C112" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="32" t="str">
         <f>Lookup!B$10</f>
-        <v>CLAS (Charge Line Authorization and Set UP)</v>
+        <v>Skillport</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>7</v>
@@ -15048,14 +14973,14 @@
       </c>
       <c r="B124" s="32" t="str">
         <f>Lookup!C$11</f>
-        <v>https://cmesbca.web.boeing.com/</v>
+        <v>https://hbr.org/2014/09/a-framework-for-understanding-vuca</v>
       </c>
       <c r="C124" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="32" t="str">
         <f>Lookup!B$11</f>
-        <v>CMES (Common Manufacturing Execution System)</v>
+        <v>VUCA Concepts (Volatility, Uncertainty, Complexity, Ambiguity)</v>
       </c>
       <c r="E124" s="28" t="s">
         <v>7</v>
@@ -15179,16 +15104,16 @@
       <c r="A136" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B136" s="32" t="str">
+      <c r="B136" s="32">
         <f>Lookup!C$12</f>
-        <v>http://rooms.web.boeing.com/CRSS_Search.ASPX</v>
+        <v>0</v>
       </c>
       <c r="C136" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="32" t="str">
+      <c r="D136" s="32">
         <f>Lookup!B$12</f>
-        <v>Conference Room Search</v>
+        <v>0</v>
       </c>
       <c r="E136" s="28" t="s">
         <v>7</v>
@@ -15312,16 +15237,16 @@
       <c r="A148" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B148" s="32" t="str">
+      <c r="B148" s="32">
         <f>Lookup!C$13</f>
-        <v>https://infosecnew.web.boeing.com/RelatedDocuments/BCAProtect/DCAC_CAR.docm</v>
+        <v>0</v>
       </c>
       <c r="C148" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="32" t="str">
+      <c r="D148" s="32">
         <f>Lookup!B$13</f>
-        <v>DCAC CAR Form</v>
+        <v>0</v>
       </c>
       <c r="E148" s="28" t="s">
         <v>7</v>
@@ -15445,16 +15370,16 @@
       <c r="A160" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B160" s="32" t="str">
+      <c r="B160" s="32">
         <f>Lookup!C$14</f>
-        <v>https://dmvs6.web.boeing.com/#/Actions</v>
+        <v>0</v>
       </c>
       <c r="C160" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="32" t="str">
+      <c r="D160" s="32">
         <f>Lookup!B$14</f>
-        <v>DMVS (Demand Management Visibility Service)</v>
+        <v>0</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>7</v>
@@ -15578,16 +15503,16 @@
       <c r="A172" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B172" s="32" t="str">
+      <c r="B172" s="32">
         <f>Lookup!C$15</f>
-        <v>http://helpdesk.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C172" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D172" s="32" t="str">
+      <c r="D172" s="32">
         <f>Lookup!B$15</f>
-        <v>EHD (Enterprise Help Desk)</v>
+        <v>0</v>
       </c>
       <c r="E172" s="28" t="s">
         <v>7</v>
@@ -15711,16 +15636,16 @@
       <c r="A184" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B184" s="32" t="str">
+      <c r="B184" s="32">
         <f>Lookup!C$16</f>
-        <v>http://eitms.web.boeing.com</v>
+        <v>0</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="32" t="str">
+      <c r="D184" s="32">
         <f>Lookup!B$16</f>
-        <v>EITMS (Employee Involvement Team Management System)</v>
+        <v>0</v>
       </c>
       <c r="E184" s="28" t="s">
         <v>7</v>
@@ -15844,16 +15769,16 @@
       <c r="A196" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B196" s="32" t="str">
+      <c r="B196" s="32">
         <f>Lookup!C$17</f>
-        <v>http://etrac.web.boeing.com/etrac</v>
+        <v>0</v>
       </c>
       <c r="C196" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D196" s="32" t="str">
+      <c r="D196" s="32">
         <f>Lookup!B$17</f>
-        <v>eTRAC- Part Shortages and Exceptions</v>
+        <v>0</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>7</v>
@@ -15977,16 +15902,16 @@
       <c r="A208" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B208" s="32" t="str">
+      <c r="B208" s="32">
         <f>Lookup!C$18</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>0</v>
       </c>
       <c r="C208" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D208" s="32" t="str">
+      <c r="D208" s="32">
         <f>Lookup!B$18</f>
-        <v>ETS (Employee Timekeeping System)</v>
+        <v>0</v>
       </c>
       <c r="E208" s="28" t="s">
         <v>7</v>
@@ -16110,16 +16035,16 @@
       <c r="A220" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B220" s="32" t="str">
+      <c r="B220" s="32">
         <f>Lookup!C$19</f>
-        <v>http://www.boeing.com/features/frontiers/index.page</v>
+        <v>0</v>
       </c>
       <c r="C220" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="32" t="str">
+      <c r="D220" s="32">
         <f>Lookup!B$19</f>
-        <v>Frontiers</v>
+        <v>0</v>
       </c>
       <c r="E220" s="28" t="s">
         <v>7</v>
@@ -16243,16 +16168,16 @@
       <c r="A232" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B232" s="32" t="str">
+      <c r="B232" s="32">
         <f>Lookup!C$20</f>
-        <v>http://library.web.boeing.com/resources/how-do-i-find.html</v>
+        <v>0</v>
       </c>
       <c r="C232" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="32" t="str">
+      <c r="D232" s="32">
         <f>Lookup!B$20</f>
-        <v>Library Resources</v>
+        <v>0</v>
       </c>
       <c r="E232" s="28" t="s">
         <v>7</v>
@@ -16376,16 +16301,16 @@
       <c r="A244" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B244" s="32" t="str">
+      <c r="B244" s="32">
         <f>Lookup!C$21</f>
-        <v>https://marsprod.web.boeing.com:8084/mars/home?0</v>
+        <v>0</v>
       </c>
       <c r="C244" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D244" s="32" t="str">
+      <c r="D244" s="32">
         <f>Lookup!B$21</f>
-        <v>MARS (My Account Request System)</v>
+        <v>0</v>
       </c>
       <c r="E244" s="28" t="s">
         <v>7</v>
@@ -16509,16 +16434,16 @@
       <c r="A256" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B256" s="32" t="str">
+      <c r="B256" s="32">
         <f>Lookup!C$22</f>
-        <v>http://mxesprod.web.boeing.com/maximo/webclient/login/login.jsp</v>
+        <v>0</v>
       </c>
       <c r="C256" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D256" s="32" t="str">
+      <c r="D256" s="32">
         <f>Lookup!B$22</f>
-        <v>MAXIMO (Facilities Requests)</v>
+        <v>0</v>
       </c>
       <c r="E256" s="28" t="s">
         <v>7</v>
@@ -16642,16 +16567,16 @@
       <c r="A268" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B268" s="32" t="str">
+      <c r="B268" s="32">
         <f>Lookup!C$23</f>
-        <v>https://my.boeing.com/portal/server.pt/community/mes/2394</v>
+        <v>0</v>
       </c>
       <c r="C268" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D268" s="32" t="str">
+      <c r="D268" s="32">
         <f>Lookup!B$23</f>
-        <v>MESci (Manufacturing Execution Systems Common Image)</v>
+        <v>0</v>
       </c>
       <c r="E268" s="28" t="s">
         <v>7</v>
@@ -16775,16 +16700,16 @@
       <c r="A280" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B280" s="32" t="str">
+      <c r="B280" s="32">
         <f>Lookup!C$24</f>
-        <v>https://wp-myb-portal.web.boeing.com/myb/myportal/SC/MySafety/Dashboard/!ut/p/z1/04_Sj9CPykssy0xPLMnMz0vMAfIjo8zizTwMTDwNnA18LbxMTAwc3YKN_Vy8PQzdg031w9EUBHiaGjj6BBgEBoS6Ghu4m-pHEaPfAAdwNCBOPx4FUfiND9ePwmuFvzGGAkwvErKkIDc0NMIg0xMA0s2Vkw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</v>
+        <v>0</v>
       </c>
       <c r="C280" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D280" s="32" t="str">
+      <c r="D280" s="32">
         <f>Lookup!B$24</f>
-        <v>My Safety Dashboard</v>
+        <v>0</v>
       </c>
       <c r="E280" s="28" t="s">
         <v>7</v>
@@ -16908,16 +16833,16 @@
       <c r="A292" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B292" s="32" t="str">
+      <c r="B292" s="32">
         <f>Lookup!C$25</f>
-        <v>http://pims-v4.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C292" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D292" s="32" t="str">
+      <c r="D292" s="32">
         <f>Lookup!B$25</f>
-        <v>PIMS (Program Information Management System)</v>
+        <v>0</v>
       </c>
       <c r="E292" s="28" t="s">
         <v>7</v>
@@ -17041,16 +16966,16 @@
       <c r="A304" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B304" s="32" t="str">
+      <c r="B304" s="32">
         <f>Lookup!C$26</f>
-        <v>&lt;&lt;Accordion&gt;&gt;</v>
+        <v>0</v>
       </c>
       <c r="C304" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D304" s="32" t="str">
+      <c r="D304" s="32">
         <f>Lookup!B$26</f>
-        <v>Popular Links (Maps, Insite, Site Tours, Food Services, My Learning, Travel @ Boeing, WebEx)</v>
+        <v>0</v>
       </c>
       <c r="E304" s="28" t="s">
         <v>7</v>
@@ -17174,16 +17099,16 @@
       <c r="A316" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B316" s="32" t="str">
+      <c r="B316" s="32">
         <f>Lookup!C$27</f>
-        <v>https://redars.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C316" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D316" s="32" t="str">
+      <c r="D316" s="32">
         <f>Lookup!B$27</f>
-        <v>REDARS (Reference Engineering Drawing Automated Retrieval System) / EID (Engineering Information Delivery)</v>
+        <v>0</v>
       </c>
       <c r="E316" s="28" t="s">
         <v>7</v>
@@ -17307,16 +17232,16 @@
       <c r="A328" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B328" s="32" t="str">
+      <c r="B328" s="32">
         <f>Lookup!C$28</f>
-        <v>http://satsystem.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C328" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D328" s="32" t="str">
+      <c r="D328" s="32">
         <f>Lookup!B$28</f>
-        <v>SAT (Shipside Action Tracker)</v>
+        <v>0</v>
       </c>
       <c r="E328" s="28" t="s">
         <v>7</v>
@@ -17440,16 +17365,16 @@
       <c r="A340" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B340" s="32" t="str">
+      <c r="B340" s="32">
         <f>Lookup!C$29</f>
-        <v>http://www.boeing.com/company/tours/</v>
+        <v>0</v>
       </c>
       <c r="C340" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D340" s="32" t="str">
+      <c r="D340" s="32">
         <f>Lookup!B$29</f>
-        <v>Site Tours</v>
+        <v>0</v>
       </c>
       <c r="E340" s="28" t="s">
         <v>7</v>
@@ -17573,16 +17498,16 @@
       <c r="A352" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B352" s="32" t="str">
+      <c r="B352" s="32">
         <f>Lookup!C$30</f>
-        <v>http://tmcnet.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C352" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D352" s="32" t="str">
+      <c r="D352" s="32">
         <f>Lookup!B$30</f>
-        <v>TMC (Total Manufacturing Cost)</v>
+        <v>0</v>
       </c>
       <c r="E352" s="28" t="s">
         <v>7</v>
@@ -17706,16 +17631,16 @@
       <c r="A364" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B364" s="32" t="str">
+      <c r="B364" s="32">
         <f>Lookup!C$31</f>
-        <v>https://velocity.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C364" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D364" s="32" t="str">
+      <c r="D364" s="32">
         <f>Lookup!B$31</f>
-        <v>Velocity</v>
+        <v>0</v>
       </c>
       <c r="E364" s="28" t="s">
         <v>7</v>
@@ -17839,16 +17764,16 @@
       <c r="A376" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B376" s="32" t="str">
+      <c r="B376" s="32">
         <f>Lookup!C$32</f>
-        <v>http://wellbeingresources.web.boeing.com/</v>
+        <v>0</v>
       </c>
       <c r="C376" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D376" s="32" t="str">
+      <c r="D376" s="32">
         <f>Lookup!B$32</f>
-        <v>Well Being Resources</v>
+        <v>0</v>
       </c>
       <c r="E376" s="28" t="s">
         <v>7</v>
@@ -20228,7 +20153,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C32"/>
+      <selection activeCell="B1" sqref="B1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20243,10 +20168,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>247</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -20254,10 +20179,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>235</v>
+        <v>431</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>248</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -20265,10 +20190,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -20276,10 +20201,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>53</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -20287,10 +20212,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -20298,10 +20223,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>623</v>
+        <v>130</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>624</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -20309,10 +20234,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -20320,10 +20245,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -20331,10 +20256,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>249</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -20342,10 +20267,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>614</v>
+        <v>158</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>615</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -20353,241 +20278,134 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>629</v>
+        <v>157</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>630</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>632</v>
-      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>13</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>634</v>
-      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>14</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>616</v>
-      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>255</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>16</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>638</v>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>17</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>640</v>
-      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>620</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>608</v>
-      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>641</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>642</v>
-      </c>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>253</v>
-      </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>643</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>644</v>
-      </c>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>617</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>618</v>
-      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>645</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>646</v>
-      </c>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>437</v>
-      </c>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>647</v>
-      </c>
-      <c r="C25" t="s">
-        <v>648</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>649</v>
-      </c>
-      <c r="C26" t="s">
-        <v>608</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>650</v>
-      </c>
-      <c r="C27" t="s">
-        <v>651</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>652</v>
-      </c>
-      <c r="C28" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>619</v>
-      </c>
-      <c r="C30" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>653</v>
-      </c>
-      <c r="C31" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>655</v>
-      </c>
-      <c r="C32" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -22405,8 +22223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6128076B-D58D-4E98-BC8B-AFEDE8054AD0}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22427,12 +22245,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="F1" s="33" t="s">
         <v>27</v>
       </c>
@@ -22445,10 +22265,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>622</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>27</v>
@@ -22461,9 +22284,14 @@
       <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>629</v>
+      </c>
       <c r="D3" s="33" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>623</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>27</v>
@@ -22476,9 +22304,14 @@
       <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17" t="s">
+        <v>587</v>
+      </c>
       <c r="D4" s="33" t="s">
         <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>624</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>27</v>
@@ -22491,9 +22324,14 @@
       <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>587</v>
+      </c>
       <c r="D5" s="33" t="s">
         <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>625</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>27</v>
@@ -22506,9 +22344,14 @@
       <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>630</v>
+      </c>
       <c r="D6" s="33" t="s">
         <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>626</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>27</v>
@@ -22521,9 +22364,14 @@
       <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>631</v>
+      </c>
       <c r="D7" s="33" t="s">
         <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>627</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>27</v>
@@ -23035,7 +22883,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
